--- a/database/industries/kashi/kesave/product/monthly.xlsx
+++ b/database/industries/kashi/kesave/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF71D621-03E3-44F5-9F8E-E49A02106893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18442874-9E16-4FBC-B860-66D322529BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>کاشی کف</t>
@@ -1412,98 +1412,98 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>89127</v>
+        <v>113419</v>
       </c>
       <c r="F11" s="11">
-        <v>113419</v>
+        <v>128632</v>
       </c>
       <c r="G11" s="11">
-        <v>128632</v>
+        <v>116251</v>
       </c>
       <c r="H11" s="11">
-        <v>116251</v>
+        <v>110834</v>
       </c>
       <c r="I11" s="11">
-        <v>110834</v>
+        <v>106623</v>
       </c>
       <c r="J11" s="11">
-        <v>106623</v>
+        <v>79214</v>
       </c>
       <c r="K11" s="11">
-        <v>79214</v>
+        <v>5281</v>
       </c>
       <c r="L11" s="11">
-        <v>5281</v>
+        <v>161447</v>
       </c>
       <c r="M11" s="11">
-        <v>161447</v>
+        <v>201245</v>
       </c>
       <c r="N11" s="11">
-        <v>201245</v>
+        <v>199126</v>
       </c>
       <c r="O11" s="11">
-        <v>199126</v>
+        <v>170160</v>
       </c>
       <c r="P11" s="11">
-        <v>170160</v>
+        <v>197563</v>
       </c>
       <c r="Q11" s="11">
-        <v>197563</v>
+        <v>171185</v>
       </c>
       <c r="R11" s="11">
-        <v>171185</v>
+        <v>142465</v>
       </c>
       <c r="S11" s="11">
-        <v>142465</v>
+        <v>200242</v>
       </c>
       <c r="T11" s="11">
-        <v>200242</v>
+        <v>163057</v>
       </c>
       <c r="U11" s="11">
-        <v>163057</v>
+        <v>124639</v>
       </c>
       <c r="V11" s="11">
-        <v>124639</v>
+        <v>155605</v>
       </c>
       <c r="W11" s="11">
-        <v>155605</v>
+        <v>37606</v>
       </c>
       <c r="X11" s="11">
-        <v>37606</v>
+        <v>104757</v>
       </c>
       <c r="Y11" s="11">
-        <v>104757</v>
+        <v>210843</v>
       </c>
       <c r="Z11" s="11">
-        <v>210843</v>
+        <v>193695</v>
       </c>
       <c r="AA11" s="11">
-        <v>193695</v>
+        <v>163665</v>
       </c>
       <c r="AB11" s="11">
-        <v>163665</v>
+        <v>159934</v>
       </c>
       <c r="AC11" s="11">
-        <v>159934</v>
+        <v>170994</v>
       </c>
       <c r="AD11" s="11">
-        <v>170994</v>
+        <v>143473</v>
       </c>
       <c r="AE11" s="11">
-        <v>143473</v>
+        <v>172630</v>
       </c>
       <c r="AF11" s="11">
-        <v>172630</v>
+        <v>195869</v>
       </c>
       <c r="AG11" s="11">
-        <v>195869</v>
+        <v>187957</v>
       </c>
       <c r="AH11" s="11">
-        <v>187957</v>
-      </c>
-      <c r="AI11" s="11">
         <v>187995</v>
       </c>
+      <c r="AI11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1537,29 +1537,29 @@
       <c r="AT11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU11" s="11" t="s">
-        <v>57</v>
+      <c r="AU11" s="11">
+        <v>121757</v>
       </c>
       <c r="AV11" s="11">
-        <v>121757</v>
+        <v>297564</v>
       </c>
       <c r="AW11" s="11">
-        <v>297564</v>
+        <v>328902</v>
       </c>
       <c r="AX11" s="11">
-        <v>328902</v>
+        <v>277167</v>
       </c>
       <c r="AY11" s="11">
-        <v>277167</v>
+        <v>311452</v>
       </c>
       <c r="AZ11" s="11">
-        <v>311452</v>
+        <v>311640</v>
       </c>
       <c r="BA11" s="11">
-        <v>311640</v>
+        <v>296173</v>
       </c>
       <c r="BB11" s="11">
-        <v>296173</v>
+        <v>300514</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1571,154 +1571,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>496706</v>
+        <v>560412</v>
       </c>
       <c r="F12" s="13">
-        <v>560412</v>
+        <v>558421</v>
       </c>
       <c r="G12" s="13">
-        <v>558421</v>
+        <v>596158</v>
       </c>
       <c r="H12" s="13">
-        <v>596158</v>
+        <v>587848</v>
       </c>
       <c r="I12" s="13">
-        <v>587848</v>
+        <v>549227</v>
       </c>
       <c r="J12" s="13">
-        <v>549227</v>
+        <v>279569</v>
       </c>
       <c r="K12" s="13">
-        <v>279569</v>
+        <v>55521</v>
       </c>
       <c r="L12" s="13">
-        <v>55521</v>
+        <v>411610</v>
       </c>
       <c r="M12" s="13">
-        <v>411610</v>
+        <v>463332</v>
       </c>
       <c r="N12" s="13">
-        <v>463332</v>
+        <v>541508</v>
       </c>
       <c r="O12" s="13">
-        <v>541508</v>
+        <v>531445</v>
       </c>
       <c r="P12" s="13">
-        <v>531445</v>
+        <v>576507</v>
       </c>
       <c r="Q12" s="13">
-        <v>576507</v>
+        <v>505317</v>
       </c>
       <c r="R12" s="13">
-        <v>505317</v>
+        <v>520781</v>
       </c>
       <c r="S12" s="13">
-        <v>520781</v>
+        <v>578813</v>
       </c>
       <c r="T12" s="13">
-        <v>578813</v>
+        <v>574273</v>
       </c>
       <c r="U12" s="13">
-        <v>574273</v>
+        <v>530271</v>
       </c>
       <c r="V12" s="13">
-        <v>530271</v>
+        <v>367437</v>
       </c>
       <c r="W12" s="13">
-        <v>367437</v>
+        <v>127010</v>
       </c>
       <c r="X12" s="13">
-        <v>127010</v>
+        <v>619539</v>
       </c>
       <c r="Y12" s="13">
-        <v>619539</v>
+        <v>583393</v>
       </c>
       <c r="Z12" s="13">
-        <v>583393</v>
+        <v>513396</v>
       </c>
       <c r="AA12" s="13">
-        <v>513396</v>
+        <v>522670</v>
       </c>
       <c r="AB12" s="13">
-        <v>522670</v>
+        <v>535562</v>
       </c>
       <c r="AC12" s="13">
-        <v>535562</v>
+        <v>500111</v>
       </c>
       <c r="AD12" s="13">
-        <v>500111</v>
+        <v>583413</v>
       </c>
       <c r="AE12" s="13">
-        <v>583413</v>
+        <v>516362</v>
       </c>
       <c r="AF12" s="13">
-        <v>516362</v>
+        <v>548987</v>
       </c>
       <c r="AG12" s="13">
-        <v>548987</v>
+        <v>557937</v>
       </c>
       <c r="AH12" s="13">
-        <v>557937</v>
+        <v>349897</v>
       </c>
       <c r="AI12" s="13">
-        <v>349897</v>
+        <v>209907</v>
       </c>
       <c r="AJ12" s="13">
-        <v>209907</v>
+        <v>543375</v>
       </c>
       <c r="AK12" s="13">
-        <v>543375</v>
+        <v>531214</v>
       </c>
       <c r="AL12" s="13">
-        <v>531214</v>
+        <v>568851</v>
       </c>
       <c r="AM12" s="13">
-        <v>568851</v>
+        <v>498587</v>
       </c>
       <c r="AN12" s="13">
-        <v>498587</v>
+        <v>572639</v>
       </c>
       <c r="AO12" s="13">
-        <v>572639</v>
+        <v>545660</v>
       </c>
       <c r="AP12" s="13">
-        <v>545660</v>
+        <v>581841</v>
       </c>
       <c r="AQ12" s="13">
-        <v>581841</v>
+        <v>579751</v>
       </c>
       <c r="AR12" s="13">
-        <v>579751</v>
+        <v>579161</v>
       </c>
       <c r="AS12" s="13">
-        <v>579161</v>
+        <v>542538</v>
       </c>
       <c r="AT12" s="13">
-        <v>542538</v>
+        <v>302450</v>
       </c>
       <c r="AU12" s="13">
-        <v>302450</v>
+        <v>224233</v>
       </c>
       <c r="AV12" s="13">
-        <v>224233</v>
+        <v>586684</v>
       </c>
       <c r="AW12" s="13">
-        <v>586684</v>
+        <v>613013</v>
       </c>
       <c r="AX12" s="13">
-        <v>613013</v>
+        <v>526570</v>
       </c>
       <c r="AY12" s="13">
-        <v>526570</v>
+        <v>509602</v>
       </c>
       <c r="AZ12" s="13">
-        <v>509602</v>
+        <v>538209</v>
       </c>
       <c r="BA12" s="13">
-        <v>538209</v>
+        <v>540053</v>
       </c>
       <c r="BB12" s="13">
-        <v>540053</v>
+        <v>501747</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1730,154 +1730,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>277531</v>
+        <v>267867</v>
       </c>
       <c r="F13" s="11">
-        <v>267867</v>
+        <v>255788</v>
       </c>
       <c r="G13" s="11">
-        <v>255788</v>
+        <v>318428</v>
       </c>
       <c r="H13" s="11">
-        <v>318428</v>
+        <v>306802</v>
       </c>
       <c r="I13" s="11">
-        <v>306802</v>
+        <v>290378</v>
       </c>
       <c r="J13" s="11">
-        <v>290378</v>
+        <v>165359</v>
       </c>
       <c r="K13" s="11">
-        <v>165359</v>
+        <v>85213</v>
       </c>
       <c r="L13" s="11">
-        <v>85213</v>
+        <v>317447</v>
       </c>
       <c r="M13" s="11">
-        <v>317447</v>
+        <v>292980</v>
       </c>
       <c r="N13" s="11">
-        <v>292980</v>
+        <v>281563</v>
       </c>
       <c r="O13" s="11">
-        <v>281563</v>
+        <v>240207</v>
       </c>
       <c r="P13" s="11">
-        <v>240207</v>
+        <v>272006</v>
       </c>
       <c r="Q13" s="11">
-        <v>272006</v>
+        <v>304828</v>
       </c>
       <c r="R13" s="11">
-        <v>304828</v>
+        <v>281782</v>
       </c>
       <c r="S13" s="11">
-        <v>281782</v>
+        <v>288344</v>
       </c>
       <c r="T13" s="11">
-        <v>288344</v>
+        <v>301939</v>
       </c>
       <c r="U13" s="11">
-        <v>301939</v>
+        <v>303407</v>
       </c>
       <c r="V13" s="11">
-        <v>303407</v>
+        <v>161561</v>
       </c>
       <c r="W13" s="11">
-        <v>161561</v>
+        <v>21097</v>
       </c>
       <c r="X13" s="11">
-        <v>21097</v>
+        <v>282770</v>
       </c>
       <c r="Y13" s="11">
-        <v>282770</v>
+        <v>283914</v>
       </c>
       <c r="Z13" s="11">
-        <v>283914</v>
+        <v>294177</v>
       </c>
       <c r="AA13" s="11">
-        <v>294177</v>
+        <v>265700</v>
       </c>
       <c r="AB13" s="11">
-        <v>265700</v>
+        <v>272295</v>
       </c>
       <c r="AC13" s="11">
-        <v>272295</v>
+        <v>271352</v>
       </c>
       <c r="AD13" s="11">
-        <v>271352</v>
+        <v>269581</v>
       </c>
       <c r="AE13" s="11">
-        <v>269581</v>
+        <v>259870</v>
       </c>
       <c r="AF13" s="11">
-        <v>259870</v>
+        <v>230057</v>
       </c>
       <c r="AG13" s="11">
-        <v>230057</v>
+        <v>191426</v>
       </c>
       <c r="AH13" s="11">
-        <v>191426</v>
+        <v>234199</v>
       </c>
       <c r="AI13" s="11">
-        <v>234199</v>
+        <v>95189</v>
       </c>
       <c r="AJ13" s="11">
-        <v>95189</v>
+        <v>268860</v>
       </c>
       <c r="AK13" s="11">
-        <v>268860</v>
+        <v>236453</v>
       </c>
       <c r="AL13" s="11">
-        <v>236453</v>
+        <v>248916</v>
       </c>
       <c r="AM13" s="11">
-        <v>248916</v>
+        <v>275516</v>
       </c>
       <c r="AN13" s="11">
-        <v>275516</v>
+        <v>212457</v>
       </c>
       <c r="AO13" s="11">
-        <v>212457</v>
+        <v>221344</v>
       </c>
       <c r="AP13" s="11">
-        <v>221344</v>
+        <v>235251</v>
       </c>
       <c r="AQ13" s="11">
-        <v>235251</v>
+        <v>231663</v>
       </c>
       <c r="AR13" s="11">
-        <v>231663</v>
+        <v>238828</v>
       </c>
       <c r="AS13" s="11">
-        <v>238828</v>
+        <v>250309</v>
       </c>
       <c r="AT13" s="11">
-        <v>250309</v>
+        <v>109645</v>
       </c>
       <c r="AU13" s="11">
-        <v>109645</v>
+        <v>64450</v>
       </c>
       <c r="AV13" s="11">
-        <v>64450</v>
+        <v>281297</v>
       </c>
       <c r="AW13" s="11">
-        <v>281297</v>
+        <v>303271</v>
       </c>
       <c r="AX13" s="11">
-        <v>303271</v>
+        <v>285556</v>
       </c>
       <c r="AY13" s="11">
-        <v>285556</v>
+        <v>259449</v>
       </c>
       <c r="AZ13" s="11">
-        <v>259449</v>
+        <v>240069</v>
       </c>
       <c r="BA13" s="11">
-        <v>240069</v>
+        <v>262754</v>
       </c>
       <c r="BB13" s="11">
-        <v>262754</v>
+        <v>276961</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1978,44 +1978,44 @@
       <c r="AH14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI14" s="13" t="s">
-        <v>57</v>
+      <c r="AI14" s="13">
+        <v>167446</v>
       </c>
       <c r="AJ14" s="13">
-        <v>167446</v>
+        <v>305656</v>
       </c>
       <c r="AK14" s="13">
-        <v>305656</v>
+        <v>256718</v>
       </c>
       <c r="AL14" s="13">
-        <v>256718</v>
+        <v>296062</v>
       </c>
       <c r="AM14" s="13">
-        <v>296062</v>
+        <v>300779</v>
       </c>
       <c r="AN14" s="13">
-        <v>300779</v>
+        <v>280005</v>
       </c>
       <c r="AO14" s="13">
-        <v>280005</v>
+        <v>313062</v>
       </c>
       <c r="AP14" s="13">
-        <v>313062</v>
+        <v>232411</v>
       </c>
       <c r="AQ14" s="13">
-        <v>232411</v>
+        <v>285816</v>
       </c>
       <c r="AR14" s="13">
-        <v>285816</v>
+        <v>290008</v>
       </c>
       <c r="AS14" s="13">
-        <v>290008</v>
+        <v>288278</v>
       </c>
       <c r="AT14" s="13">
-        <v>288278</v>
-      </c>
-      <c r="AU14" s="13">
         <v>187242</v>
+      </c>
+      <c r="AU14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV14" s="13" t="s">
         <v>57</v>
@@ -2165,8 +2165,8 @@
       <c r="Y16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z16" s="17" t="s">
-        <v>57</v>
+      <c r="Z16" s="17">
+        <v>0</v>
       </c>
       <c r="AA16" s="17">
         <v>0</v>
@@ -2260,154 +2260,154 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>863364</v>
+        <v>941698</v>
       </c>
       <c r="F17" s="19">
-        <v>941698</v>
+        <v>942841</v>
       </c>
       <c r="G17" s="19">
-        <v>942841</v>
+        <v>1030837</v>
       </c>
       <c r="H17" s="19">
-        <v>1030837</v>
+        <v>1005484</v>
       </c>
       <c r="I17" s="19">
-        <v>1005484</v>
+        <v>946228</v>
       </c>
       <c r="J17" s="19">
-        <v>946228</v>
+        <v>524142</v>
       </c>
       <c r="K17" s="19">
-        <v>524142</v>
+        <v>146015</v>
       </c>
       <c r="L17" s="19">
-        <v>146015</v>
+        <v>890504</v>
       </c>
       <c r="M17" s="19">
-        <v>890504</v>
+        <v>957557</v>
       </c>
       <c r="N17" s="19">
-        <v>957557</v>
+        <v>1022197</v>
       </c>
       <c r="O17" s="19">
-        <v>1022197</v>
+        <v>941812</v>
       </c>
       <c r="P17" s="19">
-        <v>941812</v>
+        <v>1046076</v>
       </c>
       <c r="Q17" s="19">
-        <v>1046076</v>
+        <v>981330</v>
       </c>
       <c r="R17" s="19">
-        <v>981330</v>
+        <v>945028</v>
       </c>
       <c r="S17" s="19">
-        <v>945028</v>
+        <v>1067399</v>
       </c>
       <c r="T17" s="19">
-        <v>1067399</v>
+        <v>1039269</v>
       </c>
       <c r="U17" s="19">
-        <v>1039269</v>
+        <v>958317</v>
       </c>
       <c r="V17" s="19">
-        <v>958317</v>
+        <v>684603</v>
       </c>
       <c r="W17" s="19">
-        <v>684603</v>
+        <v>185713</v>
       </c>
       <c r="X17" s="19">
-        <v>185713</v>
+        <v>1007066</v>
       </c>
       <c r="Y17" s="19">
-        <v>1007066</v>
+        <v>1078150</v>
       </c>
       <c r="Z17" s="19">
-        <v>1078150</v>
+        <v>1001268</v>
       </c>
       <c r="AA17" s="19">
-        <v>1001268</v>
+        <v>952035</v>
       </c>
       <c r="AB17" s="19">
-        <v>952035</v>
+        <v>967791</v>
       </c>
       <c r="AC17" s="19">
-        <v>967791</v>
+        <v>942457</v>
       </c>
       <c r="AD17" s="19">
-        <v>942457</v>
+        <v>996467</v>
       </c>
       <c r="AE17" s="19">
-        <v>996467</v>
+        <v>948862</v>
       </c>
       <c r="AF17" s="19">
-        <v>948862</v>
+        <v>974913</v>
       </c>
       <c r="AG17" s="19">
-        <v>974913</v>
+        <v>937320</v>
       </c>
       <c r="AH17" s="19">
-        <v>937320</v>
+        <v>772091</v>
       </c>
       <c r="AI17" s="19">
-        <v>772091</v>
+        <v>472542</v>
       </c>
       <c r="AJ17" s="19">
-        <v>472542</v>
+        <v>1117891</v>
       </c>
       <c r="AK17" s="19">
-        <v>1117891</v>
+        <v>1024385</v>
       </c>
       <c r="AL17" s="19">
-        <v>1024385</v>
+        <v>1113829</v>
       </c>
       <c r="AM17" s="19">
-        <v>1113829</v>
+        <v>1074882</v>
       </c>
       <c r="AN17" s="19">
-        <v>1074882</v>
+        <v>1065101</v>
       </c>
       <c r="AO17" s="19">
-        <v>1065101</v>
+        <v>1080066</v>
       </c>
       <c r="AP17" s="19">
-        <v>1080066</v>
+        <v>1049503</v>
       </c>
       <c r="AQ17" s="19">
-        <v>1049503</v>
+        <v>1097230</v>
       </c>
       <c r="AR17" s="19">
-        <v>1097230</v>
+        <v>1107997</v>
       </c>
       <c r="AS17" s="19">
-        <v>1107997</v>
+        <v>1081125</v>
       </c>
       <c r="AT17" s="19">
-        <v>1081125</v>
+        <v>599337</v>
       </c>
       <c r="AU17" s="19">
-        <v>599337</v>
+        <v>410440</v>
       </c>
       <c r="AV17" s="19">
-        <v>410440</v>
+        <v>1165545</v>
       </c>
       <c r="AW17" s="19">
-        <v>1165545</v>
+        <v>1245186</v>
       </c>
       <c r="AX17" s="19">
-        <v>1245186</v>
+        <v>1089293</v>
       </c>
       <c r="AY17" s="19">
-        <v>1089293</v>
+        <v>1080503</v>
       </c>
       <c r="AZ17" s="19">
-        <v>1080503</v>
+        <v>1089918</v>
       </c>
       <c r="BA17" s="19">
-        <v>1089918</v>
+        <v>1098980</v>
       </c>
       <c r="BB17" s="19">
-        <v>1098980</v>
+        <v>1079222</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2853,98 +2853,98 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>117947</v>
+        <v>62586</v>
       </c>
       <c r="F24" s="11">
-        <v>62586</v>
+        <v>138614</v>
       </c>
       <c r="G24" s="11">
-        <v>138614</v>
+        <v>138285</v>
       </c>
       <c r="H24" s="11">
-        <v>138285</v>
+        <v>104070</v>
       </c>
       <c r="I24" s="11">
-        <v>104070</v>
+        <v>105068</v>
       </c>
       <c r="J24" s="11">
-        <v>105068</v>
+        <v>145028</v>
       </c>
       <c r="K24" s="11">
-        <v>145028</v>
+        <v>10704</v>
       </c>
       <c r="L24" s="11">
-        <v>10704</v>
+        <v>147657</v>
       </c>
       <c r="M24" s="11">
-        <v>147657</v>
+        <v>227926</v>
       </c>
       <c r="N24" s="11">
-        <v>227926</v>
+        <v>183593</v>
       </c>
       <c r="O24" s="11">
-        <v>183593</v>
+        <v>159692</v>
       </c>
       <c r="P24" s="11">
-        <v>159692</v>
+        <v>190617</v>
       </c>
       <c r="Q24" s="11">
-        <v>190617</v>
+        <v>182758</v>
       </c>
       <c r="R24" s="11">
-        <v>182758</v>
+        <v>119982</v>
       </c>
       <c r="S24" s="11">
-        <v>119982</v>
+        <v>200384</v>
       </c>
       <c r="T24" s="11">
-        <v>200384</v>
+        <v>180361</v>
       </c>
       <c r="U24" s="11">
-        <v>180361</v>
+        <v>179697</v>
       </c>
       <c r="V24" s="11">
-        <v>179697</v>
+        <v>204576</v>
       </c>
       <c r="W24" s="11">
-        <v>204576</v>
+        <v>12991</v>
       </c>
       <c r="X24" s="11">
-        <v>12991</v>
+        <v>133312</v>
       </c>
       <c r="Y24" s="11">
-        <v>133312</v>
+        <v>187831</v>
       </c>
       <c r="Z24" s="11">
-        <v>187831</v>
+        <v>197684</v>
       </c>
       <c r="AA24" s="11">
-        <v>197684</v>
+        <v>234261</v>
       </c>
       <c r="AB24" s="11">
-        <v>234261</v>
+        <v>139266</v>
       </c>
       <c r="AC24" s="11">
-        <v>139266</v>
+        <v>210948</v>
       </c>
       <c r="AD24" s="11">
-        <v>210948</v>
+        <v>146675</v>
       </c>
       <c r="AE24" s="11">
-        <v>146675</v>
+        <v>151812</v>
       </c>
       <c r="AF24" s="11">
-        <v>151812</v>
+        <v>206619</v>
       </c>
       <c r="AG24" s="11">
-        <v>206619</v>
+        <v>180335</v>
       </c>
       <c r="AH24" s="11">
-        <v>180335</v>
-      </c>
-      <c r="AI24" s="11">
         <v>277119</v>
       </c>
+      <c r="AI24" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ24" s="11" t="s">
         <v>57</v>
       </c>
@@ -2978,29 +2978,29 @@
       <c r="AT24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU24" s="11" t="s">
-        <v>57</v>
+      <c r="AU24" s="11">
+        <v>72189</v>
       </c>
       <c r="AV24" s="11">
-        <v>72189</v>
+        <v>364851</v>
       </c>
       <c r="AW24" s="11">
-        <v>364851</v>
+        <v>294801</v>
       </c>
       <c r="AX24" s="11">
-        <v>294801</v>
+        <v>243931</v>
       </c>
       <c r="AY24" s="11">
-        <v>243931</v>
+        <v>295720</v>
       </c>
       <c r="AZ24" s="11">
-        <v>295720</v>
+        <v>253095</v>
       </c>
       <c r="BA24" s="11">
-        <v>278681</v>
+        <v>252726</v>
       </c>
       <c r="BB24" s="11">
-        <v>252726</v>
+        <v>299495</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3012,154 +3012,154 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>596064</v>
+        <v>599257</v>
       </c>
       <c r="F25" s="13">
-        <v>599257</v>
+        <v>583472</v>
       </c>
       <c r="G25" s="13">
-        <v>583472</v>
+        <v>538372</v>
       </c>
       <c r="H25" s="13">
-        <v>538372</v>
+        <v>558057</v>
       </c>
       <c r="I25" s="13">
-        <v>558057</v>
+        <v>647727</v>
       </c>
       <c r="J25" s="13">
-        <v>647727</v>
+        <v>718146</v>
       </c>
       <c r="K25" s="13">
-        <v>718146</v>
+        <v>82650</v>
       </c>
       <c r="L25" s="13">
-        <v>82650</v>
+        <v>395645</v>
       </c>
       <c r="M25" s="13">
-        <v>395645</v>
+        <v>547340</v>
       </c>
       <c r="N25" s="13">
-        <v>547340</v>
+        <v>568301</v>
       </c>
       <c r="O25" s="13">
-        <v>568301</v>
+        <v>460890</v>
       </c>
       <c r="P25" s="13">
-        <v>460890</v>
+        <v>643892</v>
       </c>
       <c r="Q25" s="13">
-        <v>643892</v>
+        <v>524904</v>
       </c>
       <c r="R25" s="13">
-        <v>524904</v>
+        <v>514848</v>
       </c>
       <c r="S25" s="13">
-        <v>514848</v>
+        <v>545612</v>
       </c>
       <c r="T25" s="13">
-        <v>545612</v>
+        <v>566590</v>
       </c>
       <c r="U25" s="13">
-        <v>566590</v>
+        <v>494070</v>
       </c>
       <c r="V25" s="13">
-        <v>494070</v>
+        <v>540940</v>
       </c>
       <c r="W25" s="13">
-        <v>540940</v>
+        <v>52580</v>
       </c>
       <c r="X25" s="13">
-        <v>52580</v>
+        <v>560365</v>
       </c>
       <c r="Y25" s="13">
-        <v>560365</v>
+        <v>583865</v>
       </c>
       <c r="Z25" s="13">
-        <v>583865</v>
+        <v>553874</v>
       </c>
       <c r="AA25" s="13">
-        <v>553874</v>
+        <v>643916</v>
       </c>
       <c r="AB25" s="13">
-        <v>643916</v>
+        <v>554758</v>
       </c>
       <c r="AC25" s="13">
-        <v>554758</v>
+        <v>544108</v>
       </c>
       <c r="AD25" s="13">
-        <v>544108</v>
+        <v>560407</v>
       </c>
       <c r="AE25" s="13">
-        <v>560407</v>
+        <v>558900</v>
       </c>
       <c r="AF25" s="13">
-        <v>558900</v>
+        <v>572097</v>
       </c>
       <c r="AG25" s="13">
-        <v>572097</v>
+        <v>532594</v>
       </c>
       <c r="AH25" s="13">
-        <v>532594</v>
+        <v>639969</v>
       </c>
       <c r="AI25" s="13">
-        <v>639969</v>
+        <v>156538</v>
       </c>
       <c r="AJ25" s="13">
-        <v>156538</v>
+        <v>537799</v>
       </c>
       <c r="AK25" s="13">
-        <v>537799</v>
+        <v>519187</v>
       </c>
       <c r="AL25" s="13">
-        <v>519187</v>
+        <v>548244</v>
       </c>
       <c r="AM25" s="13">
-        <v>548244</v>
+        <v>457889</v>
       </c>
       <c r="AN25" s="13">
-        <v>457889</v>
+        <v>644498</v>
       </c>
       <c r="AO25" s="13">
-        <v>644498</v>
+        <v>481535</v>
       </c>
       <c r="AP25" s="13">
-        <v>481535</v>
+        <v>532356</v>
       </c>
       <c r="AQ25" s="13">
-        <v>532356</v>
+        <v>581876</v>
       </c>
       <c r="AR25" s="13">
-        <v>581876</v>
+        <v>449890</v>
       </c>
       <c r="AS25" s="13">
-        <v>449890</v>
+        <v>548978</v>
       </c>
       <c r="AT25" s="13">
-        <v>548978</v>
+        <v>559238</v>
       </c>
       <c r="AU25" s="13">
-        <v>559238</v>
+        <v>136774</v>
       </c>
       <c r="AV25" s="13">
-        <v>136774</v>
+        <v>625826</v>
       </c>
       <c r="AW25" s="13">
-        <v>625826</v>
+        <v>528780</v>
       </c>
       <c r="AX25" s="13">
-        <v>528780</v>
+        <v>457232</v>
       </c>
       <c r="AY25" s="13">
-        <v>457232</v>
+        <v>524028</v>
       </c>
       <c r="AZ25" s="13">
-        <v>524028</v>
+        <v>527299</v>
       </c>
       <c r="BA25" s="13">
-        <v>560797</v>
+        <v>497493</v>
       </c>
       <c r="BB25" s="13">
-        <v>497493</v>
+        <v>477321</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3171,154 +3171,154 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>297997</v>
+        <v>270507</v>
       </c>
       <c r="F26" s="11">
-        <v>270507</v>
+        <v>205027</v>
       </c>
       <c r="G26" s="11">
-        <v>205027</v>
+        <v>233306</v>
       </c>
       <c r="H26" s="11">
-        <v>233306</v>
+        <v>201633</v>
       </c>
       <c r="I26" s="11">
-        <v>201633</v>
+        <v>279605</v>
       </c>
       <c r="J26" s="11">
-        <v>279605</v>
+        <v>443601</v>
       </c>
       <c r="K26" s="11">
-        <v>443601</v>
+        <v>29653</v>
       </c>
       <c r="L26" s="11">
-        <v>29653</v>
+        <v>274425</v>
       </c>
       <c r="M26" s="11">
-        <v>274425</v>
+        <v>374578</v>
       </c>
       <c r="N26" s="11">
-        <v>374578</v>
+        <v>176642</v>
       </c>
       <c r="O26" s="11">
-        <v>176642</v>
+        <v>249851</v>
       </c>
       <c r="P26" s="11">
-        <v>249851</v>
+        <v>234223</v>
       </c>
       <c r="Q26" s="11">
-        <v>234223</v>
+        <v>289813</v>
       </c>
       <c r="R26" s="11">
-        <v>289813</v>
+        <v>219590</v>
       </c>
       <c r="S26" s="11">
-        <v>219590</v>
+        <v>268623</v>
       </c>
       <c r="T26" s="11">
-        <v>268623</v>
+        <v>379806</v>
       </c>
       <c r="U26" s="11">
-        <v>379806</v>
+        <v>375435</v>
       </c>
       <c r="V26" s="11">
-        <v>375435</v>
+        <v>205464</v>
       </c>
       <c r="W26" s="11">
-        <v>205464</v>
+        <v>34</v>
       </c>
       <c r="X26" s="11">
-        <v>34</v>
+        <v>300764</v>
       </c>
       <c r="Y26" s="11">
-        <v>300764</v>
+        <v>223557</v>
       </c>
       <c r="Z26" s="11">
-        <v>223557</v>
+        <v>299112</v>
       </c>
       <c r="AA26" s="11">
-        <v>299112</v>
+        <v>351503</v>
       </c>
       <c r="AB26" s="11">
-        <v>351503</v>
+        <v>284868</v>
       </c>
       <c r="AC26" s="11">
-        <v>284868</v>
+        <v>224296</v>
       </c>
       <c r="AD26" s="11">
-        <v>224296</v>
+        <v>346640</v>
       </c>
       <c r="AE26" s="11">
-        <v>346640</v>
+        <v>204246</v>
       </c>
       <c r="AF26" s="11">
-        <v>204246</v>
+        <v>238399</v>
       </c>
       <c r="AG26" s="11">
-        <v>238399</v>
+        <v>180124</v>
       </c>
       <c r="AH26" s="11">
-        <v>180124</v>
+        <v>312208</v>
       </c>
       <c r="AI26" s="11">
-        <v>312208</v>
+        <v>80924</v>
       </c>
       <c r="AJ26" s="11">
-        <v>80924</v>
+        <v>222349</v>
       </c>
       <c r="AK26" s="11">
-        <v>222349</v>
+        <v>299354</v>
       </c>
       <c r="AL26" s="11">
-        <v>299354</v>
+        <v>199634</v>
       </c>
       <c r="AM26" s="11">
-        <v>199634</v>
+        <v>193220</v>
       </c>
       <c r="AN26" s="11">
-        <v>193220</v>
+        <v>189337</v>
       </c>
       <c r="AO26" s="11">
-        <v>189337</v>
+        <v>163159</v>
       </c>
       <c r="AP26" s="11">
-        <v>163159</v>
+        <v>183460</v>
       </c>
       <c r="AQ26" s="11">
-        <v>183460</v>
+        <v>246706</v>
       </c>
       <c r="AR26" s="11">
-        <v>246706</v>
+        <v>174908</v>
       </c>
       <c r="AS26" s="11">
-        <v>174908</v>
+        <v>185178</v>
       </c>
       <c r="AT26" s="11">
-        <v>185178</v>
+        <v>234247</v>
       </c>
       <c r="AU26" s="11">
-        <v>234247</v>
+        <v>49197</v>
       </c>
       <c r="AV26" s="11">
-        <v>49197</v>
+        <v>274693</v>
       </c>
       <c r="AW26" s="11">
-        <v>274693</v>
+        <v>276321</v>
       </c>
       <c r="AX26" s="11">
-        <v>276321</v>
+        <v>235060</v>
       </c>
       <c r="AY26" s="11">
-        <v>235060</v>
+        <v>238030</v>
       </c>
       <c r="AZ26" s="11">
-        <v>238030</v>
+        <v>227624</v>
       </c>
       <c r="BA26" s="11">
-        <v>237806</v>
+        <v>176734</v>
       </c>
       <c r="BB26" s="11">
-        <v>176734</v>
+        <v>241721</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3419,44 +3419,44 @@
       <c r="AH27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI27" s="13" t="s">
-        <v>57</v>
+      <c r="AI27" s="13">
+        <v>102631</v>
       </c>
       <c r="AJ27" s="13">
-        <v>102631</v>
+        <v>258582</v>
       </c>
       <c r="AK27" s="13">
-        <v>258582</v>
+        <v>305056</v>
       </c>
       <c r="AL27" s="13">
-        <v>305056</v>
+        <v>251268</v>
       </c>
       <c r="AM27" s="13">
-        <v>251268</v>
+        <v>282734</v>
       </c>
       <c r="AN27" s="13">
-        <v>282734</v>
+        <v>306336</v>
       </c>
       <c r="AO27" s="13">
-        <v>306336</v>
+        <v>269737</v>
       </c>
       <c r="AP27" s="13">
-        <v>269737</v>
+        <v>216819</v>
       </c>
       <c r="AQ27" s="13">
-        <v>216819</v>
+        <v>307609</v>
       </c>
       <c r="AR27" s="13">
-        <v>307609</v>
+        <v>312949</v>
       </c>
       <c r="AS27" s="13">
-        <v>312949</v>
+        <v>254425</v>
       </c>
       <c r="AT27" s="13">
-        <v>254425</v>
-      </c>
-      <c r="AU27" s="13">
         <v>271749</v>
+      </c>
+      <c r="AU27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV27" s="13" t="s">
         <v>57</v>
@@ -3606,8 +3606,8 @@
       <c r="Y29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z29" s="17" t="s">
-        <v>57</v>
+      <c r="Z29" s="17">
+        <v>0</v>
       </c>
       <c r="AA29" s="17">
         <v>0</v>
@@ -3820,8 +3820,8 @@
       <c r="Y31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z31" s="17" t="s">
-        <v>57</v>
+      <c r="Z31" s="17">
+        <v>0</v>
       </c>
       <c r="AA31" s="17">
         <v>0</v>
@@ -3915,154 +3915,154 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19">
-        <v>1012008</v>
+        <v>932350</v>
       </c>
       <c r="F32" s="19">
-        <v>932350</v>
+        <v>927113</v>
       </c>
       <c r="G32" s="19">
-        <v>927113</v>
+        <v>909963</v>
       </c>
       <c r="H32" s="19">
-        <v>909963</v>
+        <v>863760</v>
       </c>
       <c r="I32" s="19">
-        <v>863760</v>
+        <v>1032400</v>
       </c>
       <c r="J32" s="19">
-        <v>1032400</v>
+        <v>1306775</v>
       </c>
       <c r="K32" s="19">
-        <v>1306775</v>
+        <v>123007</v>
       </c>
       <c r="L32" s="19">
-        <v>123007</v>
+        <v>817727</v>
       </c>
       <c r="M32" s="19">
-        <v>817727</v>
+        <v>1149844</v>
       </c>
       <c r="N32" s="19">
-        <v>1149844</v>
+        <v>928536</v>
       </c>
       <c r="O32" s="19">
-        <v>928536</v>
+        <v>870433</v>
       </c>
       <c r="P32" s="19">
-        <v>870433</v>
+        <v>1068732</v>
       </c>
       <c r="Q32" s="19">
-        <v>1068732</v>
+        <v>997475</v>
       </c>
       <c r="R32" s="19">
-        <v>997475</v>
+        <v>854420</v>
       </c>
       <c r="S32" s="19">
-        <v>854420</v>
+        <v>1014619</v>
       </c>
       <c r="T32" s="19">
-        <v>1014619</v>
+        <v>1126757</v>
       </c>
       <c r="U32" s="19">
-        <v>1126757</v>
+        <v>1049202</v>
       </c>
       <c r="V32" s="19">
-        <v>1049202</v>
+        <v>950980</v>
       </c>
       <c r="W32" s="19">
-        <v>950980</v>
+        <v>65605</v>
       </c>
       <c r="X32" s="19">
-        <v>65605</v>
+        <v>994441</v>
       </c>
       <c r="Y32" s="19">
-        <v>994441</v>
+        <v>995253</v>
       </c>
       <c r="Z32" s="19">
-        <v>995253</v>
+        <v>1050670</v>
       </c>
       <c r="AA32" s="19">
-        <v>1050670</v>
+        <v>1229680</v>
       </c>
       <c r="AB32" s="19">
-        <v>1229680</v>
+        <v>978892</v>
       </c>
       <c r="AC32" s="19">
-        <v>978892</v>
+        <v>979352</v>
       </c>
       <c r="AD32" s="19">
-        <v>979352</v>
+        <v>1053722</v>
       </c>
       <c r="AE32" s="19">
-        <v>1053722</v>
+        <v>914958</v>
       </c>
       <c r="AF32" s="19">
-        <v>914958</v>
+        <v>1017115</v>
       </c>
       <c r="AG32" s="19">
-        <v>1017115</v>
+        <v>893053</v>
       </c>
       <c r="AH32" s="19">
-        <v>893053</v>
+        <v>1229296</v>
       </c>
       <c r="AI32" s="19">
-        <v>1229296</v>
+        <v>340093</v>
       </c>
       <c r="AJ32" s="19">
-        <v>340093</v>
+        <v>1018730</v>
       </c>
       <c r="AK32" s="19">
-        <v>1018730</v>
+        <v>1123597</v>
       </c>
       <c r="AL32" s="19">
-        <v>1123597</v>
+        <v>999146</v>
       </c>
       <c r="AM32" s="19">
-        <v>999146</v>
+        <v>933843</v>
       </c>
       <c r="AN32" s="19">
-        <v>933843</v>
+        <v>1140171</v>
       </c>
       <c r="AO32" s="19">
-        <v>1140171</v>
+        <v>914431</v>
       </c>
       <c r="AP32" s="19">
-        <v>914431</v>
+        <v>932635</v>
       </c>
       <c r="AQ32" s="19">
-        <v>932635</v>
+        <v>1136191</v>
       </c>
       <c r="AR32" s="19">
-        <v>1136191</v>
+        <v>937747</v>
       </c>
       <c r="AS32" s="19">
-        <v>937747</v>
+        <v>988581</v>
       </c>
       <c r="AT32" s="19">
-        <v>988581</v>
+        <v>1065234</v>
       </c>
       <c r="AU32" s="19">
-        <v>1065234</v>
+        <v>258160</v>
       </c>
       <c r="AV32" s="19">
-        <v>258160</v>
+        <v>1265370</v>
       </c>
       <c r="AW32" s="19">
-        <v>1265370</v>
+        <v>1099902</v>
       </c>
       <c r="AX32" s="19">
-        <v>1099902</v>
+        <v>936223</v>
       </c>
       <c r="AY32" s="19">
-        <v>936223</v>
+        <v>1057778</v>
       </c>
       <c r="AZ32" s="19">
-        <v>1057778</v>
+        <v>1008018</v>
       </c>
       <c r="BA32" s="19">
-        <v>1077284</v>
+        <v>926953</v>
       </c>
       <c r="BB32" s="19">
-        <v>926953</v>
+        <v>1018537</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4508,98 +4508,98 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>34272</v>
+        <v>17812</v>
       </c>
       <c r="F39" s="11">
-        <v>17812</v>
+        <v>42249</v>
       </c>
       <c r="G39" s="11">
-        <v>42249</v>
+        <v>38949</v>
       </c>
       <c r="H39" s="11">
-        <v>38949</v>
+        <v>32043</v>
       </c>
       <c r="I39" s="11">
-        <v>32043</v>
+        <v>29464</v>
       </c>
       <c r="J39" s="11">
-        <v>29464</v>
+        <v>41611</v>
       </c>
       <c r="K39" s="11">
-        <v>41611</v>
+        <v>3679</v>
       </c>
       <c r="L39" s="11">
-        <v>3679</v>
+        <v>43977</v>
       </c>
       <c r="M39" s="11">
-        <v>43977</v>
+        <v>75585</v>
       </c>
       <c r="N39" s="11">
-        <v>75585</v>
+        <v>56599</v>
       </c>
       <c r="O39" s="11">
-        <v>56599</v>
+        <v>52161</v>
       </c>
       <c r="P39" s="11">
-        <v>52161</v>
+        <v>55342</v>
       </c>
       <c r="Q39" s="11">
-        <v>55342</v>
+        <v>50455</v>
       </c>
       <c r="R39" s="11">
-        <v>50455</v>
+        <v>35150</v>
       </c>
       <c r="S39" s="11">
-        <v>35150</v>
+        <v>68462</v>
       </c>
       <c r="T39" s="11">
-        <v>68462</v>
+        <v>57855</v>
       </c>
       <c r="U39" s="11">
-        <v>57855</v>
+        <v>61432</v>
       </c>
       <c r="V39" s="11">
-        <v>61432</v>
+        <v>73036</v>
       </c>
       <c r="W39" s="11">
-        <v>73036</v>
+        <v>6290</v>
       </c>
       <c r="X39" s="11">
-        <v>6290</v>
+        <v>65740</v>
       </c>
       <c r="Y39" s="11">
-        <v>65740</v>
+        <v>98895</v>
       </c>
       <c r="Z39" s="11">
-        <v>98895</v>
+        <v>111718</v>
       </c>
       <c r="AA39" s="11">
-        <v>111718</v>
+        <v>145838</v>
       </c>
       <c r="AB39" s="11">
-        <v>145838</v>
+        <v>84654</v>
       </c>
       <c r="AC39" s="11">
-        <v>84654</v>
+        <v>161477</v>
       </c>
       <c r="AD39" s="11">
-        <v>161477</v>
+        <v>102407</v>
       </c>
       <c r="AE39" s="11">
-        <v>102407</v>
+        <v>123394</v>
       </c>
       <c r="AF39" s="11">
-        <v>123394</v>
+        <v>167326</v>
       </c>
       <c r="AG39" s="11">
-        <v>167326</v>
+        <v>136182</v>
       </c>
       <c r="AH39" s="11">
-        <v>136182</v>
-      </c>
-      <c r="AI39" s="11">
         <v>198282</v>
       </c>
+      <c r="AI39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ39" s="11" t="s">
         <v>57</v>
       </c>
@@ -4633,29 +4633,29 @@
       <c r="AT39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU39" s="11" t="s">
-        <v>57</v>
+      <c r="AU39" s="11">
+        <v>75889</v>
       </c>
       <c r="AV39" s="11">
-        <v>75889</v>
+        <v>463724</v>
       </c>
       <c r="AW39" s="11">
-        <v>463724</v>
+        <v>428409</v>
       </c>
       <c r="AX39" s="11">
-        <v>428409</v>
+        <v>410649</v>
       </c>
       <c r="AY39" s="11">
-        <v>410649</v>
+        <v>497158</v>
       </c>
       <c r="AZ39" s="11">
-        <v>497158</v>
+        <v>403468</v>
       </c>
       <c r="BA39" s="11">
-        <v>441476</v>
+        <v>475212</v>
       </c>
       <c r="BB39" s="11">
-        <v>475211</v>
+        <v>523396</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -4667,154 +4667,154 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>137348</v>
+        <v>151709</v>
       </c>
       <c r="F40" s="13">
-        <v>151709</v>
+        <v>153584</v>
       </c>
       <c r="G40" s="13">
-        <v>153584</v>
+        <v>133271</v>
       </c>
       <c r="H40" s="13">
-        <v>133271</v>
+        <v>137773</v>
       </c>
       <c r="I40" s="13">
-        <v>137773</v>
+        <v>169539</v>
       </c>
       <c r="J40" s="13">
-        <v>169539</v>
+        <v>165455</v>
       </c>
       <c r="K40" s="13">
-        <v>165455</v>
+        <v>17250</v>
       </c>
       <c r="L40" s="13">
-        <v>17250</v>
+        <v>124312</v>
       </c>
       <c r="M40" s="13">
-        <v>124312</v>
+        <v>184074</v>
       </c>
       <c r="N40" s="13">
-        <v>184074</v>
+        <v>181611</v>
       </c>
       <c r="O40" s="13">
-        <v>181611</v>
+        <v>145359</v>
       </c>
       <c r="P40" s="13">
-        <v>145359</v>
+        <v>196836</v>
       </c>
       <c r="Q40" s="13">
-        <v>196836</v>
+        <v>162113</v>
       </c>
       <c r="R40" s="13">
-        <v>162113</v>
+        <v>163216</v>
       </c>
       <c r="S40" s="13">
-        <v>163216</v>
+        <v>187431</v>
       </c>
       <c r="T40" s="13">
-        <v>187431</v>
+        <v>208809</v>
       </c>
       <c r="U40" s="13">
-        <v>208809</v>
+        <v>197667</v>
       </c>
       <c r="V40" s="13">
-        <v>197667</v>
+        <v>219888</v>
       </c>
       <c r="W40" s="13">
-        <v>219888</v>
+        <v>26326</v>
       </c>
       <c r="X40" s="13">
-        <v>26326</v>
+        <v>258649</v>
       </c>
       <c r="Y40" s="13">
-        <v>258649</v>
+        <v>302463</v>
       </c>
       <c r="Z40" s="13">
-        <v>302463</v>
+        <v>322246</v>
       </c>
       <c r="AA40" s="13">
-        <v>322246</v>
+        <v>404240</v>
       </c>
       <c r="AB40" s="13">
-        <v>404240</v>
+        <v>391481</v>
       </c>
       <c r="AC40" s="13">
-        <v>391481</v>
+        <v>421364</v>
       </c>
       <c r="AD40" s="13">
-        <v>421364</v>
+        <v>443552</v>
       </c>
       <c r="AE40" s="13">
-        <v>443552</v>
+        <v>424563</v>
       </c>
       <c r="AF40" s="13">
-        <v>424563</v>
+        <v>431177</v>
       </c>
       <c r="AG40" s="13">
-        <v>431177</v>
+        <v>374454</v>
       </c>
       <c r="AH40" s="13">
-        <v>374454</v>
+        <v>461538</v>
       </c>
       <c r="AI40" s="13">
-        <v>461538</v>
+        <v>114621</v>
       </c>
       <c r="AJ40" s="13">
-        <v>114621</v>
+        <v>379360</v>
       </c>
       <c r="AK40" s="13">
-        <v>379360</v>
+        <v>365103</v>
       </c>
       <c r="AL40" s="13">
-        <v>365103</v>
+        <v>415604</v>
       </c>
       <c r="AM40" s="13">
-        <v>415604</v>
+        <v>385064</v>
       </c>
       <c r="AN40" s="13">
-        <v>385064</v>
+        <v>578109</v>
       </c>
       <c r="AO40" s="13">
-        <v>578109</v>
+        <v>432242</v>
       </c>
       <c r="AP40" s="13">
-        <v>432242</v>
+        <v>478614</v>
       </c>
       <c r="AQ40" s="13">
-        <v>478614</v>
+        <v>543247</v>
       </c>
       <c r="AR40" s="13">
-        <v>543247</v>
+        <v>429711</v>
       </c>
       <c r="AS40" s="13">
-        <v>429711</v>
+        <v>471330</v>
       </c>
       <c r="AT40" s="13">
-        <v>471330</v>
+        <v>492285</v>
       </c>
       <c r="AU40" s="13">
-        <v>492285</v>
+        <v>120357</v>
       </c>
       <c r="AV40" s="13">
-        <v>120357</v>
+        <v>571533</v>
       </c>
       <c r="AW40" s="13">
-        <v>571533</v>
+        <v>520513</v>
       </c>
       <c r="AX40" s="13">
-        <v>520513</v>
+        <v>465757</v>
       </c>
       <c r="AY40" s="13">
-        <v>465757</v>
+        <v>564127</v>
       </c>
       <c r="AZ40" s="13">
-        <v>564127</v>
+        <v>519191</v>
       </c>
       <c r="BA40" s="13">
-        <v>580140</v>
+        <v>537160</v>
       </c>
       <c r="BB40" s="13">
-        <v>537161</v>
+        <v>544131</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -4826,154 +4826,154 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>15103</v>
+        <v>14377</v>
       </c>
       <c r="F41" s="11">
-        <v>14377</v>
+        <v>10685</v>
       </c>
       <c r="G41" s="11">
-        <v>10685</v>
+        <v>11853</v>
       </c>
       <c r="H41" s="11">
-        <v>11853</v>
+        <v>10478</v>
       </c>
       <c r="I41" s="11">
-        <v>10478</v>
+        <v>13166</v>
       </c>
       <c r="J41" s="11">
-        <v>13166</v>
+        <v>20538</v>
       </c>
       <c r="K41" s="11">
-        <v>20538</v>
+        <v>2012</v>
       </c>
       <c r="L41" s="11">
-        <v>2012</v>
+        <v>17486</v>
       </c>
       <c r="M41" s="11">
-        <v>17486</v>
+        <v>21600</v>
       </c>
       <c r="N41" s="11">
-        <v>21600</v>
+        <v>12138</v>
       </c>
       <c r="O41" s="11">
-        <v>12138</v>
+        <v>17856</v>
       </c>
       <c r="P41" s="11">
-        <v>17856</v>
+        <v>17060</v>
       </c>
       <c r="Q41" s="11">
-        <v>17060</v>
+        <v>16648</v>
       </c>
       <c r="R41" s="11">
-        <v>16648</v>
+        <v>15479</v>
       </c>
       <c r="S41" s="11">
-        <v>15479</v>
+        <v>19196</v>
       </c>
       <c r="T41" s="11">
-        <v>19196</v>
+        <v>27801</v>
       </c>
       <c r="U41" s="11">
-        <v>27801</v>
+        <v>26677</v>
       </c>
       <c r="V41" s="11">
-        <v>26677</v>
+        <v>14513</v>
       </c>
       <c r="W41" s="11">
-        <v>14513</v>
+        <v>6</v>
       </c>
       <c r="X41" s="11">
-        <v>6</v>
+        <v>26856</v>
       </c>
       <c r="Y41" s="11">
-        <v>26856</v>
+        <v>21463</v>
       </c>
       <c r="Z41" s="11">
-        <v>21463</v>
+        <v>30300</v>
       </c>
       <c r="AA41" s="11">
-        <v>30300</v>
+        <v>37438</v>
       </c>
       <c r="AB41" s="11">
-        <v>37438</v>
+        <v>38327</v>
       </c>
       <c r="AC41" s="11">
-        <v>38327</v>
+        <v>33949</v>
       </c>
       <c r="AD41" s="11">
-        <v>33949</v>
+        <v>53404</v>
       </c>
       <c r="AE41" s="11">
-        <v>53404</v>
+        <v>33284</v>
       </c>
       <c r="AF41" s="11">
-        <v>33284</v>
+        <v>37082</v>
       </c>
       <c r="AG41" s="11">
-        <v>37082</v>
+        <v>27575</v>
       </c>
       <c r="AH41" s="11">
-        <v>27575</v>
+        <v>46378</v>
       </c>
       <c r="AI41" s="11">
-        <v>46378</v>
+        <v>12220</v>
       </c>
       <c r="AJ41" s="11">
-        <v>12220</v>
+        <v>35631</v>
       </c>
       <c r="AK41" s="11">
-        <v>35631</v>
+        <v>44765</v>
       </c>
       <c r="AL41" s="11">
-        <v>44765</v>
+        <v>34908</v>
       </c>
       <c r="AM41" s="11">
-        <v>34908</v>
+        <v>33712</v>
       </c>
       <c r="AN41" s="11">
-        <v>33712</v>
+        <v>36816</v>
       </c>
       <c r="AO41" s="11">
-        <v>36816</v>
+        <v>31066</v>
       </c>
       <c r="AP41" s="11">
-        <v>31066</v>
+        <v>35147</v>
       </c>
       <c r="AQ41" s="11">
-        <v>35147</v>
+        <v>45724</v>
       </c>
       <c r="AR41" s="11">
-        <v>45724</v>
+        <v>35034</v>
       </c>
       <c r="AS41" s="11">
-        <v>35034</v>
+        <v>36357</v>
       </c>
       <c r="AT41" s="11">
-        <v>36357</v>
+        <v>45843</v>
       </c>
       <c r="AU41" s="11">
-        <v>45843</v>
+        <v>10794</v>
       </c>
       <c r="AV41" s="11">
-        <v>10794</v>
+        <v>57182</v>
       </c>
       <c r="AW41" s="11">
-        <v>57182</v>
+        <v>60338</v>
       </c>
       <c r="AX41" s="11">
-        <v>60338</v>
+        <v>57189</v>
       </c>
       <c r="AY41" s="11">
-        <v>57189</v>
+        <v>55486</v>
       </c>
       <c r="AZ41" s="11">
-        <v>55486</v>
+        <v>53497</v>
       </c>
       <c r="BA41" s="11">
-        <v>56014</v>
+        <v>47529</v>
       </c>
       <c r="BB41" s="11">
-        <v>47529</v>
+        <v>65968</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5074,44 +5074,44 @@
       <c r="AH42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI42" s="13" t="s">
-        <v>57</v>
+      <c r="AI42" s="13">
+        <v>102647</v>
       </c>
       <c r="AJ42" s="13">
-        <v>102647</v>
+        <v>218433</v>
       </c>
       <c r="AK42" s="13">
-        <v>218433</v>
+        <v>258862</v>
       </c>
       <c r="AL42" s="13">
-        <v>258862</v>
+        <v>232749</v>
       </c>
       <c r="AM42" s="13">
-        <v>232749</v>
+        <v>291144</v>
       </c>
       <c r="AN42" s="13">
-        <v>291144</v>
+        <v>358200</v>
       </c>
       <c r="AO42" s="13">
-        <v>358200</v>
+        <v>301343</v>
       </c>
       <c r="AP42" s="13">
-        <v>301343</v>
+        <v>278478</v>
       </c>
       <c r="AQ42" s="13">
-        <v>278478</v>
+        <v>382831</v>
       </c>
       <c r="AR42" s="13">
-        <v>382831</v>
+        <v>388417</v>
       </c>
       <c r="AS42" s="13">
-        <v>388417</v>
+        <v>312854</v>
       </c>
       <c r="AT42" s="13">
-        <v>312854</v>
-      </c>
-      <c r="AU42" s="13">
         <v>339949</v>
+      </c>
+      <c r="AU42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV42" s="13" t="s">
         <v>57</v>
@@ -5263,8 +5263,8 @@
       <c r="Y44" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z44" s="17" t="s">
-        <v>57</v>
+      <c r="Z44" s="17">
+        <v>0</v>
       </c>
       <c r="AA44" s="17">
         <v>0</v>
@@ -5479,8 +5479,8 @@
       <c r="Y46" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z46" s="17" t="s">
-        <v>57</v>
+      <c r="Z46" s="17">
+        <v>0</v>
       </c>
       <c r="AA46" s="17">
         <v>0</v>
@@ -5695,92 +5695,92 @@
       <c r="Y48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z48" s="11" t="s">
-        <v>57</v>
+      <c r="Z48" s="11">
+        <v>-31997</v>
       </c>
       <c r="AA48" s="11">
-        <v>-31997</v>
+        <v>-22090</v>
       </c>
       <c r="AB48" s="11">
-        <v>-22090</v>
+        <v>-43336</v>
       </c>
       <c r="AC48" s="11">
-        <v>-43336</v>
+        <v>-33072</v>
       </c>
       <c r="AD48" s="11">
-        <v>-33072</v>
+        <v>-28567</v>
       </c>
       <c r="AE48" s="11">
-        <v>-28567</v>
+        <v>-30966</v>
       </c>
       <c r="AF48" s="11">
-        <v>-30966</v>
+        <v>-17983</v>
       </c>
       <c r="AG48" s="11">
-        <v>-17983</v>
+        <v>-19430</v>
       </c>
       <c r="AH48" s="11">
-        <v>-19430</v>
+        <v>-48332</v>
       </c>
       <c r="AI48" s="11">
-        <v>-48332</v>
+        <v>-31972</v>
       </c>
       <c r="AJ48" s="11">
-        <v>-31972</v>
+        <v>-27449</v>
       </c>
       <c r="AK48" s="11">
-        <v>-27449</v>
+        <v>-39135</v>
       </c>
       <c r="AL48" s="11">
-        <v>-39135</v>
+        <v>-39898</v>
       </c>
       <c r="AM48" s="11">
-        <v>-39898</v>
+        <v>-25582</v>
       </c>
       <c r="AN48" s="11">
-        <v>-25582</v>
+        <v>-52700</v>
       </c>
       <c r="AO48" s="11">
-        <v>-52700</v>
+        <v>-53894</v>
       </c>
       <c r="AP48" s="11">
-        <v>-53894</v>
+        <v>-90981</v>
       </c>
       <c r="AQ48" s="11">
-        <v>-90981</v>
+        <v>-134175</v>
       </c>
       <c r="AR48" s="11">
-        <v>-134175</v>
+        <v>-110041</v>
       </c>
       <c r="AS48" s="11">
-        <v>-110041</v>
+        <v>-42426</v>
       </c>
       <c r="AT48" s="11">
-        <v>-42426</v>
+        <v>-61328</v>
       </c>
       <c r="AU48" s="11">
-        <v>-61328</v>
+        <v>-8244</v>
       </c>
       <c r="AV48" s="11">
-        <v>-8244</v>
+        <v>-59767</v>
       </c>
       <c r="AW48" s="11">
-        <v>-59767</v>
+        <v>-65838</v>
       </c>
       <c r="AX48" s="11">
-        <v>-65838</v>
+        <v>-56427</v>
       </c>
       <c r="AY48" s="11">
-        <v>-56427</v>
+        <v>-68288</v>
       </c>
       <c r="AZ48" s="11">
-        <v>-68288</v>
+        <v>-34959</v>
       </c>
       <c r="BA48" s="11">
-        <v>-34959</v>
+        <v>-49476</v>
       </c>
       <c r="BB48" s="11">
-        <v>-49476</v>
+        <v>-40530</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -5790,154 +5790,154 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19">
-        <v>186723</v>
+        <v>183898</v>
       </c>
       <c r="F49" s="19">
-        <v>183898</v>
+        <v>206518</v>
       </c>
       <c r="G49" s="19">
-        <v>206518</v>
+        <v>184073</v>
       </c>
       <c r="H49" s="19">
-        <v>184073</v>
+        <v>180294</v>
       </c>
       <c r="I49" s="19">
-        <v>180294</v>
+        <v>212169</v>
       </c>
       <c r="J49" s="19">
-        <v>212169</v>
+        <v>227604</v>
       </c>
       <c r="K49" s="19">
-        <v>227604</v>
+        <v>22941</v>
       </c>
       <c r="L49" s="19">
-        <v>22941</v>
+        <v>185775</v>
       </c>
       <c r="M49" s="19">
-        <v>185775</v>
+        <v>281259</v>
       </c>
       <c r="N49" s="19">
-        <v>281259</v>
+        <v>250348</v>
       </c>
       <c r="O49" s="19">
-        <v>250348</v>
+        <v>215376</v>
       </c>
       <c r="P49" s="19">
-        <v>215376</v>
+        <v>269238</v>
       </c>
       <c r="Q49" s="19">
-        <v>269238</v>
+        <v>229216</v>
       </c>
       <c r="R49" s="19">
-        <v>229216</v>
+        <v>213845</v>
       </c>
       <c r="S49" s="19">
-        <v>213845</v>
+        <v>275089</v>
       </c>
       <c r="T49" s="19">
-        <v>275089</v>
+        <v>294465</v>
       </c>
       <c r="U49" s="19">
-        <v>294465</v>
+        <v>285776</v>
       </c>
       <c r="V49" s="19">
-        <v>285776</v>
+        <v>307437</v>
       </c>
       <c r="W49" s="19">
-        <v>307437</v>
+        <v>32622</v>
       </c>
       <c r="X49" s="19">
-        <v>32622</v>
+        <v>351245</v>
       </c>
       <c r="Y49" s="19">
-        <v>351245</v>
+        <v>422821</v>
       </c>
       <c r="Z49" s="19">
-        <v>422821</v>
+        <v>432267</v>
       </c>
       <c r="AA49" s="19">
-        <v>432267</v>
+        <v>565426</v>
       </c>
       <c r="AB49" s="19">
-        <v>565426</v>
+        <v>471126</v>
       </c>
       <c r="AC49" s="19">
-        <v>471126</v>
+        <v>583718</v>
       </c>
       <c r="AD49" s="19">
-        <v>583718</v>
+        <v>570796</v>
       </c>
       <c r="AE49" s="19">
-        <v>570796</v>
+        <v>550275</v>
       </c>
       <c r="AF49" s="19">
-        <v>550275</v>
+        <v>617602</v>
       </c>
       <c r="AG49" s="19">
-        <v>617602</v>
+        <v>518781</v>
       </c>
       <c r="AH49" s="19">
-        <v>518781</v>
+        <v>657866</v>
       </c>
       <c r="AI49" s="19">
-        <v>657866</v>
+        <v>197516</v>
       </c>
       <c r="AJ49" s="19">
-        <v>197516</v>
+        <v>605975</v>
       </c>
       <c r="AK49" s="19">
-        <v>605975</v>
+        <v>629595</v>
       </c>
       <c r="AL49" s="19">
-        <v>629595</v>
+        <v>643363</v>
       </c>
       <c r="AM49" s="19">
-        <v>643363</v>
+        <v>684338</v>
       </c>
       <c r="AN49" s="19">
-        <v>684338</v>
+        <v>920425</v>
       </c>
       <c r="AO49" s="19">
-        <v>920425</v>
+        <v>710757</v>
       </c>
       <c r="AP49" s="19">
-        <v>710757</v>
+        <v>701258</v>
       </c>
       <c r="AQ49" s="19">
-        <v>701258</v>
+        <v>837627</v>
       </c>
       <c r="AR49" s="19">
-        <v>837627</v>
+        <v>743121</v>
       </c>
       <c r="AS49" s="19">
-        <v>743121</v>
+        <v>778115</v>
       </c>
       <c r="AT49" s="19">
-        <v>778115</v>
+        <v>816749</v>
       </c>
       <c r="AU49" s="19">
-        <v>816749</v>
+        <v>198796</v>
       </c>
       <c r="AV49" s="19">
-        <v>198796</v>
+        <v>1032672</v>
       </c>
       <c r="AW49" s="19">
-        <v>1032672</v>
+        <v>943422</v>
       </c>
       <c r="AX49" s="19">
-        <v>943422</v>
+        <v>877168</v>
       </c>
       <c r="AY49" s="19">
-        <v>877168</v>
+        <v>1048483</v>
       </c>
       <c r="AZ49" s="19">
-        <v>1048483</v>
+        <v>941197</v>
       </c>
       <c r="BA49" s="19">
-        <v>1042671</v>
+        <v>1010425</v>
       </c>
       <c r="BB49" s="19">
-        <v>1010425</v>
+        <v>1092965</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6383,98 +6383,98 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>290571</v>
+        <v>284600</v>
       </c>
       <c r="F56" s="11">
-        <v>284600</v>
+        <v>304796</v>
       </c>
       <c r="G56" s="11">
-        <v>304796</v>
+        <v>281657</v>
       </c>
       <c r="H56" s="11">
-        <v>281657</v>
+        <v>307899</v>
       </c>
       <c r="I56" s="11">
-        <v>307899</v>
+        <v>280428</v>
       </c>
       <c r="J56" s="11">
-        <v>280428</v>
+        <v>286917</v>
       </c>
       <c r="K56" s="11">
-        <v>286917</v>
+        <v>343703</v>
       </c>
       <c r="L56" s="11">
-        <v>343703</v>
+        <v>297832</v>
       </c>
       <c r="M56" s="11">
-        <v>297832</v>
+        <v>331621</v>
       </c>
       <c r="N56" s="11">
-        <v>331621</v>
+        <v>308285</v>
       </c>
       <c r="O56" s="11">
-        <v>308285</v>
+        <v>326635</v>
       </c>
       <c r="P56" s="11">
-        <v>326635</v>
+        <v>290331</v>
       </c>
       <c r="Q56" s="11">
-        <v>290331</v>
+        <v>276075</v>
       </c>
       <c r="R56" s="11">
-        <v>276075</v>
+        <v>292961</v>
       </c>
       <c r="S56" s="11">
-        <v>292961</v>
+        <v>341654</v>
       </c>
       <c r="T56" s="11">
-        <v>341654</v>
+        <v>320773</v>
       </c>
       <c r="U56" s="11">
-        <v>320773</v>
+        <v>341864</v>
       </c>
       <c r="V56" s="11">
-        <v>341864</v>
+        <v>357012</v>
       </c>
       <c r="W56" s="11">
-        <v>357012</v>
+        <v>484181</v>
       </c>
       <c r="X56" s="11">
-        <v>484181</v>
+        <v>493129</v>
       </c>
       <c r="Y56" s="11">
-        <v>493129</v>
+        <v>526511</v>
       </c>
       <c r="Z56" s="11">
-        <v>526511</v>
+        <v>565134</v>
       </c>
       <c r="AA56" s="11">
-        <v>565134</v>
+        <v>622545</v>
       </c>
       <c r="AB56" s="11">
-        <v>622545</v>
+        <v>607858</v>
       </c>
       <c r="AC56" s="11">
-        <v>607858</v>
+        <v>765482</v>
       </c>
       <c r="AD56" s="11">
-        <v>765482</v>
+        <v>698190</v>
       </c>
       <c r="AE56" s="11">
-        <v>698190</v>
+        <v>812808</v>
       </c>
       <c r="AF56" s="11">
-        <v>812808</v>
+        <v>809829</v>
       </c>
       <c r="AG56" s="11">
-        <v>809829</v>
+        <v>755161</v>
       </c>
       <c r="AH56" s="11">
-        <v>755161</v>
-      </c>
-      <c r="AI56" s="11">
         <v>715512</v>
       </c>
+      <c r="AI56" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ56" s="11" t="s">
         <v>57</v>
       </c>
@@ -6508,29 +6508,29 @@
       <c r="AT56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU56" s="11" t="s">
-        <v>57</v>
+      <c r="AU56" s="11">
+        <v>1051254</v>
       </c>
       <c r="AV56" s="11">
-        <v>1051254</v>
+        <v>1270996</v>
       </c>
       <c r="AW56" s="11">
-        <v>1270996</v>
+        <v>1453214</v>
       </c>
       <c r="AX56" s="11">
-        <v>1453214</v>
+        <v>1683464</v>
       </c>
       <c r="AY56" s="11">
-        <v>1683464</v>
+        <v>1681178</v>
       </c>
       <c r="AZ56" s="11">
-        <v>1681178</v>
+        <v>1594137</v>
       </c>
       <c r="BA56" s="11">
-        <v>1584163</v>
+        <v>1880345</v>
       </c>
       <c r="BB56" s="11">
-        <v>1880341</v>
+        <v>1747595</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -6542,154 +6542,154 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>230425</v>
+        <v>253162</v>
       </c>
       <c r="F57" s="13">
-        <v>253162</v>
+        <v>263224</v>
       </c>
       <c r="G57" s="13">
-        <v>263224</v>
+        <v>247544</v>
       </c>
       <c r="H57" s="13">
-        <v>247544</v>
+        <v>246880</v>
       </c>
       <c r="I57" s="13">
-        <v>246880</v>
+        <v>261745</v>
       </c>
       <c r="J57" s="13">
-        <v>261745</v>
+        <v>230392</v>
       </c>
       <c r="K57" s="13">
-        <v>230392</v>
+        <v>208711</v>
       </c>
       <c r="L57" s="13">
-        <v>208711</v>
+        <v>314201</v>
       </c>
       <c r="M57" s="13">
-        <v>314201</v>
+        <v>336307</v>
       </c>
       <c r="N57" s="13">
-        <v>336307</v>
+        <v>319568</v>
       </c>
       <c r="O57" s="13">
-        <v>319568</v>
+        <v>315388</v>
       </c>
       <c r="P57" s="13">
-        <v>315388</v>
+        <v>305697</v>
       </c>
       <c r="Q57" s="13">
-        <v>305697</v>
+        <v>308843</v>
       </c>
       <c r="R57" s="13">
-        <v>308843</v>
+        <v>317018</v>
       </c>
       <c r="S57" s="13">
-        <v>317018</v>
+        <v>343524</v>
       </c>
       <c r="T57" s="13">
-        <v>343524</v>
+        <v>368536</v>
       </c>
       <c r="U57" s="13">
-        <v>368536</v>
+        <v>400079</v>
       </c>
       <c r="V57" s="13">
-        <v>400079</v>
+        <v>406492</v>
       </c>
       <c r="W57" s="13">
-        <v>406492</v>
+        <v>500685</v>
       </c>
       <c r="X57" s="13">
-        <v>500685</v>
+        <v>461572</v>
       </c>
       <c r="Y57" s="13">
-        <v>461572</v>
+        <v>518036</v>
       </c>
       <c r="Z57" s="13">
-        <v>518036</v>
+        <v>581804</v>
       </c>
       <c r="AA57" s="13">
-        <v>581804</v>
+        <v>627784</v>
       </c>
       <c r="AB57" s="13">
-        <v>627784</v>
+        <v>705679</v>
       </c>
       <c r="AC57" s="13">
-        <v>705679</v>
+        <v>774412</v>
       </c>
       <c r="AD57" s="13">
-        <v>774412</v>
+        <v>791482</v>
       </c>
       <c r="AE57" s="13">
-        <v>791482</v>
+        <v>759640</v>
       </c>
       <c r="AF57" s="13">
-        <v>759640</v>
+        <v>753678</v>
       </c>
       <c r="AG57" s="13">
-        <v>753678</v>
+        <v>703076</v>
       </c>
       <c r="AH57" s="13">
-        <v>703076</v>
+        <v>721188</v>
       </c>
       <c r="AI57" s="13">
-        <v>721188</v>
+        <v>732225</v>
       </c>
       <c r="AJ57" s="13">
-        <v>732225</v>
+        <v>705394</v>
       </c>
       <c r="AK57" s="13">
-        <v>705394</v>
+        <v>703221</v>
       </c>
       <c r="AL57" s="13">
-        <v>703221</v>
+        <v>758064</v>
       </c>
       <c r="AM57" s="13">
-        <v>758064</v>
+        <v>840955</v>
       </c>
       <c r="AN57" s="13">
-        <v>840955</v>
+        <v>896991</v>
       </c>
       <c r="AO57" s="13">
-        <v>896991</v>
+        <v>897634</v>
       </c>
       <c r="AP57" s="13">
-        <v>897634</v>
+        <v>899049</v>
       </c>
       <c r="AQ57" s="13">
-        <v>899049</v>
+        <v>933613</v>
       </c>
       <c r="AR57" s="13">
-        <v>933613</v>
+        <v>955147</v>
       </c>
       <c r="AS57" s="13">
-        <v>955147</v>
+        <v>858559</v>
       </c>
       <c r="AT57" s="13">
-        <v>858559</v>
+        <v>880278</v>
       </c>
       <c r="AU57" s="13">
-        <v>880278</v>
+        <v>879970</v>
       </c>
       <c r="AV57" s="13">
-        <v>879970</v>
+        <v>913246</v>
       </c>
       <c r="AW57" s="13">
-        <v>913246</v>
+        <v>984366</v>
       </c>
       <c r="AX57" s="13">
-        <v>984366</v>
+        <v>1018645</v>
       </c>
       <c r="AY57" s="13">
-        <v>1018645</v>
+        <v>1076521</v>
       </c>
       <c r="AZ57" s="13">
-        <v>1076521</v>
+        <v>984624</v>
       </c>
       <c r="BA57" s="13">
-        <v>1034492</v>
+        <v>1079734</v>
       </c>
       <c r="BB57" s="13">
-        <v>1079736</v>
+        <v>1139969</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -6701,154 +6701,154 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>50682</v>
+        <v>53148</v>
       </c>
       <c r="F58" s="11">
-        <v>53148</v>
+        <v>52115</v>
       </c>
       <c r="G58" s="11">
-        <v>52115</v>
+        <v>50805</v>
       </c>
       <c r="H58" s="11">
-        <v>50805</v>
+        <v>51966</v>
       </c>
       <c r="I58" s="11">
-        <v>51966</v>
+        <v>47088</v>
       </c>
       <c r="J58" s="11">
-        <v>47088</v>
+        <v>46298</v>
       </c>
       <c r="K58" s="11">
-        <v>46298</v>
+        <v>67851</v>
       </c>
       <c r="L58" s="11">
-        <v>67851</v>
+        <v>63719</v>
       </c>
       <c r="M58" s="11">
-        <v>63719</v>
+        <v>57665</v>
       </c>
       <c r="N58" s="11">
-        <v>57665</v>
+        <v>68715</v>
       </c>
       <c r="O58" s="11">
-        <v>68715</v>
+        <v>71467</v>
       </c>
       <c r="P58" s="11">
-        <v>71467</v>
+        <v>72837</v>
       </c>
       <c r="Q58" s="11">
-        <v>72837</v>
+        <v>57444</v>
       </c>
       <c r="R58" s="11">
-        <v>57444</v>
+        <v>70490</v>
       </c>
       <c r="S58" s="11">
-        <v>70490</v>
+        <v>71461</v>
       </c>
       <c r="T58" s="11">
-        <v>71461</v>
+        <v>73198</v>
       </c>
       <c r="U58" s="11">
-        <v>73198</v>
+        <v>71056</v>
       </c>
       <c r="V58" s="11">
-        <v>71056</v>
+        <v>70635</v>
       </c>
       <c r="W58" s="11">
-        <v>70635</v>
+        <v>176471</v>
       </c>
       <c r="X58" s="11">
-        <v>176471</v>
+        <v>89293</v>
       </c>
       <c r="Y58" s="11">
-        <v>89293</v>
+        <v>96007</v>
       </c>
       <c r="Z58" s="11">
-        <v>96007</v>
+        <v>101300</v>
       </c>
       <c r="AA58" s="11">
-        <v>101300</v>
+        <v>106508</v>
       </c>
       <c r="AB58" s="11">
-        <v>106508</v>
+        <v>134543</v>
       </c>
       <c r="AC58" s="11">
-        <v>134543</v>
+        <v>151358</v>
       </c>
       <c r="AD58" s="11">
-        <v>151358</v>
+        <v>154062</v>
       </c>
       <c r="AE58" s="11">
-        <v>154062</v>
+        <v>162960</v>
       </c>
       <c r="AF58" s="11">
-        <v>162960</v>
+        <v>155546</v>
       </c>
       <c r="AG58" s="11">
-        <v>155546</v>
+        <v>153089</v>
       </c>
       <c r="AH58" s="11">
-        <v>153089</v>
+        <v>148548</v>
       </c>
       <c r="AI58" s="11">
-        <v>148548</v>
+        <v>151006</v>
       </c>
       <c r="AJ58" s="11">
-        <v>151006</v>
+        <v>160248</v>
       </c>
       <c r="AK58" s="11">
-        <v>160248</v>
+        <v>149539</v>
       </c>
       <c r="AL58" s="11">
-        <v>149539</v>
+        <v>174860</v>
       </c>
       <c r="AM58" s="11">
-        <v>174860</v>
+        <v>174475</v>
       </c>
       <c r="AN58" s="11">
-        <v>174475</v>
+        <v>194447</v>
       </c>
       <c r="AO58" s="11">
-        <v>194447</v>
+        <v>190403</v>
       </c>
       <c r="AP58" s="11">
-        <v>190403</v>
+        <v>191579</v>
       </c>
       <c r="AQ58" s="11">
-        <v>191579</v>
+        <v>185338</v>
       </c>
       <c r="AR58" s="11">
-        <v>185338</v>
+        <v>200300</v>
       </c>
       <c r="AS58" s="11">
-        <v>200300</v>
+        <v>196335</v>
       </c>
       <c r="AT58" s="11">
-        <v>196335</v>
+        <v>195704</v>
       </c>
       <c r="AU58" s="11">
-        <v>195704</v>
+        <v>219404</v>
       </c>
       <c r="AV58" s="11">
-        <v>219404</v>
+        <v>208167</v>
       </c>
       <c r="AW58" s="11">
-        <v>208167</v>
+        <v>218362</v>
       </c>
       <c r="AX58" s="11">
-        <v>218362</v>
+        <v>243295</v>
       </c>
       <c r="AY58" s="11">
-        <v>243295</v>
+        <v>233105</v>
       </c>
       <c r="AZ58" s="11">
-        <v>233105</v>
+        <v>235024</v>
       </c>
       <c r="BA58" s="11">
-        <v>235545</v>
+        <v>268930</v>
       </c>
       <c r="BB58" s="11">
-        <v>268930</v>
+        <v>272910</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -6949,44 +6949,44 @@
       <c r="AH59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI59" s="13" t="s">
-        <v>57</v>
+      <c r="AI59" s="13">
+        <v>1000156</v>
       </c>
       <c r="AJ59" s="13">
-        <v>1000156</v>
+        <v>844734</v>
       </c>
       <c r="AK59" s="13">
-        <v>844734</v>
+        <v>848572</v>
       </c>
       <c r="AL59" s="13">
-        <v>848572</v>
+        <v>926298</v>
       </c>
       <c r="AM59" s="13">
-        <v>926298</v>
+        <v>1029745</v>
       </c>
       <c r="AN59" s="13">
-        <v>1029745</v>
+        <v>1169304</v>
       </c>
       <c r="AO59" s="13">
-        <v>1169304</v>
+        <v>1117173</v>
       </c>
       <c r="AP59" s="13">
-        <v>1117173</v>
+        <v>1284380</v>
       </c>
       <c r="AQ59" s="13">
-        <v>1284380</v>
+        <v>1244538</v>
       </c>
       <c r="AR59" s="13">
-        <v>1244538</v>
+        <v>1241151</v>
       </c>
       <c r="AS59" s="13">
-        <v>1241151</v>
+        <v>1229651</v>
       </c>
       <c r="AT59" s="13">
-        <v>1229651</v>
-      </c>
-      <c r="AU59" s="13">
         <v>1250967</v>
+      </c>
+      <c r="AU59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV59" s="13" t="s">
         <v>57</v>

--- a/database/industries/kashi/kesave/product/monthly.xlsx
+++ b/database/industries/kashi/kesave/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18442874-9E16-4FBC-B860-66D322529BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC62A5E0-6DE5-45C7-B9D0-60FF8F8A8E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کساوه-صنایع‌ کاشی‌ و سرامیک‌ سینا</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>کاشی کف</t>
@@ -1412,95 +1412,95 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>113419</v>
+        <v>128632</v>
       </c>
       <c r="F11" s="11">
-        <v>128632</v>
+        <v>116251</v>
       </c>
       <c r="G11" s="11">
-        <v>116251</v>
+        <v>110834</v>
       </c>
       <c r="H11" s="11">
-        <v>110834</v>
+        <v>106623</v>
       </c>
       <c r="I11" s="11">
-        <v>106623</v>
+        <v>79214</v>
       </c>
       <c r="J11" s="11">
-        <v>79214</v>
+        <v>5281</v>
       </c>
       <c r="K11" s="11">
-        <v>5281</v>
+        <v>161447</v>
       </c>
       <c r="L11" s="11">
-        <v>161447</v>
+        <v>201245</v>
       </c>
       <c r="M11" s="11">
-        <v>201245</v>
+        <v>199126</v>
       </c>
       <c r="N11" s="11">
-        <v>199126</v>
+        <v>170160</v>
       </c>
       <c r="O11" s="11">
-        <v>170160</v>
+        <v>197563</v>
       </c>
       <c r="P11" s="11">
-        <v>197563</v>
+        <v>171185</v>
       </c>
       <c r="Q11" s="11">
-        <v>171185</v>
+        <v>142465</v>
       </c>
       <c r="R11" s="11">
-        <v>142465</v>
+        <v>200242</v>
       </c>
       <c r="S11" s="11">
-        <v>200242</v>
+        <v>163057</v>
       </c>
       <c r="T11" s="11">
-        <v>163057</v>
+        <v>124639</v>
       </c>
       <c r="U11" s="11">
-        <v>124639</v>
+        <v>155605</v>
       </c>
       <c r="V11" s="11">
-        <v>155605</v>
+        <v>37606</v>
       </c>
       <c r="W11" s="11">
-        <v>37606</v>
+        <v>104757</v>
       </c>
       <c r="X11" s="11">
-        <v>104757</v>
+        <v>210843</v>
       </c>
       <c r="Y11" s="11">
-        <v>210843</v>
+        <v>193695</v>
       </c>
       <c r="Z11" s="11">
-        <v>193695</v>
+        <v>163665</v>
       </c>
       <c r="AA11" s="11">
-        <v>163665</v>
+        <v>159934</v>
       </c>
       <c r="AB11" s="11">
-        <v>159934</v>
+        <v>170994</v>
       </c>
       <c r="AC11" s="11">
-        <v>170994</v>
+        <v>143473</v>
       </c>
       <c r="AD11" s="11">
-        <v>143473</v>
+        <v>172630</v>
       </c>
       <c r="AE11" s="11">
-        <v>172630</v>
+        <v>195869</v>
       </c>
       <c r="AF11" s="11">
-        <v>195869</v>
+        <v>187957</v>
       </c>
       <c r="AG11" s="11">
-        <v>187957</v>
-      </c>
-      <c r="AH11" s="11">
         <v>187995</v>
       </c>
+      <c r="AH11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AI11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1534,32 +1534,32 @@
       <c r="AS11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT11" s="11" t="s">
-        <v>57</v>
+      <c r="AT11" s="11">
+        <v>121757</v>
       </c>
       <c r="AU11" s="11">
-        <v>121757</v>
+        <v>297564</v>
       </c>
       <c r="AV11" s="11">
-        <v>297564</v>
+        <v>328902</v>
       </c>
       <c r="AW11" s="11">
-        <v>328902</v>
+        <v>277167</v>
       </c>
       <c r="AX11" s="11">
-        <v>277167</v>
+        <v>311452</v>
       </c>
       <c r="AY11" s="11">
-        <v>311452</v>
+        <v>311640</v>
       </c>
       <c r="AZ11" s="11">
-        <v>311640</v>
+        <v>296173</v>
       </c>
       <c r="BA11" s="11">
-        <v>296173</v>
+        <v>300514</v>
       </c>
       <c r="BB11" s="11">
-        <v>300514</v>
+        <v>311385</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1571,154 +1571,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>560412</v>
+        <v>558421</v>
       </c>
       <c r="F12" s="13">
-        <v>558421</v>
+        <v>596158</v>
       </c>
       <c r="G12" s="13">
-        <v>596158</v>
+        <v>587848</v>
       </c>
       <c r="H12" s="13">
-        <v>587848</v>
+        <v>549227</v>
       </c>
       <c r="I12" s="13">
-        <v>549227</v>
+        <v>279569</v>
       </c>
       <c r="J12" s="13">
-        <v>279569</v>
+        <v>55521</v>
       </c>
       <c r="K12" s="13">
-        <v>55521</v>
+        <v>411610</v>
       </c>
       <c r="L12" s="13">
-        <v>411610</v>
+        <v>463332</v>
       </c>
       <c r="M12" s="13">
-        <v>463332</v>
+        <v>541508</v>
       </c>
       <c r="N12" s="13">
-        <v>541508</v>
+        <v>531445</v>
       </c>
       <c r="O12" s="13">
-        <v>531445</v>
+        <v>576507</v>
       </c>
       <c r="P12" s="13">
-        <v>576507</v>
+        <v>505317</v>
       </c>
       <c r="Q12" s="13">
-        <v>505317</v>
+        <v>520781</v>
       </c>
       <c r="R12" s="13">
-        <v>520781</v>
+        <v>578813</v>
       </c>
       <c r="S12" s="13">
-        <v>578813</v>
+        <v>574273</v>
       </c>
       <c r="T12" s="13">
-        <v>574273</v>
+        <v>530271</v>
       </c>
       <c r="U12" s="13">
-        <v>530271</v>
+        <v>367437</v>
       </c>
       <c r="V12" s="13">
-        <v>367437</v>
+        <v>127010</v>
       </c>
       <c r="W12" s="13">
-        <v>127010</v>
+        <v>619539</v>
       </c>
       <c r="X12" s="13">
-        <v>619539</v>
+        <v>583393</v>
       </c>
       <c r="Y12" s="13">
-        <v>583393</v>
+        <v>513396</v>
       </c>
       <c r="Z12" s="13">
-        <v>513396</v>
+        <v>522670</v>
       </c>
       <c r="AA12" s="13">
-        <v>522670</v>
+        <v>535562</v>
       </c>
       <c r="AB12" s="13">
-        <v>535562</v>
+        <v>500111</v>
       </c>
       <c r="AC12" s="13">
-        <v>500111</v>
+        <v>583413</v>
       </c>
       <c r="AD12" s="13">
-        <v>583413</v>
+        <v>516362</v>
       </c>
       <c r="AE12" s="13">
-        <v>516362</v>
+        <v>548987</v>
       </c>
       <c r="AF12" s="13">
-        <v>548987</v>
+        <v>557937</v>
       </c>
       <c r="AG12" s="13">
-        <v>557937</v>
+        <v>349897</v>
       </c>
       <c r="AH12" s="13">
-        <v>349897</v>
+        <v>209907</v>
       </c>
       <c r="AI12" s="13">
-        <v>209907</v>
+        <v>543375</v>
       </c>
       <c r="AJ12" s="13">
-        <v>543375</v>
+        <v>531214</v>
       </c>
       <c r="AK12" s="13">
-        <v>531214</v>
+        <v>568851</v>
       </c>
       <c r="AL12" s="13">
-        <v>568851</v>
+        <v>498587</v>
       </c>
       <c r="AM12" s="13">
-        <v>498587</v>
+        <v>572639</v>
       </c>
       <c r="AN12" s="13">
-        <v>572639</v>
+        <v>545660</v>
       </c>
       <c r="AO12" s="13">
-        <v>545660</v>
+        <v>581841</v>
       </c>
       <c r="AP12" s="13">
-        <v>581841</v>
+        <v>579751</v>
       </c>
       <c r="AQ12" s="13">
-        <v>579751</v>
+        <v>579161</v>
       </c>
       <c r="AR12" s="13">
-        <v>579161</v>
+        <v>542538</v>
       </c>
       <c r="AS12" s="13">
-        <v>542538</v>
+        <v>302450</v>
       </c>
       <c r="AT12" s="13">
-        <v>302450</v>
+        <v>224233</v>
       </c>
       <c r="AU12" s="13">
-        <v>224233</v>
+        <v>586684</v>
       </c>
       <c r="AV12" s="13">
-        <v>586684</v>
+        <v>613013</v>
       </c>
       <c r="AW12" s="13">
-        <v>613013</v>
+        <v>526570</v>
       </c>
       <c r="AX12" s="13">
-        <v>526570</v>
+        <v>509602</v>
       </c>
       <c r="AY12" s="13">
-        <v>509602</v>
+        <v>538209</v>
       </c>
       <c r="AZ12" s="13">
-        <v>538209</v>
+        <v>540053</v>
       </c>
       <c r="BA12" s="13">
-        <v>540053</v>
+        <v>501747</v>
       </c>
       <c r="BB12" s="13">
-        <v>501747</v>
+        <v>547981</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1730,154 +1730,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>267867</v>
+        <v>255788</v>
       </c>
       <c r="F13" s="11">
-        <v>255788</v>
+        <v>318428</v>
       </c>
       <c r="G13" s="11">
-        <v>318428</v>
+        <v>306802</v>
       </c>
       <c r="H13" s="11">
-        <v>306802</v>
+        <v>290378</v>
       </c>
       <c r="I13" s="11">
-        <v>290378</v>
+        <v>165359</v>
       </c>
       <c r="J13" s="11">
-        <v>165359</v>
+        <v>85213</v>
       </c>
       <c r="K13" s="11">
-        <v>85213</v>
+        <v>317447</v>
       </c>
       <c r="L13" s="11">
-        <v>317447</v>
+        <v>292980</v>
       </c>
       <c r="M13" s="11">
-        <v>292980</v>
+        <v>281563</v>
       </c>
       <c r="N13" s="11">
-        <v>281563</v>
+        <v>240207</v>
       </c>
       <c r="O13" s="11">
-        <v>240207</v>
+        <v>272006</v>
       </c>
       <c r="P13" s="11">
-        <v>272006</v>
+        <v>304828</v>
       </c>
       <c r="Q13" s="11">
-        <v>304828</v>
+        <v>281782</v>
       </c>
       <c r="R13" s="11">
-        <v>281782</v>
+        <v>288344</v>
       </c>
       <c r="S13" s="11">
-        <v>288344</v>
+        <v>301939</v>
       </c>
       <c r="T13" s="11">
-        <v>301939</v>
+        <v>303407</v>
       </c>
       <c r="U13" s="11">
-        <v>303407</v>
+        <v>161561</v>
       </c>
       <c r="V13" s="11">
-        <v>161561</v>
+        <v>21097</v>
       </c>
       <c r="W13" s="11">
-        <v>21097</v>
+        <v>282770</v>
       </c>
       <c r="X13" s="11">
-        <v>282770</v>
+        <v>283914</v>
       </c>
       <c r="Y13" s="11">
-        <v>283914</v>
+        <v>294177</v>
       </c>
       <c r="Z13" s="11">
-        <v>294177</v>
+        <v>265700</v>
       </c>
       <c r="AA13" s="11">
-        <v>265700</v>
+        <v>272295</v>
       </c>
       <c r="AB13" s="11">
-        <v>272295</v>
+        <v>271352</v>
       </c>
       <c r="AC13" s="11">
-        <v>271352</v>
+        <v>269581</v>
       </c>
       <c r="AD13" s="11">
-        <v>269581</v>
+        <v>259870</v>
       </c>
       <c r="AE13" s="11">
-        <v>259870</v>
+        <v>230057</v>
       </c>
       <c r="AF13" s="11">
-        <v>230057</v>
+        <v>191426</v>
       </c>
       <c r="AG13" s="11">
-        <v>191426</v>
+        <v>234199</v>
       </c>
       <c r="AH13" s="11">
-        <v>234199</v>
+        <v>95189</v>
       </c>
       <c r="AI13" s="11">
-        <v>95189</v>
+        <v>268860</v>
       </c>
       <c r="AJ13" s="11">
-        <v>268860</v>
+        <v>236453</v>
       </c>
       <c r="AK13" s="11">
-        <v>236453</v>
+        <v>248916</v>
       </c>
       <c r="AL13" s="11">
-        <v>248916</v>
+        <v>275516</v>
       </c>
       <c r="AM13" s="11">
-        <v>275516</v>
+        <v>212457</v>
       </c>
       <c r="AN13" s="11">
-        <v>212457</v>
+        <v>221344</v>
       </c>
       <c r="AO13" s="11">
-        <v>221344</v>
+        <v>235251</v>
       </c>
       <c r="AP13" s="11">
-        <v>235251</v>
+        <v>231663</v>
       </c>
       <c r="AQ13" s="11">
-        <v>231663</v>
+        <v>238828</v>
       </c>
       <c r="AR13" s="11">
-        <v>238828</v>
+        <v>250309</v>
       </c>
       <c r="AS13" s="11">
-        <v>250309</v>
+        <v>109645</v>
       </c>
       <c r="AT13" s="11">
-        <v>109645</v>
+        <v>64450</v>
       </c>
       <c r="AU13" s="11">
-        <v>64450</v>
+        <v>281297</v>
       </c>
       <c r="AV13" s="11">
-        <v>281297</v>
+        <v>303271</v>
       </c>
       <c r="AW13" s="11">
-        <v>303271</v>
+        <v>285556</v>
       </c>
       <c r="AX13" s="11">
-        <v>285556</v>
+        <v>259449</v>
       </c>
       <c r="AY13" s="11">
-        <v>259449</v>
+        <v>240069</v>
       </c>
       <c r="AZ13" s="11">
-        <v>240069</v>
+        <v>262754</v>
       </c>
       <c r="BA13" s="11">
-        <v>262754</v>
+        <v>276961</v>
       </c>
       <c r="BB13" s="11">
-        <v>276961</v>
+        <v>255279</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1975,44 +1975,44 @@
       <c r="AG14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>57</v>
+      <c r="AH14" s="13">
+        <v>167446</v>
       </c>
       <c r="AI14" s="13">
-        <v>167446</v>
+        <v>305656</v>
       </c>
       <c r="AJ14" s="13">
-        <v>305656</v>
+        <v>256718</v>
       </c>
       <c r="AK14" s="13">
-        <v>256718</v>
+        <v>296062</v>
       </c>
       <c r="AL14" s="13">
-        <v>296062</v>
+        <v>300779</v>
       </c>
       <c r="AM14" s="13">
-        <v>300779</v>
+        <v>280005</v>
       </c>
       <c r="AN14" s="13">
-        <v>280005</v>
+        <v>313062</v>
       </c>
       <c r="AO14" s="13">
-        <v>313062</v>
+        <v>232411</v>
       </c>
       <c r="AP14" s="13">
-        <v>232411</v>
+        <v>285816</v>
       </c>
       <c r="AQ14" s="13">
-        <v>285816</v>
+        <v>290008</v>
       </c>
       <c r="AR14" s="13">
-        <v>290008</v>
+        <v>288278</v>
       </c>
       <c r="AS14" s="13">
-        <v>288278</v>
-      </c>
-      <c r="AT14" s="13">
         <v>187242</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU14" s="13" t="s">
         <v>57</v>
@@ -2162,8 +2162,8 @@
       <c r="X16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y16" s="17" t="s">
-        <v>57</v>
+      <c r="Y16" s="17">
+        <v>0</v>
       </c>
       <c r="Z16" s="17">
         <v>0</v>
@@ -2260,154 +2260,154 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>941698</v>
+        <v>942841</v>
       </c>
       <c r="F17" s="19">
-        <v>942841</v>
+        <v>1030837</v>
       </c>
       <c r="G17" s="19">
-        <v>1030837</v>
+        <v>1005484</v>
       </c>
       <c r="H17" s="19">
-        <v>1005484</v>
+        <v>946228</v>
       </c>
       <c r="I17" s="19">
-        <v>946228</v>
+        <v>524142</v>
       </c>
       <c r="J17" s="19">
-        <v>524142</v>
+        <v>146015</v>
       </c>
       <c r="K17" s="19">
-        <v>146015</v>
+        <v>890504</v>
       </c>
       <c r="L17" s="19">
-        <v>890504</v>
+        <v>957557</v>
       </c>
       <c r="M17" s="19">
-        <v>957557</v>
+        <v>1022197</v>
       </c>
       <c r="N17" s="19">
-        <v>1022197</v>
+        <v>941812</v>
       </c>
       <c r="O17" s="19">
-        <v>941812</v>
+        <v>1046076</v>
       </c>
       <c r="P17" s="19">
-        <v>1046076</v>
+        <v>981330</v>
       </c>
       <c r="Q17" s="19">
-        <v>981330</v>
+        <v>945028</v>
       </c>
       <c r="R17" s="19">
-        <v>945028</v>
+        <v>1067399</v>
       </c>
       <c r="S17" s="19">
-        <v>1067399</v>
+        <v>1039269</v>
       </c>
       <c r="T17" s="19">
-        <v>1039269</v>
+        <v>958317</v>
       </c>
       <c r="U17" s="19">
-        <v>958317</v>
+        <v>684603</v>
       </c>
       <c r="V17" s="19">
-        <v>684603</v>
+        <v>185713</v>
       </c>
       <c r="W17" s="19">
-        <v>185713</v>
+        <v>1007066</v>
       </c>
       <c r="X17" s="19">
-        <v>1007066</v>
+        <v>1078150</v>
       </c>
       <c r="Y17" s="19">
-        <v>1078150</v>
+        <v>1001268</v>
       </c>
       <c r="Z17" s="19">
-        <v>1001268</v>
+        <v>952035</v>
       </c>
       <c r="AA17" s="19">
-        <v>952035</v>
+        <v>967791</v>
       </c>
       <c r="AB17" s="19">
-        <v>967791</v>
+        <v>942457</v>
       </c>
       <c r="AC17" s="19">
-        <v>942457</v>
+        <v>996467</v>
       </c>
       <c r="AD17" s="19">
-        <v>996467</v>
+        <v>948862</v>
       </c>
       <c r="AE17" s="19">
-        <v>948862</v>
+        <v>974913</v>
       </c>
       <c r="AF17" s="19">
-        <v>974913</v>
+        <v>937320</v>
       </c>
       <c r="AG17" s="19">
-        <v>937320</v>
+        <v>772091</v>
       </c>
       <c r="AH17" s="19">
-        <v>772091</v>
+        <v>472542</v>
       </c>
       <c r="AI17" s="19">
-        <v>472542</v>
+        <v>1117891</v>
       </c>
       <c r="AJ17" s="19">
-        <v>1117891</v>
+        <v>1024385</v>
       </c>
       <c r="AK17" s="19">
-        <v>1024385</v>
+        <v>1113829</v>
       </c>
       <c r="AL17" s="19">
-        <v>1113829</v>
+        <v>1074882</v>
       </c>
       <c r="AM17" s="19">
-        <v>1074882</v>
+        <v>1065101</v>
       </c>
       <c r="AN17" s="19">
-        <v>1065101</v>
+        <v>1080066</v>
       </c>
       <c r="AO17" s="19">
-        <v>1080066</v>
+        <v>1049503</v>
       </c>
       <c r="AP17" s="19">
-        <v>1049503</v>
+        <v>1097230</v>
       </c>
       <c r="AQ17" s="19">
-        <v>1097230</v>
+        <v>1107997</v>
       </c>
       <c r="AR17" s="19">
-        <v>1107997</v>
+        <v>1081125</v>
       </c>
       <c r="AS17" s="19">
-        <v>1081125</v>
+        <v>599337</v>
       </c>
       <c r="AT17" s="19">
-        <v>599337</v>
+        <v>410440</v>
       </c>
       <c r="AU17" s="19">
-        <v>410440</v>
+        <v>1165545</v>
       </c>
       <c r="AV17" s="19">
-        <v>1165545</v>
+        <v>1245186</v>
       </c>
       <c r="AW17" s="19">
-        <v>1245186</v>
+        <v>1089293</v>
       </c>
       <c r="AX17" s="19">
-        <v>1089293</v>
+        <v>1080503</v>
       </c>
       <c r="AY17" s="19">
-        <v>1080503</v>
+        <v>1089918</v>
       </c>
       <c r="AZ17" s="19">
-        <v>1089918</v>
+        <v>1098980</v>
       </c>
       <c r="BA17" s="19">
-        <v>1098980</v>
+        <v>1079222</v>
       </c>
       <c r="BB17" s="19">
-        <v>1079222</v>
+        <v>1114645</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2853,95 +2853,95 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>62586</v>
+        <v>138614</v>
       </c>
       <c r="F24" s="11">
-        <v>138614</v>
+        <v>138285</v>
       </c>
       <c r="G24" s="11">
-        <v>138285</v>
+        <v>104070</v>
       </c>
       <c r="H24" s="11">
-        <v>104070</v>
+        <v>105068</v>
       </c>
       <c r="I24" s="11">
-        <v>105068</v>
+        <v>145028</v>
       </c>
       <c r="J24" s="11">
-        <v>145028</v>
+        <v>10704</v>
       </c>
       <c r="K24" s="11">
-        <v>10704</v>
+        <v>147657</v>
       </c>
       <c r="L24" s="11">
-        <v>147657</v>
+        <v>227926</v>
       </c>
       <c r="M24" s="11">
-        <v>227926</v>
+        <v>183593</v>
       </c>
       <c r="N24" s="11">
-        <v>183593</v>
+        <v>159692</v>
       </c>
       <c r="O24" s="11">
-        <v>159692</v>
+        <v>190617</v>
       </c>
       <c r="P24" s="11">
-        <v>190617</v>
+        <v>182758</v>
       </c>
       <c r="Q24" s="11">
-        <v>182758</v>
+        <v>119982</v>
       </c>
       <c r="R24" s="11">
-        <v>119982</v>
+        <v>200384</v>
       </c>
       <c r="S24" s="11">
-        <v>200384</v>
+        <v>180361</v>
       </c>
       <c r="T24" s="11">
-        <v>180361</v>
+        <v>179697</v>
       </c>
       <c r="U24" s="11">
-        <v>179697</v>
+        <v>204576</v>
       </c>
       <c r="V24" s="11">
-        <v>204576</v>
+        <v>12991</v>
       </c>
       <c r="W24" s="11">
-        <v>12991</v>
+        <v>133312</v>
       </c>
       <c r="X24" s="11">
-        <v>133312</v>
+        <v>187831</v>
       </c>
       <c r="Y24" s="11">
-        <v>187831</v>
+        <v>197684</v>
       </c>
       <c r="Z24" s="11">
-        <v>197684</v>
+        <v>234261</v>
       </c>
       <c r="AA24" s="11">
-        <v>234261</v>
+        <v>139266</v>
       </c>
       <c r="AB24" s="11">
-        <v>139266</v>
+        <v>210948</v>
       </c>
       <c r="AC24" s="11">
-        <v>210948</v>
+        <v>146675</v>
       </c>
       <c r="AD24" s="11">
-        <v>146675</v>
+        <v>151812</v>
       </c>
       <c r="AE24" s="11">
-        <v>151812</v>
+        <v>206619</v>
       </c>
       <c r="AF24" s="11">
-        <v>206619</v>
+        <v>180335</v>
       </c>
       <c r="AG24" s="11">
-        <v>180335</v>
-      </c>
-      <c r="AH24" s="11">
         <v>277119</v>
       </c>
+      <c r="AH24" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AI24" s="11" t="s">
         <v>57</v>
       </c>
@@ -2975,32 +2975,32 @@
       <c r="AS24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT24" s="11" t="s">
-        <v>57</v>
+      <c r="AT24" s="11">
+        <v>72189</v>
       </c>
       <c r="AU24" s="11">
-        <v>72189</v>
+        <v>364851</v>
       </c>
       <c r="AV24" s="11">
-        <v>364851</v>
+        <v>294801</v>
       </c>
       <c r="AW24" s="11">
-        <v>294801</v>
+        <v>243931</v>
       </c>
       <c r="AX24" s="11">
-        <v>243931</v>
+        <v>295720</v>
       </c>
       <c r="AY24" s="11">
-        <v>295720</v>
+        <v>253095</v>
       </c>
       <c r="AZ24" s="11">
-        <v>253095</v>
+        <v>252726</v>
       </c>
       <c r="BA24" s="11">
-        <v>252726</v>
+        <v>299495</v>
       </c>
       <c r="BB24" s="11">
-        <v>299495</v>
+        <v>350405</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3012,154 +3012,154 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>599257</v>
+        <v>583472</v>
       </c>
       <c r="F25" s="13">
-        <v>583472</v>
+        <v>538372</v>
       </c>
       <c r="G25" s="13">
-        <v>538372</v>
+        <v>558057</v>
       </c>
       <c r="H25" s="13">
-        <v>558057</v>
+        <v>647727</v>
       </c>
       <c r="I25" s="13">
-        <v>647727</v>
+        <v>718146</v>
       </c>
       <c r="J25" s="13">
-        <v>718146</v>
+        <v>82650</v>
       </c>
       <c r="K25" s="13">
-        <v>82650</v>
+        <v>395645</v>
       </c>
       <c r="L25" s="13">
-        <v>395645</v>
+        <v>547340</v>
       </c>
       <c r="M25" s="13">
-        <v>547340</v>
+        <v>568301</v>
       </c>
       <c r="N25" s="13">
-        <v>568301</v>
+        <v>460890</v>
       </c>
       <c r="O25" s="13">
-        <v>460890</v>
+        <v>643892</v>
       </c>
       <c r="P25" s="13">
-        <v>643892</v>
+        <v>524904</v>
       </c>
       <c r="Q25" s="13">
-        <v>524904</v>
+        <v>514848</v>
       </c>
       <c r="R25" s="13">
-        <v>514848</v>
+        <v>545612</v>
       </c>
       <c r="S25" s="13">
-        <v>545612</v>
+        <v>566590</v>
       </c>
       <c r="T25" s="13">
-        <v>566590</v>
+        <v>494070</v>
       </c>
       <c r="U25" s="13">
-        <v>494070</v>
+        <v>540940</v>
       </c>
       <c r="V25" s="13">
-        <v>540940</v>
+        <v>52580</v>
       </c>
       <c r="W25" s="13">
-        <v>52580</v>
+        <v>560365</v>
       </c>
       <c r="X25" s="13">
-        <v>560365</v>
+        <v>583865</v>
       </c>
       <c r="Y25" s="13">
-        <v>583865</v>
+        <v>553874</v>
       </c>
       <c r="Z25" s="13">
-        <v>553874</v>
+        <v>643916</v>
       </c>
       <c r="AA25" s="13">
-        <v>643916</v>
+        <v>554758</v>
       </c>
       <c r="AB25" s="13">
-        <v>554758</v>
+        <v>544108</v>
       </c>
       <c r="AC25" s="13">
-        <v>544108</v>
+        <v>560407</v>
       </c>
       <c r="AD25" s="13">
-        <v>560407</v>
+        <v>558900</v>
       </c>
       <c r="AE25" s="13">
-        <v>558900</v>
+        <v>572097</v>
       </c>
       <c r="AF25" s="13">
-        <v>572097</v>
+        <v>532594</v>
       </c>
       <c r="AG25" s="13">
-        <v>532594</v>
+        <v>639969</v>
       </c>
       <c r="AH25" s="13">
-        <v>639969</v>
+        <v>156538</v>
       </c>
       <c r="AI25" s="13">
-        <v>156538</v>
+        <v>537799</v>
       </c>
       <c r="AJ25" s="13">
-        <v>537799</v>
+        <v>519187</v>
       </c>
       <c r="AK25" s="13">
-        <v>519187</v>
+        <v>548244</v>
       </c>
       <c r="AL25" s="13">
-        <v>548244</v>
+        <v>457889</v>
       </c>
       <c r="AM25" s="13">
-        <v>457889</v>
+        <v>644498</v>
       </c>
       <c r="AN25" s="13">
-        <v>644498</v>
+        <v>481535</v>
       </c>
       <c r="AO25" s="13">
-        <v>481535</v>
+        <v>532356</v>
       </c>
       <c r="AP25" s="13">
-        <v>532356</v>
+        <v>581876</v>
       </c>
       <c r="AQ25" s="13">
-        <v>581876</v>
+        <v>449890</v>
       </c>
       <c r="AR25" s="13">
-        <v>449890</v>
+        <v>548978</v>
       </c>
       <c r="AS25" s="13">
-        <v>548978</v>
+        <v>559238</v>
       </c>
       <c r="AT25" s="13">
-        <v>559238</v>
+        <v>136774</v>
       </c>
       <c r="AU25" s="13">
-        <v>136774</v>
+        <v>625826</v>
       </c>
       <c r="AV25" s="13">
-        <v>625826</v>
+        <v>528780</v>
       </c>
       <c r="AW25" s="13">
-        <v>528780</v>
+        <v>457232</v>
       </c>
       <c r="AX25" s="13">
-        <v>457232</v>
+        <v>524028</v>
       </c>
       <c r="AY25" s="13">
-        <v>524028</v>
+        <v>527299</v>
       </c>
       <c r="AZ25" s="13">
-        <v>527299</v>
+        <v>497493</v>
       </c>
       <c r="BA25" s="13">
-        <v>497493</v>
+        <v>477321</v>
       </c>
       <c r="BB25" s="13">
-        <v>477321</v>
+        <v>578340</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3171,154 +3171,154 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>270507</v>
+        <v>205027</v>
       </c>
       <c r="F26" s="11">
-        <v>205027</v>
+        <v>233306</v>
       </c>
       <c r="G26" s="11">
-        <v>233306</v>
+        <v>201633</v>
       </c>
       <c r="H26" s="11">
-        <v>201633</v>
+        <v>279605</v>
       </c>
       <c r="I26" s="11">
-        <v>279605</v>
+        <v>443601</v>
       </c>
       <c r="J26" s="11">
-        <v>443601</v>
+        <v>29653</v>
       </c>
       <c r="K26" s="11">
-        <v>29653</v>
+        <v>274425</v>
       </c>
       <c r="L26" s="11">
-        <v>274425</v>
+        <v>374578</v>
       </c>
       <c r="M26" s="11">
-        <v>374578</v>
+        <v>176642</v>
       </c>
       <c r="N26" s="11">
-        <v>176642</v>
+        <v>249851</v>
       </c>
       <c r="O26" s="11">
-        <v>249851</v>
+        <v>234223</v>
       </c>
       <c r="P26" s="11">
-        <v>234223</v>
+        <v>289813</v>
       </c>
       <c r="Q26" s="11">
-        <v>289813</v>
+        <v>219590</v>
       </c>
       <c r="R26" s="11">
-        <v>219590</v>
+        <v>268623</v>
       </c>
       <c r="S26" s="11">
-        <v>268623</v>
+        <v>379806</v>
       </c>
       <c r="T26" s="11">
-        <v>379806</v>
+        <v>375435</v>
       </c>
       <c r="U26" s="11">
-        <v>375435</v>
+        <v>205464</v>
       </c>
       <c r="V26" s="11">
-        <v>205464</v>
+        <v>34</v>
       </c>
       <c r="W26" s="11">
-        <v>34</v>
+        <v>300764</v>
       </c>
       <c r="X26" s="11">
-        <v>300764</v>
+        <v>223557</v>
       </c>
       <c r="Y26" s="11">
-        <v>223557</v>
+        <v>299112</v>
       </c>
       <c r="Z26" s="11">
-        <v>299112</v>
+        <v>351503</v>
       </c>
       <c r="AA26" s="11">
-        <v>351503</v>
+        <v>284868</v>
       </c>
       <c r="AB26" s="11">
-        <v>284868</v>
+        <v>224296</v>
       </c>
       <c r="AC26" s="11">
-        <v>224296</v>
+        <v>346640</v>
       </c>
       <c r="AD26" s="11">
-        <v>346640</v>
+        <v>204246</v>
       </c>
       <c r="AE26" s="11">
-        <v>204246</v>
+        <v>238399</v>
       </c>
       <c r="AF26" s="11">
-        <v>238399</v>
+        <v>180124</v>
       </c>
       <c r="AG26" s="11">
-        <v>180124</v>
+        <v>312208</v>
       </c>
       <c r="AH26" s="11">
-        <v>312208</v>
+        <v>80924</v>
       </c>
       <c r="AI26" s="11">
-        <v>80924</v>
+        <v>222349</v>
       </c>
       <c r="AJ26" s="11">
-        <v>222349</v>
+        <v>299354</v>
       </c>
       <c r="AK26" s="11">
-        <v>299354</v>
+        <v>199634</v>
       </c>
       <c r="AL26" s="11">
-        <v>199634</v>
+        <v>193220</v>
       </c>
       <c r="AM26" s="11">
-        <v>193220</v>
+        <v>189337</v>
       </c>
       <c r="AN26" s="11">
-        <v>189337</v>
+        <v>163159</v>
       </c>
       <c r="AO26" s="11">
-        <v>163159</v>
+        <v>183460</v>
       </c>
       <c r="AP26" s="11">
-        <v>183460</v>
+        <v>246706</v>
       </c>
       <c r="AQ26" s="11">
-        <v>246706</v>
+        <v>174908</v>
       </c>
       <c r="AR26" s="11">
-        <v>174908</v>
+        <v>185178</v>
       </c>
       <c r="AS26" s="11">
-        <v>185178</v>
+        <v>234247</v>
       </c>
       <c r="AT26" s="11">
-        <v>234247</v>
+        <v>49197</v>
       </c>
       <c r="AU26" s="11">
-        <v>49197</v>
+        <v>274693</v>
       </c>
       <c r="AV26" s="11">
-        <v>274693</v>
+        <v>276321</v>
       </c>
       <c r="AW26" s="11">
-        <v>276321</v>
+        <v>235060</v>
       </c>
       <c r="AX26" s="11">
-        <v>235060</v>
+        <v>238030</v>
       </c>
       <c r="AY26" s="11">
-        <v>238030</v>
+        <v>227624</v>
       </c>
       <c r="AZ26" s="11">
-        <v>227624</v>
+        <v>176734</v>
       </c>
       <c r="BA26" s="11">
-        <v>176734</v>
+        <v>241721</v>
       </c>
       <c r="BB26" s="11">
-        <v>241721</v>
+        <v>187285</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3416,44 +3416,44 @@
       <c r="AG27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH27" s="13" t="s">
-        <v>57</v>
+      <c r="AH27" s="13">
+        <v>102631</v>
       </c>
       <c r="AI27" s="13">
-        <v>102631</v>
+        <v>258582</v>
       </c>
       <c r="AJ27" s="13">
-        <v>258582</v>
+        <v>305056</v>
       </c>
       <c r="AK27" s="13">
-        <v>305056</v>
+        <v>251268</v>
       </c>
       <c r="AL27" s="13">
-        <v>251268</v>
+        <v>282734</v>
       </c>
       <c r="AM27" s="13">
-        <v>282734</v>
+        <v>306336</v>
       </c>
       <c r="AN27" s="13">
-        <v>306336</v>
+        <v>269737</v>
       </c>
       <c r="AO27" s="13">
-        <v>269737</v>
+        <v>216819</v>
       </c>
       <c r="AP27" s="13">
-        <v>216819</v>
+        <v>307609</v>
       </c>
       <c r="AQ27" s="13">
-        <v>307609</v>
+        <v>312949</v>
       </c>
       <c r="AR27" s="13">
-        <v>312949</v>
+        <v>254425</v>
       </c>
       <c r="AS27" s="13">
-        <v>254425</v>
-      </c>
-      <c r="AT27" s="13">
         <v>271749</v>
+      </c>
+      <c r="AT27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU27" s="13" t="s">
         <v>57</v>
@@ -3603,8 +3603,8 @@
       <c r="X29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y29" s="17" t="s">
-        <v>57</v>
+      <c r="Y29" s="17">
+        <v>0</v>
       </c>
       <c r="Z29" s="17">
         <v>0</v>
@@ -3817,8 +3817,8 @@
       <c r="X31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y31" s="17" t="s">
-        <v>57</v>
+      <c r="Y31" s="17">
+        <v>0</v>
       </c>
       <c r="Z31" s="17">
         <v>0</v>
@@ -3915,154 +3915,154 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19">
-        <v>932350</v>
+        <v>927113</v>
       </c>
       <c r="F32" s="19">
-        <v>927113</v>
+        <v>909963</v>
       </c>
       <c r="G32" s="19">
-        <v>909963</v>
+        <v>863760</v>
       </c>
       <c r="H32" s="19">
-        <v>863760</v>
+        <v>1032400</v>
       </c>
       <c r="I32" s="19">
-        <v>1032400</v>
+        <v>1306775</v>
       </c>
       <c r="J32" s="19">
-        <v>1306775</v>
+        <v>123007</v>
       </c>
       <c r="K32" s="19">
-        <v>123007</v>
+        <v>817727</v>
       </c>
       <c r="L32" s="19">
-        <v>817727</v>
+        <v>1149844</v>
       </c>
       <c r="M32" s="19">
-        <v>1149844</v>
+        <v>928536</v>
       </c>
       <c r="N32" s="19">
-        <v>928536</v>
+        <v>870433</v>
       </c>
       <c r="O32" s="19">
-        <v>870433</v>
+        <v>1068732</v>
       </c>
       <c r="P32" s="19">
-        <v>1068732</v>
+        <v>997475</v>
       </c>
       <c r="Q32" s="19">
-        <v>997475</v>
+        <v>854420</v>
       </c>
       <c r="R32" s="19">
-        <v>854420</v>
+        <v>1014619</v>
       </c>
       <c r="S32" s="19">
-        <v>1014619</v>
+        <v>1126757</v>
       </c>
       <c r="T32" s="19">
-        <v>1126757</v>
+        <v>1049202</v>
       </c>
       <c r="U32" s="19">
-        <v>1049202</v>
+        <v>950980</v>
       </c>
       <c r="V32" s="19">
-        <v>950980</v>
+        <v>65605</v>
       </c>
       <c r="W32" s="19">
-        <v>65605</v>
+        <v>994441</v>
       </c>
       <c r="X32" s="19">
-        <v>994441</v>
+        <v>995253</v>
       </c>
       <c r="Y32" s="19">
-        <v>995253</v>
+        <v>1050670</v>
       </c>
       <c r="Z32" s="19">
-        <v>1050670</v>
+        <v>1229680</v>
       </c>
       <c r="AA32" s="19">
-        <v>1229680</v>
+        <v>978892</v>
       </c>
       <c r="AB32" s="19">
-        <v>978892</v>
+        <v>979352</v>
       </c>
       <c r="AC32" s="19">
-        <v>979352</v>
+        <v>1053722</v>
       </c>
       <c r="AD32" s="19">
-        <v>1053722</v>
+        <v>914958</v>
       </c>
       <c r="AE32" s="19">
-        <v>914958</v>
+        <v>1017115</v>
       </c>
       <c r="AF32" s="19">
-        <v>1017115</v>
+        <v>893053</v>
       </c>
       <c r="AG32" s="19">
-        <v>893053</v>
+        <v>1229296</v>
       </c>
       <c r="AH32" s="19">
-        <v>1229296</v>
+        <v>340093</v>
       </c>
       <c r="AI32" s="19">
-        <v>340093</v>
+        <v>1018730</v>
       </c>
       <c r="AJ32" s="19">
-        <v>1018730</v>
+        <v>1123597</v>
       </c>
       <c r="AK32" s="19">
-        <v>1123597</v>
+        <v>999146</v>
       </c>
       <c r="AL32" s="19">
-        <v>999146</v>
+        <v>933843</v>
       </c>
       <c r="AM32" s="19">
-        <v>933843</v>
+        <v>1140171</v>
       </c>
       <c r="AN32" s="19">
-        <v>1140171</v>
+        <v>914431</v>
       </c>
       <c r="AO32" s="19">
-        <v>914431</v>
+        <v>932635</v>
       </c>
       <c r="AP32" s="19">
-        <v>932635</v>
+        <v>1136191</v>
       </c>
       <c r="AQ32" s="19">
-        <v>1136191</v>
+        <v>937747</v>
       </c>
       <c r="AR32" s="19">
-        <v>937747</v>
+        <v>988581</v>
       </c>
       <c r="AS32" s="19">
-        <v>988581</v>
+        <v>1065234</v>
       </c>
       <c r="AT32" s="19">
-        <v>1065234</v>
+        <v>258160</v>
       </c>
       <c r="AU32" s="19">
-        <v>258160</v>
+        <v>1265370</v>
       </c>
       <c r="AV32" s="19">
-        <v>1265370</v>
+        <v>1099902</v>
       </c>
       <c r="AW32" s="19">
-        <v>1099902</v>
+        <v>936223</v>
       </c>
       <c r="AX32" s="19">
-        <v>936223</v>
+        <v>1057778</v>
       </c>
       <c r="AY32" s="19">
-        <v>1057778</v>
+        <v>1008018</v>
       </c>
       <c r="AZ32" s="19">
-        <v>1008018</v>
+        <v>926953</v>
       </c>
       <c r="BA32" s="19">
-        <v>926953</v>
+        <v>1018537</v>
       </c>
       <c r="BB32" s="19">
-        <v>1018537</v>
+        <v>1116030</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4508,95 +4508,95 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>17812</v>
+        <v>42249</v>
       </c>
       <c r="F39" s="11">
-        <v>42249</v>
+        <v>38949</v>
       </c>
       <c r="G39" s="11">
-        <v>38949</v>
+        <v>32043</v>
       </c>
       <c r="H39" s="11">
-        <v>32043</v>
+        <v>29464</v>
       </c>
       <c r="I39" s="11">
-        <v>29464</v>
+        <v>41611</v>
       </c>
       <c r="J39" s="11">
-        <v>41611</v>
+        <v>3679</v>
       </c>
       <c r="K39" s="11">
-        <v>3679</v>
+        <v>43977</v>
       </c>
       <c r="L39" s="11">
-        <v>43977</v>
+        <v>75585</v>
       </c>
       <c r="M39" s="11">
-        <v>75585</v>
+        <v>56599</v>
       </c>
       <c r="N39" s="11">
-        <v>56599</v>
+        <v>52161</v>
       </c>
       <c r="O39" s="11">
-        <v>52161</v>
+        <v>55342</v>
       </c>
       <c r="P39" s="11">
-        <v>55342</v>
+        <v>50455</v>
       </c>
       <c r="Q39" s="11">
-        <v>50455</v>
+        <v>35150</v>
       </c>
       <c r="R39" s="11">
-        <v>35150</v>
+        <v>68462</v>
       </c>
       <c r="S39" s="11">
-        <v>68462</v>
+        <v>57855</v>
       </c>
       <c r="T39" s="11">
-        <v>57855</v>
+        <v>61432</v>
       </c>
       <c r="U39" s="11">
-        <v>61432</v>
+        <v>73036</v>
       </c>
       <c r="V39" s="11">
-        <v>73036</v>
+        <v>6290</v>
       </c>
       <c r="W39" s="11">
-        <v>6290</v>
+        <v>65740</v>
       </c>
       <c r="X39" s="11">
-        <v>65740</v>
+        <v>98895</v>
       </c>
       <c r="Y39" s="11">
-        <v>98895</v>
+        <v>111718</v>
       </c>
       <c r="Z39" s="11">
-        <v>111718</v>
+        <v>145838</v>
       </c>
       <c r="AA39" s="11">
-        <v>145838</v>
+        <v>84654</v>
       </c>
       <c r="AB39" s="11">
-        <v>84654</v>
+        <v>161477</v>
       </c>
       <c r="AC39" s="11">
-        <v>161477</v>
+        <v>102407</v>
       </c>
       <c r="AD39" s="11">
-        <v>102407</v>
+        <v>123394</v>
       </c>
       <c r="AE39" s="11">
-        <v>123394</v>
+        <v>167326</v>
       </c>
       <c r="AF39" s="11">
-        <v>167326</v>
+        <v>136182</v>
       </c>
       <c r="AG39" s="11">
-        <v>136182</v>
-      </c>
-      <c r="AH39" s="11">
         <v>198282</v>
       </c>
+      <c r="AH39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AI39" s="11" t="s">
         <v>57</v>
       </c>
@@ -4630,32 +4630,32 @@
       <c r="AS39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT39" s="11" t="s">
-        <v>57</v>
+      <c r="AT39" s="11">
+        <v>75889</v>
       </c>
       <c r="AU39" s="11">
-        <v>75889</v>
+        <v>463724</v>
       </c>
       <c r="AV39" s="11">
-        <v>463724</v>
+        <v>428409</v>
       </c>
       <c r="AW39" s="11">
-        <v>428409</v>
+        <v>410649</v>
       </c>
       <c r="AX39" s="11">
-        <v>410649</v>
+        <v>497158</v>
       </c>
       <c r="AY39" s="11">
-        <v>497158</v>
+        <v>403468</v>
       </c>
       <c r="AZ39" s="11">
-        <v>403468</v>
+        <v>475212</v>
       </c>
       <c r="BA39" s="11">
-        <v>475212</v>
+        <v>523396</v>
       </c>
       <c r="BB39" s="11">
-        <v>523396</v>
+        <v>611621</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -4667,154 +4667,154 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>151709</v>
+        <v>153584</v>
       </c>
       <c r="F40" s="13">
-        <v>153584</v>
+        <v>133271</v>
       </c>
       <c r="G40" s="13">
-        <v>133271</v>
+        <v>137773</v>
       </c>
       <c r="H40" s="13">
-        <v>137773</v>
+        <v>169539</v>
       </c>
       <c r="I40" s="13">
-        <v>169539</v>
+        <v>165455</v>
       </c>
       <c r="J40" s="13">
-        <v>165455</v>
+        <v>17250</v>
       </c>
       <c r="K40" s="13">
-        <v>17250</v>
+        <v>124312</v>
       </c>
       <c r="L40" s="13">
-        <v>124312</v>
+        <v>184074</v>
       </c>
       <c r="M40" s="13">
-        <v>184074</v>
+        <v>181611</v>
       </c>
       <c r="N40" s="13">
-        <v>181611</v>
+        <v>145359</v>
       </c>
       <c r="O40" s="13">
-        <v>145359</v>
+        <v>196836</v>
       </c>
       <c r="P40" s="13">
-        <v>196836</v>
+        <v>162113</v>
       </c>
       <c r="Q40" s="13">
-        <v>162113</v>
+        <v>163216</v>
       </c>
       <c r="R40" s="13">
-        <v>163216</v>
+        <v>187431</v>
       </c>
       <c r="S40" s="13">
-        <v>187431</v>
+        <v>208809</v>
       </c>
       <c r="T40" s="13">
-        <v>208809</v>
+        <v>197667</v>
       </c>
       <c r="U40" s="13">
-        <v>197667</v>
+        <v>219888</v>
       </c>
       <c r="V40" s="13">
-        <v>219888</v>
+        <v>26326</v>
       </c>
       <c r="W40" s="13">
-        <v>26326</v>
+        <v>258649</v>
       </c>
       <c r="X40" s="13">
-        <v>258649</v>
+        <v>302463</v>
       </c>
       <c r="Y40" s="13">
-        <v>302463</v>
+        <v>322246</v>
       </c>
       <c r="Z40" s="13">
-        <v>322246</v>
+        <v>404240</v>
       </c>
       <c r="AA40" s="13">
-        <v>404240</v>
+        <v>391481</v>
       </c>
       <c r="AB40" s="13">
-        <v>391481</v>
+        <v>421364</v>
       </c>
       <c r="AC40" s="13">
-        <v>421364</v>
+        <v>443552</v>
       </c>
       <c r="AD40" s="13">
-        <v>443552</v>
+        <v>424563</v>
       </c>
       <c r="AE40" s="13">
-        <v>424563</v>
+        <v>431177</v>
       </c>
       <c r="AF40" s="13">
-        <v>431177</v>
+        <v>374454</v>
       </c>
       <c r="AG40" s="13">
-        <v>374454</v>
+        <v>461538</v>
       </c>
       <c r="AH40" s="13">
-        <v>461538</v>
+        <v>114621</v>
       </c>
       <c r="AI40" s="13">
-        <v>114621</v>
+        <v>379360</v>
       </c>
       <c r="AJ40" s="13">
-        <v>379360</v>
+        <v>365103</v>
       </c>
       <c r="AK40" s="13">
-        <v>365103</v>
+        <v>415604</v>
       </c>
       <c r="AL40" s="13">
-        <v>415604</v>
+        <v>385064</v>
       </c>
       <c r="AM40" s="13">
-        <v>385064</v>
+        <v>578109</v>
       </c>
       <c r="AN40" s="13">
-        <v>578109</v>
+        <v>432242</v>
       </c>
       <c r="AO40" s="13">
-        <v>432242</v>
+        <v>478614</v>
       </c>
       <c r="AP40" s="13">
-        <v>478614</v>
+        <v>543247</v>
       </c>
       <c r="AQ40" s="13">
-        <v>543247</v>
+        <v>429711</v>
       </c>
       <c r="AR40" s="13">
-        <v>429711</v>
+        <v>471330</v>
       </c>
       <c r="AS40" s="13">
-        <v>471330</v>
+        <v>492285</v>
       </c>
       <c r="AT40" s="13">
-        <v>492285</v>
+        <v>120357</v>
       </c>
       <c r="AU40" s="13">
-        <v>120357</v>
+        <v>571533</v>
       </c>
       <c r="AV40" s="13">
-        <v>571533</v>
+        <v>520513</v>
       </c>
       <c r="AW40" s="13">
-        <v>520513</v>
+        <v>465757</v>
       </c>
       <c r="AX40" s="13">
-        <v>465757</v>
+        <v>564127</v>
       </c>
       <c r="AY40" s="13">
-        <v>564127</v>
+        <v>519191</v>
       </c>
       <c r="AZ40" s="13">
-        <v>519191</v>
+        <v>537160</v>
       </c>
       <c r="BA40" s="13">
-        <v>537160</v>
+        <v>544131</v>
       </c>
       <c r="BB40" s="13">
-        <v>544131</v>
+        <v>708713</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -4826,154 +4826,154 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>14377</v>
+        <v>10685</v>
       </c>
       <c r="F41" s="11">
-        <v>10685</v>
+        <v>11853</v>
       </c>
       <c r="G41" s="11">
-        <v>11853</v>
+        <v>10478</v>
       </c>
       <c r="H41" s="11">
-        <v>10478</v>
+        <v>13166</v>
       </c>
       <c r="I41" s="11">
-        <v>13166</v>
+        <v>20538</v>
       </c>
       <c r="J41" s="11">
-        <v>20538</v>
+        <v>2012</v>
       </c>
       <c r="K41" s="11">
-        <v>2012</v>
+        <v>17486</v>
       </c>
       <c r="L41" s="11">
-        <v>17486</v>
+        <v>21600</v>
       </c>
       <c r="M41" s="11">
-        <v>21600</v>
+        <v>12138</v>
       </c>
       <c r="N41" s="11">
-        <v>12138</v>
+        <v>17856</v>
       </c>
       <c r="O41" s="11">
-        <v>17856</v>
+        <v>17060</v>
       </c>
       <c r="P41" s="11">
-        <v>17060</v>
+        <v>16648</v>
       </c>
       <c r="Q41" s="11">
-        <v>16648</v>
+        <v>15479</v>
       </c>
       <c r="R41" s="11">
-        <v>15479</v>
+        <v>19196</v>
       </c>
       <c r="S41" s="11">
-        <v>19196</v>
+        <v>27801</v>
       </c>
       <c r="T41" s="11">
-        <v>27801</v>
+        <v>26677</v>
       </c>
       <c r="U41" s="11">
-        <v>26677</v>
+        <v>14513</v>
       </c>
       <c r="V41" s="11">
-        <v>14513</v>
+        <v>6</v>
       </c>
       <c r="W41" s="11">
-        <v>6</v>
+        <v>26856</v>
       </c>
       <c r="X41" s="11">
-        <v>26856</v>
+        <v>21463</v>
       </c>
       <c r="Y41" s="11">
-        <v>21463</v>
+        <v>30300</v>
       </c>
       <c r="Z41" s="11">
-        <v>30300</v>
+        <v>37438</v>
       </c>
       <c r="AA41" s="11">
-        <v>37438</v>
+        <v>38327</v>
       </c>
       <c r="AB41" s="11">
-        <v>38327</v>
+        <v>33949</v>
       </c>
       <c r="AC41" s="11">
-        <v>33949</v>
+        <v>53404</v>
       </c>
       <c r="AD41" s="11">
-        <v>53404</v>
+        <v>33284</v>
       </c>
       <c r="AE41" s="11">
-        <v>33284</v>
+        <v>37082</v>
       </c>
       <c r="AF41" s="11">
-        <v>37082</v>
+        <v>27575</v>
       </c>
       <c r="AG41" s="11">
-        <v>27575</v>
+        <v>46378</v>
       </c>
       <c r="AH41" s="11">
-        <v>46378</v>
+        <v>12220</v>
       </c>
       <c r="AI41" s="11">
-        <v>12220</v>
+        <v>35631</v>
       </c>
       <c r="AJ41" s="11">
-        <v>35631</v>
+        <v>44765</v>
       </c>
       <c r="AK41" s="11">
-        <v>44765</v>
+        <v>34908</v>
       </c>
       <c r="AL41" s="11">
-        <v>34908</v>
+        <v>33712</v>
       </c>
       <c r="AM41" s="11">
-        <v>33712</v>
+        <v>36816</v>
       </c>
       <c r="AN41" s="11">
-        <v>36816</v>
+        <v>31066</v>
       </c>
       <c r="AO41" s="11">
-        <v>31066</v>
+        <v>35147</v>
       </c>
       <c r="AP41" s="11">
-        <v>35147</v>
+        <v>45724</v>
       </c>
       <c r="AQ41" s="11">
-        <v>45724</v>
+        <v>35034</v>
       </c>
       <c r="AR41" s="11">
-        <v>35034</v>
+        <v>36357</v>
       </c>
       <c r="AS41" s="11">
-        <v>36357</v>
+        <v>45843</v>
       </c>
       <c r="AT41" s="11">
-        <v>45843</v>
+        <v>10794</v>
       </c>
       <c r="AU41" s="11">
-        <v>10794</v>
+        <v>57182</v>
       </c>
       <c r="AV41" s="11">
-        <v>57182</v>
+        <v>60338</v>
       </c>
       <c r="AW41" s="11">
-        <v>60338</v>
+        <v>57189</v>
       </c>
       <c r="AX41" s="11">
-        <v>57189</v>
+        <v>55486</v>
       </c>
       <c r="AY41" s="11">
-        <v>55486</v>
+        <v>53497</v>
       </c>
       <c r="AZ41" s="11">
-        <v>53497</v>
+        <v>47529</v>
       </c>
       <c r="BA41" s="11">
-        <v>47529</v>
+        <v>65968</v>
       </c>
       <c r="BB41" s="11">
-        <v>65968</v>
+        <v>53491</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5071,44 +5071,44 @@
       <c r="AG42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH42" s="13" t="s">
-        <v>57</v>
+      <c r="AH42" s="13">
+        <v>102647</v>
       </c>
       <c r="AI42" s="13">
-        <v>102647</v>
+        <v>218433</v>
       </c>
       <c r="AJ42" s="13">
-        <v>218433</v>
+        <v>258862</v>
       </c>
       <c r="AK42" s="13">
-        <v>258862</v>
+        <v>232749</v>
       </c>
       <c r="AL42" s="13">
-        <v>232749</v>
+        <v>291144</v>
       </c>
       <c r="AM42" s="13">
-        <v>291144</v>
+        <v>358200</v>
       </c>
       <c r="AN42" s="13">
-        <v>358200</v>
+        <v>301343</v>
       </c>
       <c r="AO42" s="13">
-        <v>301343</v>
+        <v>278478</v>
       </c>
       <c r="AP42" s="13">
-        <v>278478</v>
+        <v>382831</v>
       </c>
       <c r="AQ42" s="13">
-        <v>382831</v>
+        <v>388417</v>
       </c>
       <c r="AR42" s="13">
-        <v>388417</v>
+        <v>312854</v>
       </c>
       <c r="AS42" s="13">
-        <v>312854</v>
-      </c>
-      <c r="AT42" s="13">
         <v>339949</v>
+      </c>
+      <c r="AT42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU42" s="13" t="s">
         <v>57</v>
@@ -5260,8 +5260,8 @@
       <c r="X44" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y44" s="17" t="s">
-        <v>57</v>
+      <c r="Y44" s="17">
+        <v>0</v>
       </c>
       <c r="Z44" s="17">
         <v>0</v>
@@ -5476,8 +5476,8 @@
       <c r="X46" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y46" s="17" t="s">
-        <v>57</v>
+      <c r="Y46" s="17">
+        <v>0</v>
       </c>
       <c r="Z46" s="17">
         <v>0</v>
@@ -5692,95 +5692,95 @@
       <c r="X48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>57</v>
+      <c r="Y48" s="11">
+        <v>-31997</v>
       </c>
       <c r="Z48" s="11">
-        <v>-31997</v>
+        <v>-22090</v>
       </c>
       <c r="AA48" s="11">
-        <v>-22090</v>
+        <v>-43336</v>
       </c>
       <c r="AB48" s="11">
-        <v>-43336</v>
+        <v>-33072</v>
       </c>
       <c r="AC48" s="11">
-        <v>-33072</v>
+        <v>-28567</v>
       </c>
       <c r="AD48" s="11">
-        <v>-28567</v>
+        <v>-30966</v>
       </c>
       <c r="AE48" s="11">
-        <v>-30966</v>
+        <v>-17983</v>
       </c>
       <c r="AF48" s="11">
-        <v>-17983</v>
+        <v>-19430</v>
       </c>
       <c r="AG48" s="11">
-        <v>-19430</v>
+        <v>-48332</v>
       </c>
       <c r="AH48" s="11">
-        <v>-48332</v>
+        <v>-31972</v>
       </c>
       <c r="AI48" s="11">
-        <v>-31972</v>
+        <v>-27449</v>
       </c>
       <c r="AJ48" s="11">
-        <v>-27449</v>
+        <v>-39135</v>
       </c>
       <c r="AK48" s="11">
-        <v>-39135</v>
+        <v>-39898</v>
       </c>
       <c r="AL48" s="11">
-        <v>-39898</v>
+        <v>-25582</v>
       </c>
       <c r="AM48" s="11">
-        <v>-25582</v>
+        <v>-52700</v>
       </c>
       <c r="AN48" s="11">
-        <v>-52700</v>
+        <v>-53894</v>
       </c>
       <c r="AO48" s="11">
-        <v>-53894</v>
+        <v>-90981</v>
       </c>
       <c r="AP48" s="11">
-        <v>-90981</v>
+        <v>-134175</v>
       </c>
       <c r="AQ48" s="11">
-        <v>-134175</v>
+        <v>-110041</v>
       </c>
       <c r="AR48" s="11">
-        <v>-110041</v>
+        <v>-42426</v>
       </c>
       <c r="AS48" s="11">
-        <v>-42426</v>
+        <v>-61328</v>
       </c>
       <c r="AT48" s="11">
-        <v>-61328</v>
+        <v>-8244</v>
       </c>
       <c r="AU48" s="11">
-        <v>-8244</v>
+        <v>-59767</v>
       </c>
       <c r="AV48" s="11">
-        <v>-59767</v>
+        <v>-65838</v>
       </c>
       <c r="AW48" s="11">
-        <v>-65838</v>
+        <v>-56427</v>
       </c>
       <c r="AX48" s="11">
-        <v>-56427</v>
+        <v>-68288</v>
       </c>
       <c r="AY48" s="11">
-        <v>-68288</v>
+        <v>-34959</v>
       </c>
       <c r="AZ48" s="11">
-        <v>-34959</v>
+        <v>-49476</v>
       </c>
       <c r="BA48" s="11">
-        <v>-49476</v>
+        <v>-40530</v>
       </c>
       <c r="BB48" s="11">
-        <v>-40530</v>
+        <v>-25280</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -5790,154 +5790,154 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19">
-        <v>183898</v>
+        <v>206518</v>
       </c>
       <c r="F49" s="19">
-        <v>206518</v>
+        <v>184073</v>
       </c>
       <c r="G49" s="19">
-        <v>184073</v>
+        <v>180294</v>
       </c>
       <c r="H49" s="19">
-        <v>180294</v>
+        <v>212169</v>
       </c>
       <c r="I49" s="19">
-        <v>212169</v>
+        <v>227604</v>
       </c>
       <c r="J49" s="19">
-        <v>227604</v>
+        <v>22941</v>
       </c>
       <c r="K49" s="19">
-        <v>22941</v>
+        <v>185775</v>
       </c>
       <c r="L49" s="19">
-        <v>185775</v>
+        <v>281259</v>
       </c>
       <c r="M49" s="19">
-        <v>281259</v>
+        <v>250348</v>
       </c>
       <c r="N49" s="19">
-        <v>250348</v>
+        <v>215376</v>
       </c>
       <c r="O49" s="19">
-        <v>215376</v>
+        <v>269238</v>
       </c>
       <c r="P49" s="19">
-        <v>269238</v>
+        <v>229216</v>
       </c>
       <c r="Q49" s="19">
-        <v>229216</v>
+        <v>213845</v>
       </c>
       <c r="R49" s="19">
-        <v>213845</v>
+        <v>275089</v>
       </c>
       <c r="S49" s="19">
-        <v>275089</v>
+        <v>294465</v>
       </c>
       <c r="T49" s="19">
-        <v>294465</v>
+        <v>285776</v>
       </c>
       <c r="U49" s="19">
-        <v>285776</v>
+        <v>307437</v>
       </c>
       <c r="V49" s="19">
-        <v>307437</v>
+        <v>32622</v>
       </c>
       <c r="W49" s="19">
-        <v>32622</v>
+        <v>351245</v>
       </c>
       <c r="X49" s="19">
-        <v>351245</v>
+        <v>422821</v>
       </c>
       <c r="Y49" s="19">
-        <v>422821</v>
+        <v>432267</v>
       </c>
       <c r="Z49" s="19">
-        <v>432267</v>
+        <v>565426</v>
       </c>
       <c r="AA49" s="19">
-        <v>565426</v>
+        <v>471126</v>
       </c>
       <c r="AB49" s="19">
-        <v>471126</v>
+        <v>583718</v>
       </c>
       <c r="AC49" s="19">
-        <v>583718</v>
+        <v>570796</v>
       </c>
       <c r="AD49" s="19">
-        <v>570796</v>
+        <v>550275</v>
       </c>
       <c r="AE49" s="19">
-        <v>550275</v>
+        <v>617602</v>
       </c>
       <c r="AF49" s="19">
-        <v>617602</v>
+        <v>518781</v>
       </c>
       <c r="AG49" s="19">
-        <v>518781</v>
+        <v>657866</v>
       </c>
       <c r="AH49" s="19">
-        <v>657866</v>
+        <v>197516</v>
       </c>
       <c r="AI49" s="19">
-        <v>197516</v>
+        <v>605975</v>
       </c>
       <c r="AJ49" s="19">
-        <v>605975</v>
+        <v>629595</v>
       </c>
       <c r="AK49" s="19">
-        <v>629595</v>
+        <v>643363</v>
       </c>
       <c r="AL49" s="19">
-        <v>643363</v>
+        <v>684338</v>
       </c>
       <c r="AM49" s="19">
-        <v>684338</v>
+        <v>920425</v>
       </c>
       <c r="AN49" s="19">
-        <v>920425</v>
+        <v>710757</v>
       </c>
       <c r="AO49" s="19">
-        <v>710757</v>
+        <v>701258</v>
       </c>
       <c r="AP49" s="19">
-        <v>701258</v>
+        <v>837627</v>
       </c>
       <c r="AQ49" s="19">
-        <v>837627</v>
+        <v>743121</v>
       </c>
       <c r="AR49" s="19">
-        <v>743121</v>
+        <v>778115</v>
       </c>
       <c r="AS49" s="19">
-        <v>778115</v>
+        <v>816749</v>
       </c>
       <c r="AT49" s="19">
-        <v>816749</v>
+        <v>198796</v>
       </c>
       <c r="AU49" s="19">
-        <v>198796</v>
+        <v>1032672</v>
       </c>
       <c r="AV49" s="19">
-        <v>1032672</v>
+        <v>943422</v>
       </c>
       <c r="AW49" s="19">
-        <v>943422</v>
+        <v>877168</v>
       </c>
       <c r="AX49" s="19">
-        <v>877168</v>
+        <v>1048483</v>
       </c>
       <c r="AY49" s="19">
-        <v>1048483</v>
+        <v>941197</v>
       </c>
       <c r="AZ49" s="19">
-        <v>941197</v>
+        <v>1010425</v>
       </c>
       <c r="BA49" s="19">
-        <v>1010425</v>
+        <v>1092965</v>
       </c>
       <c r="BB49" s="19">
-        <v>1092965</v>
+        <v>1348545</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6383,95 +6383,95 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>284600</v>
+        <v>304796</v>
       </c>
       <c r="F56" s="11">
-        <v>304796</v>
+        <v>281657</v>
       </c>
       <c r="G56" s="11">
-        <v>281657</v>
+        <v>307899</v>
       </c>
       <c r="H56" s="11">
-        <v>307899</v>
+        <v>280428</v>
       </c>
       <c r="I56" s="11">
-        <v>280428</v>
+        <v>286917</v>
       </c>
       <c r="J56" s="11">
-        <v>286917</v>
+        <v>343703</v>
       </c>
       <c r="K56" s="11">
-        <v>343703</v>
+        <v>297832</v>
       </c>
       <c r="L56" s="11">
-        <v>297832</v>
+        <v>331621</v>
       </c>
       <c r="M56" s="11">
-        <v>331621</v>
+        <v>308285</v>
       </c>
       <c r="N56" s="11">
-        <v>308285</v>
+        <v>326635</v>
       </c>
       <c r="O56" s="11">
-        <v>326635</v>
+        <v>290331</v>
       </c>
       <c r="P56" s="11">
-        <v>290331</v>
+        <v>276075</v>
       </c>
       <c r="Q56" s="11">
-        <v>276075</v>
+        <v>292961</v>
       </c>
       <c r="R56" s="11">
-        <v>292961</v>
+        <v>341654</v>
       </c>
       <c r="S56" s="11">
-        <v>341654</v>
+        <v>320773</v>
       </c>
       <c r="T56" s="11">
-        <v>320773</v>
+        <v>341864</v>
       </c>
       <c r="U56" s="11">
-        <v>341864</v>
+        <v>357012</v>
       </c>
       <c r="V56" s="11">
-        <v>357012</v>
+        <v>484181</v>
       </c>
       <c r="W56" s="11">
-        <v>484181</v>
+        <v>493129</v>
       </c>
       <c r="X56" s="11">
-        <v>493129</v>
+        <v>526511</v>
       </c>
       <c r="Y56" s="11">
-        <v>526511</v>
+        <v>565134</v>
       </c>
       <c r="Z56" s="11">
-        <v>565134</v>
+        <v>622545</v>
       </c>
       <c r="AA56" s="11">
-        <v>622545</v>
+        <v>607858</v>
       </c>
       <c r="AB56" s="11">
-        <v>607858</v>
+        <v>765482</v>
       </c>
       <c r="AC56" s="11">
-        <v>765482</v>
+        <v>698190</v>
       </c>
       <c r="AD56" s="11">
-        <v>698190</v>
+        <v>812808</v>
       </c>
       <c r="AE56" s="11">
-        <v>812808</v>
+        <v>809829</v>
       </c>
       <c r="AF56" s="11">
-        <v>809829</v>
+        <v>755161</v>
       </c>
       <c r="AG56" s="11">
-        <v>755161</v>
-      </c>
-      <c r="AH56" s="11">
         <v>715512</v>
       </c>
+      <c r="AH56" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AI56" s="11" t="s">
         <v>57</v>
       </c>
@@ -6505,32 +6505,32 @@
       <c r="AS56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT56" s="11" t="s">
-        <v>57</v>
+      <c r="AT56" s="11">
+        <v>1051254</v>
       </c>
       <c r="AU56" s="11">
-        <v>1051254</v>
+        <v>1270996</v>
       </c>
       <c r="AV56" s="11">
-        <v>1270996</v>
+        <v>1453214</v>
       </c>
       <c r="AW56" s="11">
-        <v>1453214</v>
+        <v>1683464</v>
       </c>
       <c r="AX56" s="11">
-        <v>1683464</v>
+        <v>1681178</v>
       </c>
       <c r="AY56" s="11">
-        <v>1681178</v>
+        <v>1594137</v>
       </c>
       <c r="AZ56" s="11">
-        <v>1594137</v>
+        <v>1880345</v>
       </c>
       <c r="BA56" s="11">
-        <v>1880345</v>
+        <v>1747595</v>
       </c>
       <c r="BB56" s="11">
-        <v>1747595</v>
+        <v>1745469</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -6542,154 +6542,154 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>253162</v>
+        <v>263224</v>
       </c>
       <c r="F57" s="13">
-        <v>263224</v>
+        <v>247544</v>
       </c>
       <c r="G57" s="13">
-        <v>247544</v>
+        <v>246880</v>
       </c>
       <c r="H57" s="13">
-        <v>246880</v>
+        <v>261745</v>
       </c>
       <c r="I57" s="13">
-        <v>261745</v>
+        <v>230392</v>
       </c>
       <c r="J57" s="13">
-        <v>230392</v>
+        <v>208711</v>
       </c>
       <c r="K57" s="13">
-        <v>208711</v>
+        <v>314201</v>
       </c>
       <c r="L57" s="13">
-        <v>314201</v>
+        <v>336307</v>
       </c>
       <c r="M57" s="13">
-        <v>336307</v>
+        <v>319568</v>
       </c>
       <c r="N57" s="13">
-        <v>319568</v>
+        <v>315388</v>
       </c>
       <c r="O57" s="13">
-        <v>315388</v>
+        <v>305697</v>
       </c>
       <c r="P57" s="13">
-        <v>305697</v>
+        <v>308843</v>
       </c>
       <c r="Q57" s="13">
-        <v>308843</v>
+        <v>317018</v>
       </c>
       <c r="R57" s="13">
-        <v>317018</v>
+        <v>343524</v>
       </c>
       <c r="S57" s="13">
-        <v>343524</v>
+        <v>368536</v>
       </c>
       <c r="T57" s="13">
-        <v>368536</v>
+        <v>400079</v>
       </c>
       <c r="U57" s="13">
-        <v>400079</v>
+        <v>406492</v>
       </c>
       <c r="V57" s="13">
-        <v>406492</v>
+        <v>500685</v>
       </c>
       <c r="W57" s="13">
-        <v>500685</v>
+        <v>461572</v>
       </c>
       <c r="X57" s="13">
-        <v>461572</v>
+        <v>518036</v>
       </c>
       <c r="Y57" s="13">
-        <v>518036</v>
+        <v>581804</v>
       </c>
       <c r="Z57" s="13">
-        <v>581804</v>
+        <v>627784</v>
       </c>
       <c r="AA57" s="13">
-        <v>627784</v>
+        <v>705679</v>
       </c>
       <c r="AB57" s="13">
-        <v>705679</v>
+        <v>774412</v>
       </c>
       <c r="AC57" s="13">
-        <v>774412</v>
+        <v>791482</v>
       </c>
       <c r="AD57" s="13">
-        <v>791482</v>
+        <v>759640</v>
       </c>
       <c r="AE57" s="13">
-        <v>759640</v>
+        <v>753678</v>
       </c>
       <c r="AF57" s="13">
-        <v>753678</v>
+        <v>703076</v>
       </c>
       <c r="AG57" s="13">
-        <v>703076</v>
+        <v>721188</v>
       </c>
       <c r="AH57" s="13">
-        <v>721188</v>
+        <v>732225</v>
       </c>
       <c r="AI57" s="13">
-        <v>732225</v>
+        <v>705394</v>
       </c>
       <c r="AJ57" s="13">
-        <v>705394</v>
+        <v>703221</v>
       </c>
       <c r="AK57" s="13">
-        <v>703221</v>
+        <v>758064</v>
       </c>
       <c r="AL57" s="13">
-        <v>758064</v>
+        <v>840955</v>
       </c>
       <c r="AM57" s="13">
-        <v>840955</v>
+        <v>896991</v>
       </c>
       <c r="AN57" s="13">
-        <v>896991</v>
+        <v>897634</v>
       </c>
       <c r="AO57" s="13">
-        <v>897634</v>
+        <v>899049</v>
       </c>
       <c r="AP57" s="13">
-        <v>899049</v>
+        <v>933613</v>
       </c>
       <c r="AQ57" s="13">
-        <v>933613</v>
+        <v>955147</v>
       </c>
       <c r="AR57" s="13">
-        <v>955147</v>
+        <v>858559</v>
       </c>
       <c r="AS57" s="13">
-        <v>858559</v>
+        <v>880278</v>
       </c>
       <c r="AT57" s="13">
-        <v>880278</v>
+        <v>879970</v>
       </c>
       <c r="AU57" s="13">
-        <v>879970</v>
+        <v>913246</v>
       </c>
       <c r="AV57" s="13">
-        <v>913246</v>
+        <v>984366</v>
       </c>
       <c r="AW57" s="13">
-        <v>984366</v>
+        <v>1018645</v>
       </c>
       <c r="AX57" s="13">
-        <v>1018645</v>
+        <v>1076521</v>
       </c>
       <c r="AY57" s="13">
-        <v>1076521</v>
+        <v>984624</v>
       </c>
       <c r="AZ57" s="13">
-        <v>984624</v>
+        <v>1079734</v>
       </c>
       <c r="BA57" s="13">
-        <v>1079734</v>
+        <v>1139969</v>
       </c>
       <c r="BB57" s="13">
-        <v>1139969</v>
+        <v>1225426</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -6701,154 +6701,154 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>53148</v>
+        <v>52115</v>
       </c>
       <c r="F58" s="11">
-        <v>52115</v>
+        <v>50805</v>
       </c>
       <c r="G58" s="11">
-        <v>50805</v>
+        <v>51966</v>
       </c>
       <c r="H58" s="11">
-        <v>51966</v>
+        <v>47088</v>
       </c>
       <c r="I58" s="11">
-        <v>47088</v>
+        <v>46298</v>
       </c>
       <c r="J58" s="11">
-        <v>46298</v>
+        <v>67851</v>
       </c>
       <c r="K58" s="11">
-        <v>67851</v>
+        <v>63719</v>
       </c>
       <c r="L58" s="11">
-        <v>63719</v>
+        <v>57665</v>
       </c>
       <c r="M58" s="11">
-        <v>57665</v>
+        <v>68715</v>
       </c>
       <c r="N58" s="11">
-        <v>68715</v>
+        <v>71467</v>
       </c>
       <c r="O58" s="11">
-        <v>71467</v>
+        <v>72837</v>
       </c>
       <c r="P58" s="11">
-        <v>72837</v>
+        <v>57444</v>
       </c>
       <c r="Q58" s="11">
-        <v>57444</v>
+        <v>70490</v>
       </c>
       <c r="R58" s="11">
-        <v>70490</v>
+        <v>71461</v>
       </c>
       <c r="S58" s="11">
-        <v>71461</v>
+        <v>73198</v>
       </c>
       <c r="T58" s="11">
-        <v>73198</v>
+        <v>71056</v>
       </c>
       <c r="U58" s="11">
-        <v>71056</v>
+        <v>70635</v>
       </c>
       <c r="V58" s="11">
-        <v>70635</v>
+        <v>176471</v>
       </c>
       <c r="W58" s="11">
-        <v>176471</v>
+        <v>89293</v>
       </c>
       <c r="X58" s="11">
-        <v>89293</v>
+        <v>96007</v>
       </c>
       <c r="Y58" s="11">
-        <v>96007</v>
+        <v>101300</v>
       </c>
       <c r="Z58" s="11">
-        <v>101300</v>
+        <v>106508</v>
       </c>
       <c r="AA58" s="11">
-        <v>106508</v>
+        <v>134543</v>
       </c>
       <c r="AB58" s="11">
-        <v>134543</v>
+        <v>151358</v>
       </c>
       <c r="AC58" s="11">
-        <v>151358</v>
+        <v>154062</v>
       </c>
       <c r="AD58" s="11">
-        <v>154062</v>
+        <v>162960</v>
       </c>
       <c r="AE58" s="11">
-        <v>162960</v>
+        <v>155546</v>
       </c>
       <c r="AF58" s="11">
-        <v>155546</v>
+        <v>153089</v>
       </c>
       <c r="AG58" s="11">
-        <v>153089</v>
+        <v>148548</v>
       </c>
       <c r="AH58" s="11">
-        <v>148548</v>
+        <v>151006</v>
       </c>
       <c r="AI58" s="11">
-        <v>151006</v>
+        <v>160248</v>
       </c>
       <c r="AJ58" s="11">
-        <v>160248</v>
+        <v>149539</v>
       </c>
       <c r="AK58" s="11">
-        <v>149539</v>
+        <v>174860</v>
       </c>
       <c r="AL58" s="11">
-        <v>174860</v>
+        <v>174475</v>
       </c>
       <c r="AM58" s="11">
-        <v>174475</v>
+        <v>194447</v>
       </c>
       <c r="AN58" s="11">
-        <v>194447</v>
+        <v>190403</v>
       </c>
       <c r="AO58" s="11">
-        <v>190403</v>
+        <v>191579</v>
       </c>
       <c r="AP58" s="11">
-        <v>191579</v>
+        <v>185338</v>
       </c>
       <c r="AQ58" s="11">
-        <v>185338</v>
+        <v>200300</v>
       </c>
       <c r="AR58" s="11">
-        <v>200300</v>
+        <v>196335</v>
       </c>
       <c r="AS58" s="11">
-        <v>196335</v>
+        <v>195704</v>
       </c>
       <c r="AT58" s="11">
-        <v>195704</v>
+        <v>219404</v>
       </c>
       <c r="AU58" s="11">
-        <v>219404</v>
+        <v>208167</v>
       </c>
       <c r="AV58" s="11">
-        <v>208167</v>
+        <v>218362</v>
       </c>
       <c r="AW58" s="11">
-        <v>218362</v>
+        <v>243295</v>
       </c>
       <c r="AX58" s="11">
-        <v>243295</v>
+        <v>233105</v>
       </c>
       <c r="AY58" s="11">
-        <v>233105</v>
+        <v>235024</v>
       </c>
       <c r="AZ58" s="11">
-        <v>235024</v>
+        <v>268930</v>
       </c>
       <c r="BA58" s="11">
-        <v>268930</v>
+        <v>272910</v>
       </c>
       <c r="BB58" s="11">
-        <v>272910</v>
+        <v>285613</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -6946,44 +6946,44 @@
       <c r="AG59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH59" s="13" t="s">
-        <v>57</v>
+      <c r="AH59" s="13">
+        <v>1000156</v>
       </c>
       <c r="AI59" s="13">
-        <v>1000156</v>
+        <v>844734</v>
       </c>
       <c r="AJ59" s="13">
-        <v>844734</v>
+        <v>848572</v>
       </c>
       <c r="AK59" s="13">
-        <v>848572</v>
+        <v>926298</v>
       </c>
       <c r="AL59" s="13">
-        <v>926298</v>
+        <v>1029745</v>
       </c>
       <c r="AM59" s="13">
-        <v>1029745</v>
+        <v>1169304</v>
       </c>
       <c r="AN59" s="13">
-        <v>1169304</v>
+        <v>1117173</v>
       </c>
       <c r="AO59" s="13">
-        <v>1117173</v>
+        <v>1284380</v>
       </c>
       <c r="AP59" s="13">
-        <v>1284380</v>
+        <v>1244538</v>
       </c>
       <c r="AQ59" s="13">
-        <v>1244538</v>
+        <v>1241151</v>
       </c>
       <c r="AR59" s="13">
-        <v>1241151</v>
+        <v>1229651</v>
       </c>
       <c r="AS59" s="13">
-        <v>1229651</v>
-      </c>
-      <c r="AT59" s="13">
         <v>1250967</v>
+      </c>
+      <c r="AT59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU59" s="13" t="s">
         <v>57</v>

--- a/database/industries/kashi/kesave/product/monthly.xlsx
+++ b/database/industries/kashi/kesave/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC62A5E0-6DE5-45C7-B9D0-60FF8F8A8E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0D060-C3CE-4D05-8188-CC20C53568B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کاشی کف</t>
@@ -736,12 +736,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -796,7 +796,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -965,7 +965,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1134,7 +1134,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1346,7 +1346,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1412,92 +1412,92 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>128632</v>
+        <v>110834</v>
       </c>
       <c r="F11" s="11">
-        <v>116251</v>
+        <v>106623</v>
       </c>
       <c r="G11" s="11">
-        <v>110834</v>
+        <v>79214</v>
       </c>
       <c r="H11" s="11">
-        <v>106623</v>
+        <v>5281</v>
       </c>
       <c r="I11" s="11">
-        <v>79214</v>
+        <v>161447</v>
       </c>
       <c r="J11" s="11">
-        <v>5281</v>
+        <v>201245</v>
       </c>
       <c r="K11" s="11">
-        <v>161447</v>
+        <v>199126</v>
       </c>
       <c r="L11" s="11">
-        <v>201245</v>
+        <v>170160</v>
       </c>
       <c r="M11" s="11">
-        <v>199126</v>
+        <v>197563</v>
       </c>
       <c r="N11" s="11">
-        <v>170160</v>
+        <v>171185</v>
       </c>
       <c r="O11" s="11">
-        <v>197563</v>
+        <v>142465</v>
       </c>
       <c r="P11" s="11">
-        <v>171185</v>
+        <v>200242</v>
       </c>
       <c r="Q11" s="11">
-        <v>142465</v>
+        <v>163057</v>
       </c>
       <c r="R11" s="11">
-        <v>200242</v>
+        <v>124639</v>
       </c>
       <c r="S11" s="11">
-        <v>163057</v>
+        <v>155605</v>
       </c>
       <c r="T11" s="11">
-        <v>124639</v>
+        <v>37606</v>
       </c>
       <c r="U11" s="11">
-        <v>155605</v>
+        <v>104757</v>
       </c>
       <c r="V11" s="11">
-        <v>37606</v>
+        <v>210843</v>
       </c>
       <c r="W11" s="11">
-        <v>104757</v>
+        <v>193695</v>
       </c>
       <c r="X11" s="11">
-        <v>210843</v>
+        <v>163665</v>
       </c>
       <c r="Y11" s="11">
-        <v>193695</v>
+        <v>159934</v>
       </c>
       <c r="Z11" s="11">
-        <v>163665</v>
+        <v>170994</v>
       </c>
       <c r="AA11" s="11">
-        <v>159934</v>
+        <v>143473</v>
       </c>
       <c r="AB11" s="11">
-        <v>170994</v>
+        <v>172630</v>
       </c>
       <c r="AC11" s="11">
-        <v>143473</v>
+        <v>195869</v>
       </c>
       <c r="AD11" s="11">
-        <v>172630</v>
+        <v>187957</v>
       </c>
       <c r="AE11" s="11">
-        <v>195869</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>187957</v>
-      </c>
-      <c r="AG11" s="11">
         <v>187995</v>
       </c>
+      <c r="AF11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1528,41 +1528,41 @@
       <c r="AQ11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>57</v>
+      <c r="AR11" s="11">
+        <v>121757</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>297564</v>
       </c>
       <c r="AT11" s="11">
-        <v>121757</v>
+        <v>328902</v>
       </c>
       <c r="AU11" s="11">
-        <v>297564</v>
+        <v>277167</v>
       </c>
       <c r="AV11" s="11">
-        <v>328902</v>
+        <v>311452</v>
       </c>
       <c r="AW11" s="11">
-        <v>277167</v>
+        <v>311640</v>
       </c>
       <c r="AX11" s="11">
-        <v>311452</v>
+        <v>296173</v>
       </c>
       <c r="AY11" s="11">
-        <v>311640</v>
+        <v>300514</v>
       </c>
       <c r="AZ11" s="11">
-        <v>296173</v>
+        <v>311385</v>
       </c>
       <c r="BA11" s="11">
-        <v>300514</v>
+        <v>251981</v>
       </c>
       <c r="BB11" s="11">
-        <v>311385</v>
+        <v>255525</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1571,157 +1571,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>558421</v>
+        <v>587848</v>
       </c>
       <c r="F12" s="13">
-        <v>596158</v>
+        <v>549227</v>
       </c>
       <c r="G12" s="13">
-        <v>587848</v>
+        <v>279569</v>
       </c>
       <c r="H12" s="13">
-        <v>549227</v>
+        <v>55521</v>
       </c>
       <c r="I12" s="13">
-        <v>279569</v>
+        <v>411610</v>
       </c>
       <c r="J12" s="13">
-        <v>55521</v>
+        <v>463332</v>
       </c>
       <c r="K12" s="13">
-        <v>411610</v>
+        <v>541508</v>
       </c>
       <c r="L12" s="13">
-        <v>463332</v>
+        <v>531445</v>
       </c>
       <c r="M12" s="13">
-        <v>541508</v>
+        <v>576507</v>
       </c>
       <c r="N12" s="13">
-        <v>531445</v>
+        <v>505317</v>
       </c>
       <c r="O12" s="13">
-        <v>576507</v>
+        <v>520781</v>
       </c>
       <c r="P12" s="13">
-        <v>505317</v>
+        <v>578813</v>
       </c>
       <c r="Q12" s="13">
-        <v>520781</v>
+        <v>574273</v>
       </c>
       <c r="R12" s="13">
-        <v>578813</v>
+        <v>530271</v>
       </c>
       <c r="S12" s="13">
-        <v>574273</v>
+        <v>367437</v>
       </c>
       <c r="T12" s="13">
-        <v>530271</v>
+        <v>127010</v>
       </c>
       <c r="U12" s="13">
-        <v>367437</v>
+        <v>619539</v>
       </c>
       <c r="V12" s="13">
-        <v>127010</v>
+        <v>583393</v>
       </c>
       <c r="W12" s="13">
-        <v>619539</v>
+        <v>513396</v>
       </c>
       <c r="X12" s="13">
-        <v>583393</v>
+        <v>522670</v>
       </c>
       <c r="Y12" s="13">
-        <v>513396</v>
+        <v>535562</v>
       </c>
       <c r="Z12" s="13">
-        <v>522670</v>
+        <v>500111</v>
       </c>
       <c r="AA12" s="13">
-        <v>535562</v>
+        <v>583413</v>
       </c>
       <c r="AB12" s="13">
-        <v>500111</v>
+        <v>516362</v>
       </c>
       <c r="AC12" s="13">
-        <v>583413</v>
+        <v>548987</v>
       </c>
       <c r="AD12" s="13">
-        <v>516362</v>
+        <v>557937</v>
       </c>
       <c r="AE12" s="13">
-        <v>548987</v>
+        <v>349897</v>
       </c>
       <c r="AF12" s="13">
-        <v>557937</v>
+        <v>209907</v>
       </c>
       <c r="AG12" s="13">
-        <v>349897</v>
+        <v>543375</v>
       </c>
       <c r="AH12" s="13">
-        <v>209907</v>
+        <v>531214</v>
       </c>
       <c r="AI12" s="13">
-        <v>543375</v>
+        <v>568851</v>
       </c>
       <c r="AJ12" s="13">
-        <v>531214</v>
+        <v>498587</v>
       </c>
       <c r="AK12" s="13">
-        <v>568851</v>
+        <v>572639</v>
       </c>
       <c r="AL12" s="13">
-        <v>498587</v>
+        <v>545660</v>
       </c>
       <c r="AM12" s="13">
-        <v>572639</v>
+        <v>581841</v>
       </c>
       <c r="AN12" s="13">
-        <v>545660</v>
+        <v>579751</v>
       </c>
       <c r="AO12" s="13">
-        <v>581841</v>
+        <v>579161</v>
       </c>
       <c r="AP12" s="13">
-        <v>579751</v>
+        <v>542538</v>
       </c>
       <c r="AQ12" s="13">
-        <v>579161</v>
+        <v>302450</v>
       </c>
       <c r="AR12" s="13">
-        <v>542538</v>
+        <v>224233</v>
       </c>
       <c r="AS12" s="13">
-        <v>302450</v>
+        <v>586684</v>
       </c>
       <c r="AT12" s="13">
-        <v>224233</v>
+        <v>613013</v>
       </c>
       <c r="AU12" s="13">
-        <v>586684</v>
+        <v>526570</v>
       </c>
       <c r="AV12" s="13">
-        <v>613013</v>
+        <v>509602</v>
       </c>
       <c r="AW12" s="13">
-        <v>526570</v>
+        <v>538209</v>
       </c>
       <c r="AX12" s="13">
-        <v>509602</v>
+        <v>540053</v>
       </c>
       <c r="AY12" s="13">
-        <v>538209</v>
+        <v>501747</v>
       </c>
       <c r="AZ12" s="13">
-        <v>540053</v>
+        <v>547981</v>
       </c>
       <c r="BA12" s="13">
-        <v>501747</v>
+        <v>477535</v>
       </c>
       <c r="BB12" s="13">
-        <v>547981</v>
+        <v>461306</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1730,157 +1730,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>255788</v>
+        <v>306802</v>
       </c>
       <c r="F13" s="11">
-        <v>318428</v>
+        <v>290378</v>
       </c>
       <c r="G13" s="11">
-        <v>306802</v>
+        <v>165359</v>
       </c>
       <c r="H13" s="11">
-        <v>290378</v>
+        <v>85213</v>
       </c>
       <c r="I13" s="11">
-        <v>165359</v>
+        <v>317447</v>
       </c>
       <c r="J13" s="11">
-        <v>85213</v>
+        <v>292980</v>
       </c>
       <c r="K13" s="11">
-        <v>317447</v>
+        <v>281563</v>
       </c>
       <c r="L13" s="11">
-        <v>292980</v>
+        <v>240207</v>
       </c>
       <c r="M13" s="11">
-        <v>281563</v>
+        <v>272006</v>
       </c>
       <c r="N13" s="11">
-        <v>240207</v>
+        <v>304828</v>
       </c>
       <c r="O13" s="11">
-        <v>272006</v>
+        <v>281782</v>
       </c>
       <c r="P13" s="11">
-        <v>304828</v>
+        <v>288344</v>
       </c>
       <c r="Q13" s="11">
-        <v>281782</v>
+        <v>301939</v>
       </c>
       <c r="R13" s="11">
-        <v>288344</v>
+        <v>303407</v>
       </c>
       <c r="S13" s="11">
-        <v>301939</v>
+        <v>161561</v>
       </c>
       <c r="T13" s="11">
-        <v>303407</v>
+        <v>21097</v>
       </c>
       <c r="U13" s="11">
-        <v>161561</v>
+        <v>282770</v>
       </c>
       <c r="V13" s="11">
-        <v>21097</v>
+        <v>283914</v>
       </c>
       <c r="W13" s="11">
-        <v>282770</v>
+        <v>294177</v>
       </c>
       <c r="X13" s="11">
-        <v>283914</v>
+        <v>265700</v>
       </c>
       <c r="Y13" s="11">
-        <v>294177</v>
+        <v>272295</v>
       </c>
       <c r="Z13" s="11">
-        <v>265700</v>
+        <v>271352</v>
       </c>
       <c r="AA13" s="11">
-        <v>272295</v>
+        <v>269581</v>
       </c>
       <c r="AB13" s="11">
-        <v>271352</v>
+        <v>259870</v>
       </c>
       <c r="AC13" s="11">
-        <v>269581</v>
+        <v>230057</v>
       </c>
       <c r="AD13" s="11">
-        <v>259870</v>
+        <v>191426</v>
       </c>
       <c r="AE13" s="11">
-        <v>230057</v>
+        <v>234199</v>
       </c>
       <c r="AF13" s="11">
-        <v>191426</v>
+        <v>95189</v>
       </c>
       <c r="AG13" s="11">
-        <v>234199</v>
+        <v>268860</v>
       </c>
       <c r="AH13" s="11">
-        <v>95189</v>
+        <v>236453</v>
       </c>
       <c r="AI13" s="11">
-        <v>268860</v>
+        <v>248916</v>
       </c>
       <c r="AJ13" s="11">
-        <v>236453</v>
+        <v>275516</v>
       </c>
       <c r="AK13" s="11">
-        <v>248916</v>
+        <v>212457</v>
       </c>
       <c r="AL13" s="11">
-        <v>275516</v>
+        <v>221344</v>
       </c>
       <c r="AM13" s="11">
-        <v>212457</v>
+        <v>235251</v>
       </c>
       <c r="AN13" s="11">
-        <v>221344</v>
+        <v>231663</v>
       </c>
       <c r="AO13" s="11">
-        <v>235251</v>
+        <v>238828</v>
       </c>
       <c r="AP13" s="11">
-        <v>231663</v>
+        <v>250309</v>
       </c>
       <c r="AQ13" s="11">
-        <v>238828</v>
+        <v>109645</v>
       </c>
       <c r="AR13" s="11">
-        <v>250309</v>
+        <v>64450</v>
       </c>
       <c r="AS13" s="11">
-        <v>109645</v>
+        <v>281297</v>
       </c>
       <c r="AT13" s="11">
-        <v>64450</v>
+        <v>303271</v>
       </c>
       <c r="AU13" s="11">
-        <v>281297</v>
+        <v>285556</v>
       </c>
       <c r="AV13" s="11">
-        <v>303271</v>
+        <v>259449</v>
       </c>
       <c r="AW13" s="11">
-        <v>285556</v>
+        <v>240069</v>
       </c>
       <c r="AX13" s="11">
-        <v>259449</v>
+        <v>262754</v>
       </c>
       <c r="AY13" s="11">
-        <v>240069</v>
+        <v>276961</v>
       </c>
       <c r="AZ13" s="11">
-        <v>262754</v>
+        <v>255279</v>
       </c>
       <c r="BA13" s="11">
-        <v>276961</v>
+        <v>263216</v>
       </c>
       <c r="BB13" s="11">
-        <v>255279</v>
+        <v>249270</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1969,48 +1969,48 @@
       <c r="AE14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>57</v>
+      <c r="AF14" s="13">
+        <v>167446</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>305656</v>
       </c>
       <c r="AH14" s="13">
-        <v>167446</v>
+        <v>256718</v>
       </c>
       <c r="AI14" s="13">
-        <v>305656</v>
+        <v>296062</v>
       </c>
       <c r="AJ14" s="13">
-        <v>256718</v>
+        <v>300779</v>
       </c>
       <c r="AK14" s="13">
-        <v>296062</v>
+        <v>280005</v>
       </c>
       <c r="AL14" s="13">
-        <v>300779</v>
+        <v>313062</v>
       </c>
       <c r="AM14" s="13">
-        <v>280005</v>
+        <v>232411</v>
       </c>
       <c r="AN14" s="13">
-        <v>313062</v>
+        <v>285816</v>
       </c>
       <c r="AO14" s="13">
-        <v>232411</v>
+        <v>290008</v>
       </c>
       <c r="AP14" s="13">
-        <v>285816</v>
+        <v>288278</v>
       </c>
       <c r="AQ14" s="13">
-        <v>290008</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>288278</v>
-      </c>
-      <c r="AS14" s="13">
         <v>187242</v>
       </c>
+      <c r="AR14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>63</v>
       </c>
@@ -2156,11 +2156,11 @@
       <c r="V16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>57</v>
+      <c r="W16" s="17">
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
       </c>
       <c r="Y16" s="17">
         <v>0</v>
@@ -2253,164 +2253,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>942841</v>
+        <v>1005484</v>
       </c>
       <c r="F17" s="19">
-        <v>1030837</v>
+        <v>946228</v>
       </c>
       <c r="G17" s="19">
-        <v>1005484</v>
+        <v>524142</v>
       </c>
       <c r="H17" s="19">
-        <v>946228</v>
+        <v>146015</v>
       </c>
       <c r="I17" s="19">
-        <v>524142</v>
+        <v>890504</v>
       </c>
       <c r="J17" s="19">
-        <v>146015</v>
+        <v>957557</v>
       </c>
       <c r="K17" s="19">
-        <v>890504</v>
+        <v>1022197</v>
       </c>
       <c r="L17" s="19">
-        <v>957557</v>
+        <v>941812</v>
       </c>
       <c r="M17" s="19">
-        <v>1022197</v>
+        <v>1046076</v>
       </c>
       <c r="N17" s="19">
-        <v>941812</v>
+        <v>981330</v>
       </c>
       <c r="O17" s="19">
-        <v>1046076</v>
+        <v>945028</v>
       </c>
       <c r="P17" s="19">
-        <v>981330</v>
+        <v>1067399</v>
       </c>
       <c r="Q17" s="19">
-        <v>945028</v>
+        <v>1039269</v>
       </c>
       <c r="R17" s="19">
-        <v>1067399</v>
+        <v>958317</v>
       </c>
       <c r="S17" s="19">
-        <v>1039269</v>
+        <v>684603</v>
       </c>
       <c r="T17" s="19">
-        <v>958317</v>
+        <v>185713</v>
       </c>
       <c r="U17" s="19">
-        <v>684603</v>
+        <v>1007066</v>
       </c>
       <c r="V17" s="19">
-        <v>185713</v>
+        <v>1078150</v>
       </c>
       <c r="W17" s="19">
-        <v>1007066</v>
+        <v>1001268</v>
       </c>
       <c r="X17" s="19">
-        <v>1078150</v>
+        <v>952035</v>
       </c>
       <c r="Y17" s="19">
-        <v>1001268</v>
+        <v>967791</v>
       </c>
       <c r="Z17" s="19">
-        <v>952035</v>
+        <v>942457</v>
       </c>
       <c r="AA17" s="19">
-        <v>967791</v>
+        <v>996467</v>
       </c>
       <c r="AB17" s="19">
-        <v>942457</v>
+        <v>948862</v>
       </c>
       <c r="AC17" s="19">
-        <v>996467</v>
+        <v>974913</v>
       </c>
       <c r="AD17" s="19">
-        <v>948862</v>
+        <v>937320</v>
       </c>
       <c r="AE17" s="19">
-        <v>974913</v>
+        <v>772091</v>
       </c>
       <c r="AF17" s="19">
-        <v>937320</v>
+        <v>472542</v>
       </c>
       <c r="AG17" s="19">
-        <v>772091</v>
+        <v>1117891</v>
       </c>
       <c r="AH17" s="19">
-        <v>472542</v>
+        <v>1024385</v>
       </c>
       <c r="AI17" s="19">
-        <v>1117891</v>
+        <v>1113829</v>
       </c>
       <c r="AJ17" s="19">
-        <v>1024385</v>
+        <v>1074882</v>
       </c>
       <c r="AK17" s="19">
-        <v>1113829</v>
+        <v>1065101</v>
       </c>
       <c r="AL17" s="19">
-        <v>1074882</v>
+        <v>1080066</v>
       </c>
       <c r="AM17" s="19">
-        <v>1065101</v>
+        <v>1049503</v>
       </c>
       <c r="AN17" s="19">
-        <v>1080066</v>
+        <v>1097230</v>
       </c>
       <c r="AO17" s="19">
-        <v>1049503</v>
+        <v>1107997</v>
       </c>
       <c r="AP17" s="19">
-        <v>1097230</v>
+        <v>1081125</v>
       </c>
       <c r="AQ17" s="19">
-        <v>1107997</v>
+        <v>599337</v>
       </c>
       <c r="AR17" s="19">
-        <v>1081125</v>
+        <v>410440</v>
       </c>
       <c r="AS17" s="19">
-        <v>599337</v>
+        <v>1165545</v>
       </c>
       <c r="AT17" s="19">
-        <v>410440</v>
+        <v>1245186</v>
       </c>
       <c r="AU17" s="19">
-        <v>1165545</v>
+        <v>1089293</v>
       </c>
       <c r="AV17" s="19">
-        <v>1245186</v>
+        <v>1080503</v>
       </c>
       <c r="AW17" s="19">
-        <v>1089293</v>
+        <v>1089918</v>
       </c>
       <c r="AX17" s="19">
-        <v>1080503</v>
+        <v>1098980</v>
       </c>
       <c r="AY17" s="19">
-        <v>1089918</v>
+        <v>1079222</v>
       </c>
       <c r="AZ17" s="19">
-        <v>1098980</v>
+        <v>1114645</v>
       </c>
       <c r="BA17" s="19">
-        <v>1079222</v>
+        <v>992732</v>
       </c>
       <c r="BB17" s="19">
-        <v>1114645</v>
+        <v>966101</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2465,7 +2465,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2520,7 +2520,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2575,7 +2575,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>65</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2787,7 +2787,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>65</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2853,92 +2853,92 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>138614</v>
+        <v>104070</v>
       </c>
       <c r="F24" s="11">
-        <v>138285</v>
+        <v>105068</v>
       </c>
       <c r="G24" s="11">
-        <v>104070</v>
+        <v>145028</v>
       </c>
       <c r="H24" s="11">
-        <v>105068</v>
+        <v>10704</v>
       </c>
       <c r="I24" s="11">
-        <v>145028</v>
+        <v>147657</v>
       </c>
       <c r="J24" s="11">
-        <v>10704</v>
+        <v>227926</v>
       </c>
       <c r="K24" s="11">
-        <v>147657</v>
+        <v>183593</v>
       </c>
       <c r="L24" s="11">
-        <v>227926</v>
+        <v>159692</v>
       </c>
       <c r="M24" s="11">
-        <v>183593</v>
+        <v>190617</v>
       </c>
       <c r="N24" s="11">
-        <v>159692</v>
+        <v>182758</v>
       </c>
       <c r="O24" s="11">
-        <v>190617</v>
+        <v>119982</v>
       </c>
       <c r="P24" s="11">
-        <v>182758</v>
+        <v>200384</v>
       </c>
       <c r="Q24" s="11">
-        <v>119982</v>
+        <v>180361</v>
       </c>
       <c r="R24" s="11">
-        <v>200384</v>
+        <v>179697</v>
       </c>
       <c r="S24" s="11">
-        <v>180361</v>
+        <v>204576</v>
       </c>
       <c r="T24" s="11">
-        <v>179697</v>
+        <v>12991</v>
       </c>
       <c r="U24" s="11">
-        <v>204576</v>
+        <v>133312</v>
       </c>
       <c r="V24" s="11">
-        <v>12991</v>
+        <v>187831</v>
       </c>
       <c r="W24" s="11">
-        <v>133312</v>
+        <v>197684</v>
       </c>
       <c r="X24" s="11">
-        <v>187831</v>
+        <v>234261</v>
       </c>
       <c r="Y24" s="11">
-        <v>197684</v>
+        <v>139266</v>
       </c>
       <c r="Z24" s="11">
-        <v>234261</v>
+        <v>210948</v>
       </c>
       <c r="AA24" s="11">
-        <v>139266</v>
+        <v>146675</v>
       </c>
       <c r="AB24" s="11">
-        <v>210948</v>
+        <v>151812</v>
       </c>
       <c r="AC24" s="11">
-        <v>146675</v>
+        <v>206619</v>
       </c>
       <c r="AD24" s="11">
-        <v>151812</v>
+        <v>180335</v>
       </c>
       <c r="AE24" s="11">
-        <v>206619</v>
-      </c>
-      <c r="AF24" s="11">
-        <v>180335</v>
-      </c>
-      <c r="AG24" s="11">
         <v>277119</v>
       </c>
+      <c r="AF24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG24" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH24" s="11" t="s">
         <v>57</v>
       </c>
@@ -2969,41 +2969,41 @@
       <c r="AQ24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS24" s="11" t="s">
-        <v>57</v>
+      <c r="AR24" s="11">
+        <v>72189</v>
+      </c>
+      <c r="AS24" s="11">
+        <v>364851</v>
       </c>
       <c r="AT24" s="11">
-        <v>72189</v>
+        <v>294801</v>
       </c>
       <c r="AU24" s="11">
-        <v>364851</v>
+        <v>243931</v>
       </c>
       <c r="AV24" s="11">
-        <v>294801</v>
+        <v>295720</v>
       </c>
       <c r="AW24" s="11">
-        <v>243931</v>
+        <v>253095</v>
       </c>
       <c r="AX24" s="11">
-        <v>295720</v>
+        <v>252726</v>
       </c>
       <c r="AY24" s="11">
-        <v>253095</v>
+        <v>299495</v>
       </c>
       <c r="AZ24" s="11">
-        <v>252726</v>
+        <v>350405</v>
       </c>
       <c r="BA24" s="11">
-        <v>299495</v>
+        <v>296542</v>
       </c>
       <c r="BB24" s="11">
-        <v>350405</v>
+        <v>253170</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>58</v>
       </c>
@@ -3012,157 +3012,157 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>583472</v>
+        <v>558057</v>
       </c>
       <c r="F25" s="13">
-        <v>538372</v>
+        <v>647727</v>
       </c>
       <c r="G25" s="13">
-        <v>558057</v>
+        <v>718146</v>
       </c>
       <c r="H25" s="13">
-        <v>647727</v>
+        <v>82650</v>
       </c>
       <c r="I25" s="13">
-        <v>718146</v>
+        <v>395645</v>
       </c>
       <c r="J25" s="13">
-        <v>82650</v>
+        <v>547340</v>
       </c>
       <c r="K25" s="13">
-        <v>395645</v>
+        <v>568301</v>
       </c>
       <c r="L25" s="13">
-        <v>547340</v>
+        <v>460890</v>
       </c>
       <c r="M25" s="13">
-        <v>568301</v>
+        <v>643892</v>
       </c>
       <c r="N25" s="13">
-        <v>460890</v>
+        <v>524904</v>
       </c>
       <c r="O25" s="13">
-        <v>643892</v>
+        <v>514848</v>
       </c>
       <c r="P25" s="13">
-        <v>524904</v>
+        <v>545612</v>
       </c>
       <c r="Q25" s="13">
-        <v>514848</v>
+        <v>566590</v>
       </c>
       <c r="R25" s="13">
-        <v>545612</v>
+        <v>494070</v>
       </c>
       <c r="S25" s="13">
-        <v>566590</v>
+        <v>540940</v>
       </c>
       <c r="T25" s="13">
-        <v>494070</v>
+        <v>52580</v>
       </c>
       <c r="U25" s="13">
-        <v>540940</v>
+        <v>560365</v>
       </c>
       <c r="V25" s="13">
-        <v>52580</v>
+        <v>583865</v>
       </c>
       <c r="W25" s="13">
-        <v>560365</v>
+        <v>553874</v>
       </c>
       <c r="X25" s="13">
-        <v>583865</v>
+        <v>643916</v>
       </c>
       <c r="Y25" s="13">
-        <v>553874</v>
+        <v>554758</v>
       </c>
       <c r="Z25" s="13">
-        <v>643916</v>
+        <v>544108</v>
       </c>
       <c r="AA25" s="13">
-        <v>554758</v>
+        <v>560407</v>
       </c>
       <c r="AB25" s="13">
-        <v>544108</v>
+        <v>558900</v>
       </c>
       <c r="AC25" s="13">
-        <v>560407</v>
+        <v>572097</v>
       </c>
       <c r="AD25" s="13">
-        <v>558900</v>
+        <v>532594</v>
       </c>
       <c r="AE25" s="13">
-        <v>572097</v>
+        <v>639969</v>
       </c>
       <c r="AF25" s="13">
-        <v>532594</v>
+        <v>156538</v>
       </c>
       <c r="AG25" s="13">
-        <v>639969</v>
+        <v>537799</v>
       </c>
       <c r="AH25" s="13">
-        <v>156538</v>
+        <v>519187</v>
       </c>
       <c r="AI25" s="13">
-        <v>537799</v>
+        <v>548244</v>
       </c>
       <c r="AJ25" s="13">
-        <v>519187</v>
+        <v>457889</v>
       </c>
       <c r="AK25" s="13">
-        <v>548244</v>
+        <v>644498</v>
       </c>
       <c r="AL25" s="13">
-        <v>457889</v>
+        <v>481535</v>
       </c>
       <c r="AM25" s="13">
-        <v>644498</v>
+        <v>532356</v>
       </c>
       <c r="AN25" s="13">
-        <v>481535</v>
+        <v>581876</v>
       </c>
       <c r="AO25" s="13">
-        <v>532356</v>
+        <v>449890</v>
       </c>
       <c r="AP25" s="13">
-        <v>581876</v>
+        <v>548978</v>
       </c>
       <c r="AQ25" s="13">
-        <v>449890</v>
+        <v>559238</v>
       </c>
       <c r="AR25" s="13">
-        <v>548978</v>
+        <v>136774</v>
       </c>
       <c r="AS25" s="13">
-        <v>559238</v>
+        <v>625826</v>
       </c>
       <c r="AT25" s="13">
-        <v>136774</v>
+        <v>528780</v>
       </c>
       <c r="AU25" s="13">
-        <v>625826</v>
+        <v>457232</v>
       </c>
       <c r="AV25" s="13">
-        <v>528780</v>
+        <v>524028</v>
       </c>
       <c r="AW25" s="13">
-        <v>457232</v>
+        <v>527299</v>
       </c>
       <c r="AX25" s="13">
-        <v>524028</v>
+        <v>497493</v>
       </c>
       <c r="AY25" s="13">
-        <v>527299</v>
+        <v>477321</v>
       </c>
       <c r="AZ25" s="13">
-        <v>497493</v>
+        <v>578340</v>
       </c>
       <c r="BA25" s="13">
-        <v>477321</v>
+        <v>439020</v>
       </c>
       <c r="BB25" s="13">
-        <v>578340</v>
+        <v>443003</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
@@ -3171,157 +3171,157 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>205027</v>
+        <v>201633</v>
       </c>
       <c r="F26" s="11">
-        <v>233306</v>
+        <v>279605</v>
       </c>
       <c r="G26" s="11">
-        <v>201633</v>
+        <v>443601</v>
       </c>
       <c r="H26" s="11">
-        <v>279605</v>
+        <v>29653</v>
       </c>
       <c r="I26" s="11">
-        <v>443601</v>
+        <v>274425</v>
       </c>
       <c r="J26" s="11">
-        <v>29653</v>
+        <v>374578</v>
       </c>
       <c r="K26" s="11">
-        <v>274425</v>
+        <v>176642</v>
       </c>
       <c r="L26" s="11">
-        <v>374578</v>
+        <v>249851</v>
       </c>
       <c r="M26" s="11">
-        <v>176642</v>
+        <v>234223</v>
       </c>
       <c r="N26" s="11">
-        <v>249851</v>
+        <v>289813</v>
       </c>
       <c r="O26" s="11">
-        <v>234223</v>
+        <v>219590</v>
       </c>
       <c r="P26" s="11">
-        <v>289813</v>
+        <v>268623</v>
       </c>
       <c r="Q26" s="11">
-        <v>219590</v>
+        <v>379806</v>
       </c>
       <c r="R26" s="11">
-        <v>268623</v>
+        <v>375435</v>
       </c>
       <c r="S26" s="11">
-        <v>379806</v>
+        <v>205464</v>
       </c>
       <c r="T26" s="11">
-        <v>375435</v>
+        <v>34</v>
       </c>
       <c r="U26" s="11">
-        <v>205464</v>
+        <v>300764</v>
       </c>
       <c r="V26" s="11">
-        <v>34</v>
+        <v>223557</v>
       </c>
       <c r="W26" s="11">
-        <v>300764</v>
+        <v>299112</v>
       </c>
       <c r="X26" s="11">
-        <v>223557</v>
+        <v>351503</v>
       </c>
       <c r="Y26" s="11">
-        <v>299112</v>
+        <v>284868</v>
       </c>
       <c r="Z26" s="11">
-        <v>351503</v>
+        <v>224296</v>
       </c>
       <c r="AA26" s="11">
-        <v>284868</v>
+        <v>346640</v>
       </c>
       <c r="AB26" s="11">
-        <v>224296</v>
+        <v>204246</v>
       </c>
       <c r="AC26" s="11">
-        <v>346640</v>
+        <v>238399</v>
       </c>
       <c r="AD26" s="11">
-        <v>204246</v>
+        <v>180124</v>
       </c>
       <c r="AE26" s="11">
-        <v>238399</v>
+        <v>312208</v>
       </c>
       <c r="AF26" s="11">
-        <v>180124</v>
+        <v>80924</v>
       </c>
       <c r="AG26" s="11">
-        <v>312208</v>
+        <v>222349</v>
       </c>
       <c r="AH26" s="11">
-        <v>80924</v>
+        <v>299354</v>
       </c>
       <c r="AI26" s="11">
-        <v>222349</v>
+        <v>199634</v>
       </c>
       <c r="AJ26" s="11">
-        <v>299354</v>
+        <v>193220</v>
       </c>
       <c r="AK26" s="11">
-        <v>199634</v>
+        <v>189337</v>
       </c>
       <c r="AL26" s="11">
-        <v>193220</v>
+        <v>163159</v>
       </c>
       <c r="AM26" s="11">
-        <v>189337</v>
+        <v>183460</v>
       </c>
       <c r="AN26" s="11">
-        <v>163159</v>
+        <v>246706</v>
       </c>
       <c r="AO26" s="11">
-        <v>183460</v>
+        <v>174908</v>
       </c>
       <c r="AP26" s="11">
-        <v>246706</v>
+        <v>185178</v>
       </c>
       <c r="AQ26" s="11">
-        <v>174908</v>
+        <v>234247</v>
       </c>
       <c r="AR26" s="11">
-        <v>185178</v>
+        <v>49197</v>
       </c>
       <c r="AS26" s="11">
-        <v>234247</v>
+        <v>274693</v>
       </c>
       <c r="AT26" s="11">
-        <v>49197</v>
+        <v>276321</v>
       </c>
       <c r="AU26" s="11">
-        <v>274693</v>
+        <v>235060</v>
       </c>
       <c r="AV26" s="11">
-        <v>276321</v>
+        <v>238030</v>
       </c>
       <c r="AW26" s="11">
-        <v>235060</v>
+        <v>227624</v>
       </c>
       <c r="AX26" s="11">
-        <v>238030</v>
+        <v>176734</v>
       </c>
       <c r="AY26" s="11">
-        <v>227624</v>
+        <v>241721</v>
       </c>
       <c r="AZ26" s="11">
-        <v>176734</v>
+        <v>187285</v>
       </c>
       <c r="BA26" s="11">
-        <v>241721</v>
+        <v>219992</v>
       </c>
       <c r="BB26" s="11">
-        <v>187285</v>
+        <v>273520</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>61</v>
       </c>
@@ -3410,48 +3410,48 @@
       <c r="AE27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>57</v>
+      <c r="AF27" s="13">
+        <v>102631</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>258582</v>
       </c>
       <c r="AH27" s="13">
-        <v>102631</v>
+        <v>305056</v>
       </c>
       <c r="AI27" s="13">
-        <v>258582</v>
+        <v>251268</v>
       </c>
       <c r="AJ27" s="13">
-        <v>305056</v>
+        <v>282734</v>
       </c>
       <c r="AK27" s="13">
-        <v>251268</v>
+        <v>306336</v>
       </c>
       <c r="AL27" s="13">
-        <v>282734</v>
+        <v>269737</v>
       </c>
       <c r="AM27" s="13">
-        <v>306336</v>
+        <v>216819</v>
       </c>
       <c r="AN27" s="13">
-        <v>269737</v>
+        <v>307609</v>
       </c>
       <c r="AO27" s="13">
-        <v>216819</v>
+        <v>312949</v>
       </c>
       <c r="AP27" s="13">
-        <v>307609</v>
+        <v>254425</v>
       </c>
       <c r="AQ27" s="13">
-        <v>312949</v>
-      </c>
-      <c r="AR27" s="13">
-        <v>254425</v>
-      </c>
-      <c r="AS27" s="13">
         <v>271749</v>
       </c>
+      <c r="AR27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS27" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT27" s="13" t="s">
         <v>57</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>62</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>63</v>
       </c>
@@ -3597,11 +3597,11 @@
       <c r="V29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>57</v>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
       </c>
       <c r="Y29" s="17">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>66</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>67</v>
       </c>
@@ -3811,11 +3811,11 @@
       <c r="V31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>57</v>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
       </c>
       <c r="Y31" s="17">
         <v>0</v>
@@ -3908,164 +3908,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19">
-        <v>927113</v>
+        <v>863760</v>
       </c>
       <c r="F32" s="19">
-        <v>909963</v>
+        <v>1032400</v>
       </c>
       <c r="G32" s="19">
-        <v>863760</v>
+        <v>1306775</v>
       </c>
       <c r="H32" s="19">
-        <v>1032400</v>
+        <v>123007</v>
       </c>
       <c r="I32" s="19">
-        <v>1306775</v>
+        <v>817727</v>
       </c>
       <c r="J32" s="19">
-        <v>123007</v>
+        <v>1149844</v>
       </c>
       <c r="K32" s="19">
-        <v>817727</v>
+        <v>928536</v>
       </c>
       <c r="L32" s="19">
-        <v>1149844</v>
+        <v>870433</v>
       </c>
       <c r="M32" s="19">
-        <v>928536</v>
+        <v>1068732</v>
       </c>
       <c r="N32" s="19">
-        <v>870433</v>
+        <v>997475</v>
       </c>
       <c r="O32" s="19">
-        <v>1068732</v>
+        <v>854420</v>
       </c>
       <c r="P32" s="19">
-        <v>997475</v>
+        <v>1014619</v>
       </c>
       <c r="Q32" s="19">
-        <v>854420</v>
+        <v>1126757</v>
       </c>
       <c r="R32" s="19">
-        <v>1014619</v>
+        <v>1049202</v>
       </c>
       <c r="S32" s="19">
-        <v>1126757</v>
+        <v>950980</v>
       </c>
       <c r="T32" s="19">
-        <v>1049202</v>
+        <v>65605</v>
       </c>
       <c r="U32" s="19">
-        <v>950980</v>
+        <v>994441</v>
       </c>
       <c r="V32" s="19">
-        <v>65605</v>
+        <v>995253</v>
       </c>
       <c r="W32" s="19">
-        <v>994441</v>
+        <v>1050670</v>
       </c>
       <c r="X32" s="19">
-        <v>995253</v>
+        <v>1229680</v>
       </c>
       <c r="Y32" s="19">
-        <v>1050670</v>
+        <v>978892</v>
       </c>
       <c r="Z32" s="19">
-        <v>1229680</v>
+        <v>979352</v>
       </c>
       <c r="AA32" s="19">
-        <v>978892</v>
+        <v>1053722</v>
       </c>
       <c r="AB32" s="19">
-        <v>979352</v>
+        <v>914958</v>
       </c>
       <c r="AC32" s="19">
-        <v>1053722</v>
+        <v>1017115</v>
       </c>
       <c r="AD32" s="19">
-        <v>914958</v>
+        <v>893053</v>
       </c>
       <c r="AE32" s="19">
-        <v>1017115</v>
+        <v>1229296</v>
       </c>
       <c r="AF32" s="19">
-        <v>893053</v>
+        <v>340093</v>
       </c>
       <c r="AG32" s="19">
-        <v>1229296</v>
+        <v>1018730</v>
       </c>
       <c r="AH32" s="19">
-        <v>340093</v>
+        <v>1123597</v>
       </c>
       <c r="AI32" s="19">
-        <v>1018730</v>
+        <v>999146</v>
       </c>
       <c r="AJ32" s="19">
-        <v>1123597</v>
+        <v>933843</v>
       </c>
       <c r="AK32" s="19">
-        <v>999146</v>
+        <v>1140171</v>
       </c>
       <c r="AL32" s="19">
-        <v>933843</v>
+        <v>914431</v>
       </c>
       <c r="AM32" s="19">
-        <v>1140171</v>
+        <v>932635</v>
       </c>
       <c r="AN32" s="19">
-        <v>914431</v>
+        <v>1136191</v>
       </c>
       <c r="AO32" s="19">
-        <v>932635</v>
+        <v>937747</v>
       </c>
       <c r="AP32" s="19">
-        <v>1136191</v>
+        <v>988581</v>
       </c>
       <c r="AQ32" s="19">
-        <v>937747</v>
+        <v>1065234</v>
       </c>
       <c r="AR32" s="19">
-        <v>988581</v>
+        <v>258160</v>
       </c>
       <c r="AS32" s="19">
-        <v>1065234</v>
+        <v>1265370</v>
       </c>
       <c r="AT32" s="19">
-        <v>258160</v>
+        <v>1099902</v>
       </c>
       <c r="AU32" s="19">
-        <v>1265370</v>
+        <v>936223</v>
       </c>
       <c r="AV32" s="19">
-        <v>1099902</v>
+        <v>1057778</v>
       </c>
       <c r="AW32" s="19">
-        <v>936223</v>
+        <v>1008018</v>
       </c>
       <c r="AX32" s="19">
-        <v>1057778</v>
+        <v>926953</v>
       </c>
       <c r="AY32" s="19">
-        <v>1008018</v>
+        <v>1018537</v>
       </c>
       <c r="AZ32" s="19">
-        <v>926953</v>
+        <v>1116030</v>
       </c>
       <c r="BA32" s="19">
-        <v>1018537</v>
+        <v>955554</v>
       </c>
       <c r="BB32" s="19">
-        <v>1116030</v>
+        <v>969693</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4120,7 +4120,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4175,7 +4175,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4230,7 +4230,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>68</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4442,7 +4442,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>68</v>
       </c>
@@ -4499,7 +4499,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>55</v>
       </c>
@@ -4508,92 +4508,92 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>42249</v>
+        <v>32043</v>
       </c>
       <c r="F39" s="11">
-        <v>38949</v>
+        <v>29464</v>
       </c>
       <c r="G39" s="11">
-        <v>32043</v>
+        <v>41611</v>
       </c>
       <c r="H39" s="11">
-        <v>29464</v>
+        <v>3679</v>
       </c>
       <c r="I39" s="11">
-        <v>41611</v>
+        <v>43977</v>
       </c>
       <c r="J39" s="11">
-        <v>3679</v>
+        <v>75585</v>
       </c>
       <c r="K39" s="11">
-        <v>43977</v>
+        <v>56599</v>
       </c>
       <c r="L39" s="11">
-        <v>75585</v>
+        <v>52161</v>
       </c>
       <c r="M39" s="11">
-        <v>56599</v>
+        <v>55342</v>
       </c>
       <c r="N39" s="11">
-        <v>52161</v>
+        <v>50455</v>
       </c>
       <c r="O39" s="11">
-        <v>55342</v>
+        <v>35150</v>
       </c>
       <c r="P39" s="11">
-        <v>50455</v>
+        <v>68462</v>
       </c>
       <c r="Q39" s="11">
-        <v>35150</v>
+        <v>57855</v>
       </c>
       <c r="R39" s="11">
-        <v>68462</v>
+        <v>61432</v>
       </c>
       <c r="S39" s="11">
-        <v>57855</v>
+        <v>73036</v>
       </c>
       <c r="T39" s="11">
-        <v>61432</v>
+        <v>6290</v>
       </c>
       <c r="U39" s="11">
-        <v>73036</v>
+        <v>65740</v>
       </c>
       <c r="V39" s="11">
-        <v>6290</v>
+        <v>98895</v>
       </c>
       <c r="W39" s="11">
-        <v>65740</v>
+        <v>111718</v>
       </c>
       <c r="X39" s="11">
-        <v>98895</v>
+        <v>145838</v>
       </c>
       <c r="Y39" s="11">
-        <v>111718</v>
+        <v>84654</v>
       </c>
       <c r="Z39" s="11">
-        <v>145838</v>
+        <v>161477</v>
       </c>
       <c r="AA39" s="11">
-        <v>84654</v>
+        <v>102407</v>
       </c>
       <c r="AB39" s="11">
-        <v>161477</v>
+        <v>123394</v>
       </c>
       <c r="AC39" s="11">
-        <v>102407</v>
+        <v>167326</v>
       </c>
       <c r="AD39" s="11">
-        <v>123394</v>
+        <v>136182</v>
       </c>
       <c r="AE39" s="11">
-        <v>167326</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>136182</v>
-      </c>
-      <c r="AG39" s="11">
         <v>198282</v>
       </c>
+      <c r="AF39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH39" s="11" t="s">
         <v>57</v>
       </c>
@@ -4624,41 +4624,41 @@
       <c r="AQ39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>57</v>
+      <c r="AR39" s="11">
+        <v>75889</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>463724</v>
       </c>
       <c r="AT39" s="11">
-        <v>75889</v>
+        <v>428409</v>
       </c>
       <c r="AU39" s="11">
-        <v>463724</v>
+        <v>410649</v>
       </c>
       <c r="AV39" s="11">
-        <v>428409</v>
+        <v>497158</v>
       </c>
       <c r="AW39" s="11">
-        <v>410649</v>
+        <v>403468</v>
       </c>
       <c r="AX39" s="11">
-        <v>497158</v>
+        <v>475211</v>
       </c>
       <c r="AY39" s="11">
-        <v>403468</v>
+        <v>523396</v>
       </c>
       <c r="AZ39" s="11">
-        <v>475212</v>
+        <v>611621</v>
       </c>
       <c r="BA39" s="11">
-        <v>523396</v>
+        <v>543559</v>
       </c>
       <c r="BB39" s="11">
-        <v>611621</v>
+        <v>456753</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>58</v>
       </c>
@@ -4667,157 +4667,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>153584</v>
+        <v>137773</v>
       </c>
       <c r="F40" s="13">
-        <v>133271</v>
+        <v>169539</v>
       </c>
       <c r="G40" s="13">
-        <v>137773</v>
+        <v>165455</v>
       </c>
       <c r="H40" s="13">
-        <v>169539</v>
+        <v>17250</v>
       </c>
       <c r="I40" s="13">
-        <v>165455</v>
+        <v>124312</v>
       </c>
       <c r="J40" s="13">
-        <v>17250</v>
+        <v>184074</v>
       </c>
       <c r="K40" s="13">
-        <v>124312</v>
+        <v>181611</v>
       </c>
       <c r="L40" s="13">
-        <v>184074</v>
+        <v>145359</v>
       </c>
       <c r="M40" s="13">
-        <v>181611</v>
+        <v>196836</v>
       </c>
       <c r="N40" s="13">
-        <v>145359</v>
+        <v>162113</v>
       </c>
       <c r="O40" s="13">
-        <v>196836</v>
+        <v>163216</v>
       </c>
       <c r="P40" s="13">
-        <v>162113</v>
+        <v>187431</v>
       </c>
       <c r="Q40" s="13">
-        <v>163216</v>
+        <v>208809</v>
       </c>
       <c r="R40" s="13">
-        <v>187431</v>
+        <v>197667</v>
       </c>
       <c r="S40" s="13">
-        <v>208809</v>
+        <v>219888</v>
       </c>
       <c r="T40" s="13">
-        <v>197667</v>
+        <v>26326</v>
       </c>
       <c r="U40" s="13">
-        <v>219888</v>
+        <v>258649</v>
       </c>
       <c r="V40" s="13">
-        <v>26326</v>
+        <v>302463</v>
       </c>
       <c r="W40" s="13">
-        <v>258649</v>
+        <v>322246</v>
       </c>
       <c r="X40" s="13">
-        <v>302463</v>
+        <v>404240</v>
       </c>
       <c r="Y40" s="13">
-        <v>322246</v>
+        <v>391481</v>
       </c>
       <c r="Z40" s="13">
-        <v>404240</v>
+        <v>421364</v>
       </c>
       <c r="AA40" s="13">
-        <v>391481</v>
+        <v>443552</v>
       </c>
       <c r="AB40" s="13">
-        <v>421364</v>
+        <v>424563</v>
       </c>
       <c r="AC40" s="13">
-        <v>443552</v>
+        <v>431177</v>
       </c>
       <c r="AD40" s="13">
-        <v>424563</v>
+        <v>374454</v>
       </c>
       <c r="AE40" s="13">
-        <v>431177</v>
+        <v>461538</v>
       </c>
       <c r="AF40" s="13">
-        <v>374454</v>
+        <v>114621</v>
       </c>
       <c r="AG40" s="13">
-        <v>461538</v>
+        <v>379360</v>
       </c>
       <c r="AH40" s="13">
-        <v>114621</v>
+        <v>365103</v>
       </c>
       <c r="AI40" s="13">
-        <v>379360</v>
+        <v>415604</v>
       </c>
       <c r="AJ40" s="13">
-        <v>365103</v>
+        <v>385064</v>
       </c>
       <c r="AK40" s="13">
-        <v>415604</v>
+        <v>578109</v>
       </c>
       <c r="AL40" s="13">
-        <v>385064</v>
+        <v>432242</v>
       </c>
       <c r="AM40" s="13">
-        <v>578109</v>
+        <v>478614</v>
       </c>
       <c r="AN40" s="13">
-        <v>432242</v>
+        <v>543247</v>
       </c>
       <c r="AO40" s="13">
-        <v>478614</v>
+        <v>429711</v>
       </c>
       <c r="AP40" s="13">
-        <v>543247</v>
+        <v>471330</v>
       </c>
       <c r="AQ40" s="13">
-        <v>429711</v>
+        <v>492285</v>
       </c>
       <c r="AR40" s="13">
-        <v>471330</v>
+        <v>120357</v>
       </c>
       <c r="AS40" s="13">
-        <v>492285</v>
+        <v>571533</v>
       </c>
       <c r="AT40" s="13">
-        <v>120357</v>
+        <v>520513</v>
       </c>
       <c r="AU40" s="13">
-        <v>571533</v>
+        <v>465757</v>
       </c>
       <c r="AV40" s="13">
-        <v>520513</v>
+        <v>564127</v>
       </c>
       <c r="AW40" s="13">
-        <v>465757</v>
+        <v>519191</v>
       </c>
       <c r="AX40" s="13">
-        <v>564127</v>
+        <v>537161</v>
       </c>
       <c r="AY40" s="13">
-        <v>519191</v>
+        <v>544131</v>
       </c>
       <c r="AZ40" s="13">
-        <v>537160</v>
+        <v>708713</v>
       </c>
       <c r="BA40" s="13">
-        <v>544131</v>
+        <v>557570</v>
       </c>
       <c r="BB40" s="13">
-        <v>708713</v>
+        <v>632009</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>59</v>
       </c>
@@ -4826,157 +4826,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>10685</v>
+        <v>10478</v>
       </c>
       <c r="F41" s="11">
-        <v>11853</v>
+        <v>13166</v>
       </c>
       <c r="G41" s="11">
-        <v>10478</v>
+        <v>20538</v>
       </c>
       <c r="H41" s="11">
-        <v>13166</v>
+        <v>2012</v>
       </c>
       <c r="I41" s="11">
-        <v>20538</v>
+        <v>17486</v>
       </c>
       <c r="J41" s="11">
-        <v>2012</v>
+        <v>21600</v>
       </c>
       <c r="K41" s="11">
-        <v>17486</v>
+        <v>12138</v>
       </c>
       <c r="L41" s="11">
-        <v>21600</v>
+        <v>17856</v>
       </c>
       <c r="M41" s="11">
-        <v>12138</v>
+        <v>17060</v>
       </c>
       <c r="N41" s="11">
-        <v>17856</v>
+        <v>16648</v>
       </c>
       <c r="O41" s="11">
-        <v>17060</v>
+        <v>15479</v>
       </c>
       <c r="P41" s="11">
-        <v>16648</v>
+        <v>19196</v>
       </c>
       <c r="Q41" s="11">
-        <v>15479</v>
+        <v>27801</v>
       </c>
       <c r="R41" s="11">
-        <v>19196</v>
+        <v>26677</v>
       </c>
       <c r="S41" s="11">
-        <v>27801</v>
+        <v>14513</v>
       </c>
       <c r="T41" s="11">
-        <v>26677</v>
+        <v>6</v>
       </c>
       <c r="U41" s="11">
-        <v>14513</v>
+        <v>26856</v>
       </c>
       <c r="V41" s="11">
-        <v>6</v>
+        <v>21463</v>
       </c>
       <c r="W41" s="11">
-        <v>26856</v>
+        <v>30300</v>
       </c>
       <c r="X41" s="11">
-        <v>21463</v>
+        <v>37438</v>
       </c>
       <c r="Y41" s="11">
-        <v>30300</v>
+        <v>38327</v>
       </c>
       <c r="Z41" s="11">
-        <v>37438</v>
+        <v>33949</v>
       </c>
       <c r="AA41" s="11">
-        <v>38327</v>
+        <v>53404</v>
       </c>
       <c r="AB41" s="11">
-        <v>33949</v>
+        <v>33284</v>
       </c>
       <c r="AC41" s="11">
-        <v>53404</v>
+        <v>37082</v>
       </c>
       <c r="AD41" s="11">
-        <v>33284</v>
+        <v>27575</v>
       </c>
       <c r="AE41" s="11">
-        <v>37082</v>
+        <v>46378</v>
       </c>
       <c r="AF41" s="11">
-        <v>27575</v>
+        <v>12220</v>
       </c>
       <c r="AG41" s="11">
-        <v>46378</v>
+        <v>35631</v>
       </c>
       <c r="AH41" s="11">
-        <v>12220</v>
+        <v>44765</v>
       </c>
       <c r="AI41" s="11">
-        <v>35631</v>
+        <v>34908</v>
       </c>
       <c r="AJ41" s="11">
-        <v>44765</v>
+        <v>33712</v>
       </c>
       <c r="AK41" s="11">
-        <v>34908</v>
+        <v>36816</v>
       </c>
       <c r="AL41" s="11">
-        <v>33712</v>
+        <v>31066</v>
       </c>
       <c r="AM41" s="11">
-        <v>36816</v>
+        <v>35147</v>
       </c>
       <c r="AN41" s="11">
-        <v>31066</v>
+        <v>45724</v>
       </c>
       <c r="AO41" s="11">
-        <v>35147</v>
+        <v>35034</v>
       </c>
       <c r="AP41" s="11">
-        <v>45724</v>
+        <v>36357</v>
       </c>
       <c r="AQ41" s="11">
-        <v>35034</v>
+        <v>45843</v>
       </c>
       <c r="AR41" s="11">
-        <v>36357</v>
+        <v>10794</v>
       </c>
       <c r="AS41" s="11">
-        <v>45843</v>
+        <v>57182</v>
       </c>
       <c r="AT41" s="11">
-        <v>10794</v>
+        <v>60338</v>
       </c>
       <c r="AU41" s="11">
-        <v>57182</v>
+        <v>57189</v>
       </c>
       <c r="AV41" s="11">
-        <v>60338</v>
+        <v>55486</v>
       </c>
       <c r="AW41" s="11">
-        <v>57189</v>
+        <v>53497</v>
       </c>
       <c r="AX41" s="11">
-        <v>55486</v>
+        <v>47529</v>
       </c>
       <c r="AY41" s="11">
-        <v>53497</v>
+        <v>65968</v>
       </c>
       <c r="AZ41" s="11">
-        <v>47529</v>
+        <v>53491</v>
       </c>
       <c r="BA41" s="11">
-        <v>65968</v>
+        <v>64819</v>
       </c>
       <c r="BB41" s="11">
-        <v>53491</v>
+        <v>83347</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>61</v>
       </c>
@@ -5065,48 +5065,48 @@
       <c r="AE42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>57</v>
+      <c r="AF42" s="13">
+        <v>102647</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>218433</v>
       </c>
       <c r="AH42" s="13">
-        <v>102647</v>
+        <v>258862</v>
       </c>
       <c r="AI42" s="13">
-        <v>218433</v>
+        <v>232749</v>
       </c>
       <c r="AJ42" s="13">
-        <v>258862</v>
+        <v>291144</v>
       </c>
       <c r="AK42" s="13">
-        <v>232749</v>
+        <v>358200</v>
       </c>
       <c r="AL42" s="13">
-        <v>291144</v>
+        <v>301343</v>
       </c>
       <c r="AM42" s="13">
-        <v>358200</v>
+        <v>278478</v>
       </c>
       <c r="AN42" s="13">
-        <v>301343</v>
+        <v>382831</v>
       </c>
       <c r="AO42" s="13">
-        <v>278478</v>
+        <v>388417</v>
       </c>
       <c r="AP42" s="13">
-        <v>382831</v>
+        <v>312854</v>
       </c>
       <c r="AQ42" s="13">
-        <v>388417</v>
-      </c>
-      <c r="AR42" s="13">
-        <v>312854</v>
-      </c>
-      <c r="AS42" s="13">
         <v>339949</v>
       </c>
+      <c r="AR42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS42" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT42" s="13" t="s">
         <v>57</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>70</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="BA43" s="15"/>
       <c r="BB43" s="15"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>63</v>
       </c>
@@ -5254,11 +5254,11 @@
       <c r="V44" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W44" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X44" s="17" t="s">
-        <v>57</v>
+      <c r="W44" s="17">
+        <v>0</v>
+      </c>
+      <c r="X44" s="17">
+        <v>0</v>
       </c>
       <c r="Y44" s="17">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>71</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="BA45" s="15"/>
       <c r="BB45" s="15"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>67</v>
       </c>
@@ -5470,11 +5470,11 @@
       <c r="V46" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W46" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X46" s="17" t="s">
-        <v>57</v>
+      <c r="W46" s="17">
+        <v>0</v>
+      </c>
+      <c r="X46" s="17">
+        <v>0</v>
       </c>
       <c r="Y46" s="17">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>72</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>73</v>
       </c>
@@ -5686,261 +5686,261 @@
       <c r="V48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X48" s="11" t="s">
-        <v>57</v>
+      <c r="W48" s="11">
+        <v>-31997</v>
+      </c>
+      <c r="X48" s="11">
+        <v>-22090</v>
       </c>
       <c r="Y48" s="11">
-        <v>-31997</v>
+        <v>-43336</v>
       </c>
       <c r="Z48" s="11">
-        <v>-22090</v>
+        <v>-33072</v>
       </c>
       <c r="AA48" s="11">
-        <v>-43336</v>
+        <v>-28567</v>
       </c>
       <c r="AB48" s="11">
-        <v>-33072</v>
+        <v>-30966</v>
       </c>
       <c r="AC48" s="11">
-        <v>-28567</v>
+        <v>-17983</v>
       </c>
       <c r="AD48" s="11">
-        <v>-30966</v>
+        <v>-19430</v>
       </c>
       <c r="AE48" s="11">
-        <v>-17983</v>
+        <v>-48332</v>
       </c>
       <c r="AF48" s="11">
-        <v>-19430</v>
+        <v>-31972</v>
       </c>
       <c r="AG48" s="11">
-        <v>-48332</v>
+        <v>-27449</v>
       </c>
       <c r="AH48" s="11">
-        <v>-31972</v>
+        <v>-39135</v>
       </c>
       <c r="AI48" s="11">
-        <v>-27449</v>
+        <v>-39898</v>
       </c>
       <c r="AJ48" s="11">
-        <v>-39135</v>
+        <v>-25582</v>
       </c>
       <c r="AK48" s="11">
-        <v>-39898</v>
+        <v>-52700</v>
       </c>
       <c r="AL48" s="11">
-        <v>-25582</v>
+        <v>-53894</v>
       </c>
       <c r="AM48" s="11">
-        <v>-52700</v>
+        <v>-90981</v>
       </c>
       <c r="AN48" s="11">
-        <v>-53894</v>
+        <v>-134175</v>
       </c>
       <c r="AO48" s="11">
-        <v>-90981</v>
+        <v>-110041</v>
       </c>
       <c r="AP48" s="11">
-        <v>-134175</v>
+        <v>-42426</v>
       </c>
       <c r="AQ48" s="11">
-        <v>-110041</v>
+        <v>-61328</v>
       </c>
       <c r="AR48" s="11">
-        <v>-42426</v>
+        <v>-8244</v>
       </c>
       <c r="AS48" s="11">
-        <v>-61328</v>
+        <v>-59767</v>
       </c>
       <c r="AT48" s="11">
-        <v>-8244</v>
+        <v>-65838</v>
       </c>
       <c r="AU48" s="11">
-        <v>-59767</v>
+        <v>-56427</v>
       </c>
       <c r="AV48" s="11">
-        <v>-65838</v>
+        <v>-68288</v>
       </c>
       <c r="AW48" s="11">
-        <v>-56427</v>
+        <v>-34959</v>
       </c>
       <c r="AX48" s="11">
-        <v>-68288</v>
+        <v>-49476</v>
       </c>
       <c r="AY48" s="11">
-        <v>-34959</v>
+        <v>-40530</v>
       </c>
       <c r="AZ48" s="11">
-        <v>-49476</v>
+        <v>-25280</v>
       </c>
       <c r="BA48" s="11">
-        <v>-40530</v>
+        <v>-80344</v>
       </c>
       <c r="BB48" s="11">
-        <v>-25280</v>
+        <v>-70191</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19">
-        <v>206518</v>
+        <v>180294</v>
       </c>
       <c r="F49" s="19">
-        <v>184073</v>
+        <v>212169</v>
       </c>
       <c r="G49" s="19">
-        <v>180294</v>
+        <v>227604</v>
       </c>
       <c r="H49" s="19">
-        <v>212169</v>
+        <v>22941</v>
       </c>
       <c r="I49" s="19">
-        <v>227604</v>
+        <v>185775</v>
       </c>
       <c r="J49" s="19">
-        <v>22941</v>
+        <v>281259</v>
       </c>
       <c r="K49" s="19">
-        <v>185775</v>
+        <v>250348</v>
       </c>
       <c r="L49" s="19">
-        <v>281259</v>
+        <v>215376</v>
       </c>
       <c r="M49" s="19">
-        <v>250348</v>
+        <v>269238</v>
       </c>
       <c r="N49" s="19">
-        <v>215376</v>
+        <v>229216</v>
       </c>
       <c r="O49" s="19">
-        <v>269238</v>
+        <v>213845</v>
       </c>
       <c r="P49" s="19">
-        <v>229216</v>
+        <v>275089</v>
       </c>
       <c r="Q49" s="19">
-        <v>213845</v>
+        <v>294465</v>
       </c>
       <c r="R49" s="19">
-        <v>275089</v>
+        <v>285776</v>
       </c>
       <c r="S49" s="19">
-        <v>294465</v>
+        <v>307437</v>
       </c>
       <c r="T49" s="19">
-        <v>285776</v>
+        <v>32622</v>
       </c>
       <c r="U49" s="19">
-        <v>307437</v>
+        <v>351245</v>
       </c>
       <c r="V49" s="19">
-        <v>32622</v>
+        <v>422821</v>
       </c>
       <c r="W49" s="19">
-        <v>351245</v>
+        <v>432267</v>
       </c>
       <c r="X49" s="19">
-        <v>422821</v>
+        <v>565426</v>
       </c>
       <c r="Y49" s="19">
-        <v>432267</v>
+        <v>471126</v>
       </c>
       <c r="Z49" s="19">
-        <v>565426</v>
+        <v>583718</v>
       </c>
       <c r="AA49" s="19">
-        <v>471126</v>
+        <v>570796</v>
       </c>
       <c r="AB49" s="19">
-        <v>583718</v>
+        <v>550275</v>
       </c>
       <c r="AC49" s="19">
-        <v>570796</v>
+        <v>617602</v>
       </c>
       <c r="AD49" s="19">
-        <v>550275</v>
+        <v>518781</v>
       </c>
       <c r="AE49" s="19">
-        <v>617602</v>
+        <v>657866</v>
       </c>
       <c r="AF49" s="19">
-        <v>518781</v>
+        <v>197516</v>
       </c>
       <c r="AG49" s="19">
-        <v>657866</v>
+        <v>605975</v>
       </c>
       <c r="AH49" s="19">
-        <v>197516</v>
+        <v>629595</v>
       </c>
       <c r="AI49" s="19">
-        <v>605975</v>
+        <v>643363</v>
       </c>
       <c r="AJ49" s="19">
-        <v>629595</v>
+        <v>684338</v>
       </c>
       <c r="AK49" s="19">
-        <v>643363</v>
+        <v>920425</v>
       </c>
       <c r="AL49" s="19">
-        <v>684338</v>
+        <v>710757</v>
       </c>
       <c r="AM49" s="19">
-        <v>920425</v>
+        <v>701258</v>
       </c>
       <c r="AN49" s="19">
-        <v>710757</v>
+        <v>837627</v>
       </c>
       <c r="AO49" s="19">
-        <v>701258</v>
+        <v>743121</v>
       </c>
       <c r="AP49" s="19">
-        <v>837627</v>
+        <v>778115</v>
       </c>
       <c r="AQ49" s="19">
-        <v>743121</v>
+        <v>816749</v>
       </c>
       <c r="AR49" s="19">
-        <v>778115</v>
+        <v>198796</v>
       </c>
       <c r="AS49" s="19">
-        <v>816749</v>
+        <v>1032672</v>
       </c>
       <c r="AT49" s="19">
-        <v>198796</v>
+        <v>943422</v>
       </c>
       <c r="AU49" s="19">
-        <v>1032672</v>
+        <v>877168</v>
       </c>
       <c r="AV49" s="19">
-        <v>943422</v>
+        <v>1048483</v>
       </c>
       <c r="AW49" s="19">
-        <v>877168</v>
+        <v>941197</v>
       </c>
       <c r="AX49" s="19">
-        <v>1048483</v>
+        <v>1010425</v>
       </c>
       <c r="AY49" s="19">
-        <v>941197</v>
+        <v>1092965</v>
       </c>
       <c r="AZ49" s="19">
-        <v>1010425</v>
+        <v>1348545</v>
       </c>
       <c r="BA49" s="19">
-        <v>1092965</v>
+        <v>1085604</v>
       </c>
       <c r="BB49" s="19">
-        <v>1348545</v>
+        <v>1101918</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5995,7 +5995,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6050,7 +6050,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6105,7 +6105,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>74</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6317,7 +6317,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>75</v>
       </c>
@@ -6374,7 +6374,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
@@ -6383,92 +6383,92 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>304796</v>
+        <v>307899</v>
       </c>
       <c r="F56" s="11">
-        <v>281657</v>
+        <v>280428</v>
       </c>
       <c r="G56" s="11">
-        <v>307899</v>
+        <v>286917</v>
       </c>
       <c r="H56" s="11">
-        <v>280428</v>
+        <v>343703</v>
       </c>
       <c r="I56" s="11">
-        <v>286917</v>
+        <v>297832</v>
       </c>
       <c r="J56" s="11">
-        <v>343703</v>
+        <v>331621</v>
       </c>
       <c r="K56" s="11">
-        <v>297832</v>
+        <v>308285</v>
       </c>
       <c r="L56" s="11">
-        <v>331621</v>
+        <v>326635</v>
       </c>
       <c r="M56" s="11">
-        <v>308285</v>
+        <v>290331</v>
       </c>
       <c r="N56" s="11">
-        <v>326635</v>
+        <v>276075</v>
       </c>
       <c r="O56" s="11">
-        <v>290331</v>
+        <v>292961</v>
       </c>
       <c r="P56" s="11">
-        <v>276075</v>
+        <v>341654</v>
       </c>
       <c r="Q56" s="11">
-        <v>292961</v>
+        <v>320773</v>
       </c>
       <c r="R56" s="11">
-        <v>341654</v>
+        <v>341864</v>
       </c>
       <c r="S56" s="11">
-        <v>320773</v>
+        <v>357012</v>
       </c>
       <c r="T56" s="11">
-        <v>341864</v>
+        <v>484181</v>
       </c>
       <c r="U56" s="11">
-        <v>357012</v>
+        <v>493129</v>
       </c>
       <c r="V56" s="11">
-        <v>484181</v>
+        <v>526511</v>
       </c>
       <c r="W56" s="11">
-        <v>493129</v>
+        <v>565134</v>
       </c>
       <c r="X56" s="11">
-        <v>526511</v>
+        <v>622545</v>
       </c>
       <c r="Y56" s="11">
-        <v>565134</v>
+        <v>607858</v>
       </c>
       <c r="Z56" s="11">
-        <v>622545</v>
+        <v>765482</v>
       </c>
       <c r="AA56" s="11">
-        <v>607858</v>
+        <v>698190</v>
       </c>
       <c r="AB56" s="11">
-        <v>765482</v>
+        <v>812808</v>
       </c>
       <c r="AC56" s="11">
-        <v>698190</v>
+        <v>809829</v>
       </c>
       <c r="AD56" s="11">
-        <v>812808</v>
+        <v>755161</v>
       </c>
       <c r="AE56" s="11">
-        <v>809829</v>
-      </c>
-      <c r="AF56" s="11">
-        <v>755161</v>
-      </c>
-      <c r="AG56" s="11">
         <v>715512</v>
       </c>
+      <c r="AF56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG56" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH56" s="11" t="s">
         <v>57</v>
       </c>
@@ -6499,41 +6499,41 @@
       <c r="AQ56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS56" s="11" t="s">
-        <v>57</v>
+      <c r="AR56" s="11">
+        <v>1051254</v>
+      </c>
+      <c r="AS56" s="11">
+        <v>1270996</v>
       </c>
       <c r="AT56" s="11">
-        <v>1051254</v>
+        <v>1453214</v>
       </c>
       <c r="AU56" s="11">
-        <v>1270996</v>
+        <v>1683464</v>
       </c>
       <c r="AV56" s="11">
-        <v>1453214</v>
+        <v>1681178</v>
       </c>
       <c r="AW56" s="11">
-        <v>1683464</v>
+        <v>1594137</v>
       </c>
       <c r="AX56" s="11">
-        <v>1681178</v>
+        <v>1880341</v>
       </c>
       <c r="AY56" s="11">
-        <v>1594137</v>
+        <v>1747595</v>
       </c>
       <c r="AZ56" s="11">
-        <v>1880345</v>
+        <v>1745469</v>
       </c>
       <c r="BA56" s="11">
-        <v>1747595</v>
+        <v>1832992</v>
       </c>
       <c r="BB56" s="11">
-        <v>1745469</v>
+        <v>1804136</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>58</v>
       </c>
@@ -6542,157 +6542,157 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>263224</v>
+        <v>246880</v>
       </c>
       <c r="F57" s="13">
-        <v>247544</v>
+        <v>261745</v>
       </c>
       <c r="G57" s="13">
-        <v>246880</v>
+        <v>230392</v>
       </c>
       <c r="H57" s="13">
-        <v>261745</v>
+        <v>208711</v>
       </c>
       <c r="I57" s="13">
-        <v>230392</v>
+        <v>314201</v>
       </c>
       <c r="J57" s="13">
-        <v>208711</v>
+        <v>336307</v>
       </c>
       <c r="K57" s="13">
-        <v>314201</v>
+        <v>319568</v>
       </c>
       <c r="L57" s="13">
-        <v>336307</v>
+        <v>315388</v>
       </c>
       <c r="M57" s="13">
-        <v>319568</v>
+        <v>305697</v>
       </c>
       <c r="N57" s="13">
-        <v>315388</v>
+        <v>308843</v>
       </c>
       <c r="O57" s="13">
-        <v>305697</v>
+        <v>317018</v>
       </c>
       <c r="P57" s="13">
-        <v>308843</v>
+        <v>343524</v>
       </c>
       <c r="Q57" s="13">
-        <v>317018</v>
+        <v>368536</v>
       </c>
       <c r="R57" s="13">
-        <v>343524</v>
+        <v>400079</v>
       </c>
       <c r="S57" s="13">
-        <v>368536</v>
+        <v>406492</v>
       </c>
       <c r="T57" s="13">
-        <v>400079</v>
+        <v>500685</v>
       </c>
       <c r="U57" s="13">
-        <v>406492</v>
+        <v>461572</v>
       </c>
       <c r="V57" s="13">
-        <v>500685</v>
+        <v>518036</v>
       </c>
       <c r="W57" s="13">
-        <v>461572</v>
+        <v>581804</v>
       </c>
       <c r="X57" s="13">
-        <v>518036</v>
+        <v>627784</v>
       </c>
       <c r="Y57" s="13">
-        <v>581804</v>
+        <v>705679</v>
       </c>
       <c r="Z57" s="13">
-        <v>627784</v>
+        <v>774412</v>
       </c>
       <c r="AA57" s="13">
-        <v>705679</v>
+        <v>791482</v>
       </c>
       <c r="AB57" s="13">
-        <v>774412</v>
+        <v>759640</v>
       </c>
       <c r="AC57" s="13">
-        <v>791482</v>
+        <v>753678</v>
       </c>
       <c r="AD57" s="13">
-        <v>759640</v>
+        <v>703076</v>
       </c>
       <c r="AE57" s="13">
-        <v>753678</v>
+        <v>721188</v>
       </c>
       <c r="AF57" s="13">
-        <v>703076</v>
+        <v>732225</v>
       </c>
       <c r="AG57" s="13">
-        <v>721188</v>
+        <v>705394</v>
       </c>
       <c r="AH57" s="13">
-        <v>732225</v>
+        <v>703221</v>
       </c>
       <c r="AI57" s="13">
-        <v>705394</v>
+        <v>758064</v>
       </c>
       <c r="AJ57" s="13">
-        <v>703221</v>
+        <v>840955</v>
       </c>
       <c r="AK57" s="13">
-        <v>758064</v>
+        <v>896991</v>
       </c>
       <c r="AL57" s="13">
-        <v>840955</v>
+        <v>897634</v>
       </c>
       <c r="AM57" s="13">
-        <v>896991</v>
+        <v>899049</v>
       </c>
       <c r="AN57" s="13">
-        <v>897634</v>
+        <v>933613</v>
       </c>
       <c r="AO57" s="13">
-        <v>899049</v>
+        <v>955147</v>
       </c>
       <c r="AP57" s="13">
-        <v>933613</v>
+        <v>858559</v>
       </c>
       <c r="AQ57" s="13">
-        <v>955147</v>
+        <v>880278</v>
       </c>
       <c r="AR57" s="13">
-        <v>858559</v>
+        <v>879970</v>
       </c>
       <c r="AS57" s="13">
-        <v>880278</v>
+        <v>913246</v>
       </c>
       <c r="AT57" s="13">
-        <v>879970</v>
+        <v>984366</v>
       </c>
       <c r="AU57" s="13">
-        <v>913246</v>
+        <v>1018645</v>
       </c>
       <c r="AV57" s="13">
-        <v>984366</v>
+        <v>1076521</v>
       </c>
       <c r="AW57" s="13">
-        <v>1018645</v>
+        <v>984624</v>
       </c>
       <c r="AX57" s="13">
-        <v>1076521</v>
+        <v>1079736</v>
       </c>
       <c r="AY57" s="13">
-        <v>984624</v>
+        <v>1139969</v>
       </c>
       <c r="AZ57" s="13">
-        <v>1079734</v>
+        <v>1225426</v>
       </c>
       <c r="BA57" s="13">
-        <v>1139969</v>
+        <v>1270033</v>
       </c>
       <c r="BB57" s="13">
-        <v>1225426</v>
+        <v>1426647</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>59</v>
       </c>
@@ -6701,157 +6701,157 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>52115</v>
+        <v>51966</v>
       </c>
       <c r="F58" s="11">
-        <v>50805</v>
+        <v>47088</v>
       </c>
       <c r="G58" s="11">
-        <v>51966</v>
+        <v>46298</v>
       </c>
       <c r="H58" s="11">
-        <v>47088</v>
+        <v>67851</v>
       </c>
       <c r="I58" s="11">
-        <v>46298</v>
+        <v>63719</v>
       </c>
       <c r="J58" s="11">
-        <v>67851</v>
+        <v>57665</v>
       </c>
       <c r="K58" s="11">
-        <v>63719</v>
+        <v>68715</v>
       </c>
       <c r="L58" s="11">
-        <v>57665</v>
+        <v>71467</v>
       </c>
       <c r="M58" s="11">
-        <v>68715</v>
+        <v>72837</v>
       </c>
       <c r="N58" s="11">
-        <v>71467</v>
+        <v>57444</v>
       </c>
       <c r="O58" s="11">
-        <v>72837</v>
+        <v>70490</v>
       </c>
       <c r="P58" s="11">
-        <v>57444</v>
+        <v>71461</v>
       </c>
       <c r="Q58" s="11">
-        <v>70490</v>
+        <v>73198</v>
       </c>
       <c r="R58" s="11">
-        <v>71461</v>
+        <v>71056</v>
       </c>
       <c r="S58" s="11">
-        <v>73198</v>
+        <v>70635</v>
       </c>
       <c r="T58" s="11">
-        <v>71056</v>
+        <v>176471</v>
       </c>
       <c r="U58" s="11">
-        <v>70635</v>
+        <v>89293</v>
       </c>
       <c r="V58" s="11">
-        <v>176471</v>
+        <v>96007</v>
       </c>
       <c r="W58" s="11">
-        <v>89293</v>
+        <v>101300</v>
       </c>
       <c r="X58" s="11">
-        <v>96007</v>
+        <v>106508</v>
       </c>
       <c r="Y58" s="11">
-        <v>101300</v>
+        <v>134543</v>
       </c>
       <c r="Z58" s="11">
-        <v>106508</v>
+        <v>151358</v>
       </c>
       <c r="AA58" s="11">
-        <v>134543</v>
+        <v>154062</v>
       </c>
       <c r="AB58" s="11">
-        <v>151358</v>
+        <v>162960</v>
       </c>
       <c r="AC58" s="11">
-        <v>154062</v>
+        <v>155546</v>
       </c>
       <c r="AD58" s="11">
-        <v>162960</v>
+        <v>153089</v>
       </c>
       <c r="AE58" s="11">
-        <v>155546</v>
+        <v>148548</v>
       </c>
       <c r="AF58" s="11">
-        <v>153089</v>
+        <v>151006</v>
       </c>
       <c r="AG58" s="11">
-        <v>148548</v>
+        <v>160248</v>
       </c>
       <c r="AH58" s="11">
-        <v>151006</v>
+        <v>149539</v>
       </c>
       <c r="AI58" s="11">
-        <v>160248</v>
+        <v>174860</v>
       </c>
       <c r="AJ58" s="11">
-        <v>149539</v>
+        <v>174475</v>
       </c>
       <c r="AK58" s="11">
-        <v>174860</v>
+        <v>194447</v>
       </c>
       <c r="AL58" s="11">
-        <v>174475</v>
+        <v>190403</v>
       </c>
       <c r="AM58" s="11">
-        <v>194447</v>
+        <v>191579</v>
       </c>
       <c r="AN58" s="11">
-        <v>190403</v>
+        <v>185338</v>
       </c>
       <c r="AO58" s="11">
-        <v>191579</v>
+        <v>200300</v>
       </c>
       <c r="AP58" s="11">
-        <v>185338</v>
+        <v>196335</v>
       </c>
       <c r="AQ58" s="11">
-        <v>200300</v>
+        <v>195704</v>
       </c>
       <c r="AR58" s="11">
-        <v>196335</v>
+        <v>219404</v>
       </c>
       <c r="AS58" s="11">
-        <v>195704</v>
+        <v>208167</v>
       </c>
       <c r="AT58" s="11">
-        <v>219404</v>
+        <v>218362</v>
       </c>
       <c r="AU58" s="11">
-        <v>208167</v>
+        <v>243295</v>
       </c>
       <c r="AV58" s="11">
-        <v>218362</v>
+        <v>233105</v>
       </c>
       <c r="AW58" s="11">
-        <v>243295</v>
+        <v>235024</v>
       </c>
       <c r="AX58" s="11">
-        <v>233105</v>
+        <v>268930</v>
       </c>
       <c r="AY58" s="11">
-        <v>235024</v>
+        <v>272910</v>
       </c>
       <c r="AZ58" s="11">
-        <v>268930</v>
+        <v>285613</v>
       </c>
       <c r="BA58" s="11">
-        <v>272910</v>
+        <v>294643</v>
       </c>
       <c r="BB58" s="11">
-        <v>285613</v>
+        <v>304720</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>61</v>
       </c>
@@ -6940,47 +6940,47 @@
       <c r="AE59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG59" s="13" t="s">
-        <v>57</v>
+      <c r="AF59" s="13">
+        <v>1000156</v>
+      </c>
+      <c r="AG59" s="13">
+        <v>844734</v>
       </c>
       <c r="AH59" s="13">
-        <v>1000156</v>
+        <v>848572</v>
       </c>
       <c r="AI59" s="13">
-        <v>844734</v>
+        <v>926298</v>
       </c>
       <c r="AJ59" s="13">
-        <v>848572</v>
+        <v>1029745</v>
       </c>
       <c r="AK59" s="13">
-        <v>926298</v>
+        <v>1169304</v>
       </c>
       <c r="AL59" s="13">
-        <v>1029745</v>
+        <v>1117173</v>
       </c>
       <c r="AM59" s="13">
-        <v>1169304</v>
+        <v>1284380</v>
       </c>
       <c r="AN59" s="13">
-        <v>1117173</v>
+        <v>1244538</v>
       </c>
       <c r="AO59" s="13">
-        <v>1284380</v>
+        <v>1241151</v>
       </c>
       <c r="AP59" s="13">
-        <v>1244538</v>
+        <v>1229651</v>
       </c>
       <c r="AQ59" s="13">
-        <v>1241151</v>
-      </c>
-      <c r="AR59" s="13">
-        <v>1229651</v>
-      </c>
-      <c r="AS59" s="13">
         <v>1250967</v>
+      </c>
+      <c r="AR59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT59" s="13" t="s">
         <v>57</v>

--- a/database/industries/kashi/kesave/product/monthly.xlsx
+++ b/database/industries/kashi/kesave/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0D060-C3CE-4D05-8188-CC20C53568B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -187,18 +186,12 @@
     <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
-    <t>کاشی کف</t>
-  </si>
-  <si>
     <t>متر مربع</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>کاشی دیوار</t>
-  </si>
-  <si>
     <t>چینی بهداشتی</t>
   </si>
   <si>
@@ -254,12 +247,15 @@
   </si>
   <si>
     <t>کیلوگرم / ریال</t>
+  </si>
+  <si>
+    <t>کاشی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,10 +727,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1405,10 +1403,10 @@
     </row>
     <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
@@ -1493,40 +1491,40 @@
         <v>187995</v>
       </c>
       <c r="AF11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR11" s="11">
         <v>121757</v>
@@ -1564,10 +1562,10 @@
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
@@ -1723,10 +1721,10 @@
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
@@ -1882,92 +1880,92 @@
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF14" s="13">
         <v>167446</v>
@@ -2006,42 +2004,42 @@
         <v>187242</v>
       </c>
       <c r="AR14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -2098,63 +2096,63 @@
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" s="17">
         <v>0</v>
@@ -2255,7 +2253,7 @@
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -2577,7 +2575,7 @@
     </row>
     <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2789,7 +2787,7 @@
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2846,10 +2844,10 @@
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
@@ -2934,40 +2932,40 @@
         <v>277119</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR24" s="11">
         <v>72189</v>
@@ -3005,10 +3003,10 @@
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
@@ -3164,10 +3162,10 @@
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
@@ -3323,92 +3321,92 @@
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF27" s="13">
         <v>102631</v>
@@ -3447,42 +3445,42 @@
         <v>271749</v>
       </c>
       <c r="AR27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -3539,63 +3537,63 @@
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V29" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" s="17">
         <v>0</v>
@@ -3696,7 +3694,7 @@
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -3753,63 +3751,63 @@
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31" s="17">
         <v>0</v>
@@ -3910,7 +3908,7 @@
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -4232,7 +4230,7 @@
     </row>
     <row r="36" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4444,7 +4442,7 @@
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -4501,10 +4499,10 @@
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
@@ -4589,40 +4587,40 @@
         <v>198282</v>
       </c>
       <c r="AF39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR39" s="11">
         <v>75889</v>
@@ -4660,10 +4658,10 @@
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
@@ -4819,10 +4817,10 @@
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
@@ -4978,92 +4976,92 @@
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF42" s="13">
         <v>102647</v>
@@ -5102,42 +5100,42 @@
         <v>339949</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -5194,65 +5192,65 @@
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W44" s="17">
         <v>0</v>
@@ -5353,7 +5351,7 @@
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -5410,65 +5408,65 @@
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W46" s="17">
         <v>0</v>
@@ -5569,7 +5567,7 @@
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5626,65 +5624,65 @@
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W48" s="11">
         <v>-31997</v>
@@ -5785,7 +5783,7 @@
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -6107,7 +6105,7 @@
     </row>
     <row r="53" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -6319,7 +6317,7 @@
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -6376,10 +6374,10 @@
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
@@ -6464,40 +6462,40 @@
         <v>715512</v>
       </c>
       <c r="AF56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR56" s="11">
         <v>1051254</v>
@@ -6535,10 +6533,10 @@
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
@@ -6694,10 +6692,10 @@
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
@@ -6853,92 +6851,92 @@
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF59" s="13">
         <v>1000156</v>
@@ -6977,37 +6975,37 @@
         <v>1250967</v>
       </c>
       <c r="AR59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/kashi/kesave/product/monthly.xlsx
+++ b/database/industries/kashi/kesave/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="80">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3411,11 +3411,11 @@
       <c r="AZ11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BA11" s="12" t="s">
-        <v>56</v>
+      <c r="BA11" s="12" t="n">
+        <v>3570800</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>3570800</v>
+        <v>3717000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,83 +3427,83 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>106623</v>
+        <v>79214</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>79214</v>
+        <v>5281</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>5281</v>
+        <v>161447</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>161447</v>
+        <v>201245</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>201245</v>
+        <v>199126</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>199126</v>
+        <v>170160</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>170160</v>
+        <v>197563</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>197563</v>
+        <v>171185</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>171185</v>
+        <v>142465</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>142465</v>
+        <v>200242</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>200242</v>
+        <v>163057</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>163057</v>
+        <v>124639</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>124639</v>
+        <v>155605</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>155605</v>
+        <v>37606</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>37606</v>
+        <v>104757</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>104757</v>
+        <v>210843</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>210843</v>
+        <v>193695</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>193695</v>
+        <v>163665</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>163665</v>
+        <v>159934</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>159934</v>
+        <v>170994</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>170994</v>
+        <v>143473</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>143473</v>
+        <v>172630</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>172630</v>
+        <v>195869</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>195869</v>
+        <v>187957</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>187957</v>
-      </c>
-      <c r="AD12" s="14" t="n">
         <v>187995</v>
       </c>
+      <c r="AD12" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="AE12" s="15" t="s">
         <v>56</v>
       </c>
@@ -3537,44 +3537,44 @@
       <c r="AO12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AP12" s="15" t="s">
-        <v>56</v>
+      <c r="AP12" s="15" t="n">
+        <v>121757</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>121757</v>
+        <v>297564</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>297564</v>
+        <v>328902</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>328902</v>
+        <v>277167</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>277167</v>
+        <v>311452</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>311452</v>
+        <v>311640</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>311640</v>
+        <v>296173</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>296173</v>
+        <v>300514</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>300514</v>
+        <v>311385</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>311385</v>
+        <v>251981</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>251981</v>
+        <v>255525</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>255525</v>
+        <v>247794</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>247794</v>
+        <v>139068</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,154 +3586,154 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>549227</v>
+        <v>279569</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>279569</v>
+        <v>55521</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>55521</v>
+        <v>411610</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>411610</v>
+        <v>463332</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>463332</v>
+        <v>541508</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>541508</v>
+        <v>531445</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>531445</v>
+        <v>576507</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>576507</v>
+        <v>505317</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>505317</v>
+        <v>520781</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>520781</v>
+        <v>578813</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>578813</v>
+        <v>574273</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>574273</v>
+        <v>530271</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>530271</v>
+        <v>367437</v>
       </c>
       <c r="R13" s="12" t="n">
-        <v>367437</v>
+        <v>127010</v>
       </c>
       <c r="S13" s="12" t="n">
-        <v>127010</v>
+        <v>619539</v>
       </c>
       <c r="T13" s="12" t="n">
-        <v>619539</v>
+        <v>583393</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>583393</v>
+        <v>513396</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>513396</v>
+        <v>522670</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>522670</v>
+        <v>535562</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>535562</v>
+        <v>500111</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>500111</v>
+        <v>583413</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>583413</v>
+        <v>516362</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>516362</v>
+        <v>548987</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>548987</v>
+        <v>557937</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>557937</v>
+        <v>349897</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>349897</v>
+        <v>209907</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>209907</v>
+        <v>543375</v>
       </c>
       <c r="AF13" s="12" t="n">
-        <v>543375</v>
+        <v>531214</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>531214</v>
+        <v>568851</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>568851</v>
+        <v>498587</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>498587</v>
+        <v>572639</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>572639</v>
+        <v>545660</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>545660</v>
+        <v>581841</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>581841</v>
+        <v>579751</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>579751</v>
+        <v>579161</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>579161</v>
+        <v>542538</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>542538</v>
+        <v>302450</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>302450</v>
+        <v>224233</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>224233</v>
+        <v>586684</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>586684</v>
+        <v>613013</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>613013</v>
+        <v>526570</v>
       </c>
       <c r="AT13" s="12" t="n">
-        <v>526570</v>
+        <v>509602</v>
       </c>
       <c r="AU13" s="12" t="n">
-        <v>509602</v>
+        <v>538209</v>
       </c>
       <c r="AV13" s="12" t="n">
-        <v>538209</v>
+        <v>540053</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>540053</v>
+        <v>501747</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>501747</v>
+        <v>547981</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>547981</v>
+        <v>477535</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>477535</v>
+        <v>461306</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>461306</v>
+        <v>311801</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>311801</v>
+        <v>221233</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3745,154 +3745,154 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="n">
-        <v>290378</v>
+        <v>165359</v>
       </c>
       <c r="F14" s="15" t="n">
-        <v>165359</v>
+        <v>85213</v>
       </c>
       <c r="G14" s="15" t="n">
-        <v>85213</v>
+        <v>317447</v>
       </c>
       <c r="H14" s="15" t="n">
-        <v>317447</v>
+        <v>292980</v>
       </c>
       <c r="I14" s="15" t="n">
-        <v>292980</v>
+        <v>281563</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>281563</v>
+        <v>240207</v>
       </c>
       <c r="K14" s="15" t="n">
-        <v>240207</v>
+        <v>272006</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>272006</v>
+        <v>304828</v>
       </c>
       <c r="M14" s="15" t="n">
-        <v>304828</v>
+        <v>281782</v>
       </c>
       <c r="N14" s="15" t="n">
-        <v>281782</v>
+        <v>288344</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>288344</v>
+        <v>301939</v>
       </c>
       <c r="P14" s="15" t="n">
-        <v>301939</v>
+        <v>303407</v>
       </c>
       <c r="Q14" s="15" t="n">
-        <v>303407</v>
+        <v>161561</v>
       </c>
       <c r="R14" s="15" t="n">
-        <v>161561</v>
+        <v>21097</v>
       </c>
       <c r="S14" s="15" t="n">
-        <v>21097</v>
+        <v>282770</v>
       </c>
       <c r="T14" s="15" t="n">
-        <v>282770</v>
+        <v>283914</v>
       </c>
       <c r="U14" s="15" t="n">
-        <v>283914</v>
+        <v>294177</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>294177</v>
+        <v>265700</v>
       </c>
       <c r="W14" s="15" t="n">
-        <v>265700</v>
+        <v>272295</v>
       </c>
       <c r="X14" s="15" t="n">
-        <v>272295</v>
+        <v>271352</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>271352</v>
+        <v>269581</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>269581</v>
+        <v>259870</v>
       </c>
       <c r="AA14" s="15" t="n">
-        <v>259870</v>
+        <v>230057</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>230057</v>
+        <v>191426</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>191426</v>
+        <v>234199</v>
       </c>
       <c r="AD14" s="15" t="n">
-        <v>234199</v>
+        <v>95189</v>
       </c>
       <c r="AE14" s="15" t="n">
-        <v>95189</v>
+        <v>268860</v>
       </c>
       <c r="AF14" s="15" t="n">
-        <v>268860</v>
+        <v>236453</v>
       </c>
       <c r="AG14" s="15" t="n">
-        <v>236453</v>
+        <v>248916</v>
       </c>
       <c r="AH14" s="15" t="n">
-        <v>248916</v>
+        <v>275516</v>
       </c>
       <c r="AI14" s="15" t="n">
-        <v>275516</v>
+        <v>212457</v>
       </c>
       <c r="AJ14" s="15" t="n">
-        <v>212457</v>
+        <v>221344</v>
       </c>
       <c r="AK14" s="15" t="n">
-        <v>221344</v>
+        <v>235251</v>
       </c>
       <c r="AL14" s="15" t="n">
-        <v>235251</v>
+        <v>231663</v>
       </c>
       <c r="AM14" s="15" t="n">
-        <v>231663</v>
+        <v>238828</v>
       </c>
       <c r="AN14" s="15" t="n">
-        <v>238828</v>
+        <v>250309</v>
       </c>
       <c r="AO14" s="15" t="n">
-        <v>250309</v>
+        <v>109645</v>
       </c>
       <c r="AP14" s="15" t="n">
-        <v>109645</v>
+        <v>64450</v>
       </c>
       <c r="AQ14" s="15" t="n">
-        <v>64450</v>
+        <v>281297</v>
       </c>
       <c r="AR14" s="15" t="n">
-        <v>281297</v>
+        <v>303271</v>
       </c>
       <c r="AS14" s="15" t="n">
-        <v>303271</v>
+        <v>285556</v>
       </c>
       <c r="AT14" s="15" t="n">
-        <v>285556</v>
+        <v>259449</v>
       </c>
       <c r="AU14" s="15" t="n">
-        <v>259449</v>
+        <v>240069</v>
       </c>
       <c r="AV14" s="15" t="n">
-        <v>240069</v>
+        <v>262754</v>
       </c>
       <c r="AW14" s="15" t="n">
-        <v>262754</v>
+        <v>276961</v>
       </c>
       <c r="AX14" s="15" t="n">
-        <v>276961</v>
+        <v>255279</v>
       </c>
       <c r="AY14" s="15" t="n">
-        <v>255279</v>
+        <v>263216</v>
       </c>
       <c r="AZ14" s="15" t="n">
-        <v>263216</v>
+        <v>249270</v>
       </c>
       <c r="BA14" s="15" t="n">
-        <v>249270</v>
+        <v>148551</v>
       </c>
       <c r="BB14" s="15" t="n">
-        <v>148551</v>
+        <v>65916</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,44 +3978,44 @@
       <c r="AC15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD15" s="12" t="s">
-        <v>56</v>
+      <c r="AD15" s="12" t="n">
+        <v>167446</v>
       </c>
       <c r="AE15" s="12" t="n">
-        <v>167446</v>
+        <v>305656</v>
       </c>
       <c r="AF15" s="12" t="n">
-        <v>305656</v>
+        <v>256718</v>
       </c>
       <c r="AG15" s="12" t="n">
-        <v>256718</v>
+        <v>296062</v>
       </c>
       <c r="AH15" s="12" t="n">
-        <v>296062</v>
+        <v>300779</v>
       </c>
       <c r="AI15" s="12" t="n">
-        <v>300779</v>
+        <v>280005</v>
       </c>
       <c r="AJ15" s="12" t="n">
-        <v>280005</v>
+        <v>313062</v>
       </c>
       <c r="AK15" s="12" t="n">
-        <v>313062</v>
+        <v>232411</v>
       </c>
       <c r="AL15" s="12" t="n">
-        <v>232411</v>
+        <v>285816</v>
       </c>
       <c r="AM15" s="12" t="n">
-        <v>285816</v>
+        <v>290008</v>
       </c>
       <c r="AN15" s="12" t="n">
-        <v>290008</v>
+        <v>288278</v>
       </c>
       <c r="AO15" s="12" t="n">
-        <v>288278</v>
-      </c>
-      <c r="AP15" s="12" t="n">
         <v>187242</v>
+      </c>
+      <c r="AP15" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>56</v>
@@ -4165,8 +4165,8 @@
       <c r="T17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="U17" s="20" t="s">
-        <v>56</v>
+      <c r="U17" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="20" t="n">
         <v>0</v>
@@ -4275,154 +4275,154 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="n">
-        <v>946228</v>
+        <v>524142</v>
       </c>
       <c r="F18" s="22" t="n">
-        <v>524142</v>
+        <v>146015</v>
       </c>
       <c r="G18" s="22" t="n">
-        <v>146015</v>
+        <v>890504</v>
       </c>
       <c r="H18" s="22" t="n">
-        <v>890504</v>
+        <v>957557</v>
       </c>
       <c r="I18" s="22" t="n">
-        <v>957557</v>
+        <v>1022197</v>
       </c>
       <c r="J18" s="22" t="n">
-        <v>1022197</v>
+        <v>941812</v>
       </c>
       <c r="K18" s="22" t="n">
-        <v>941812</v>
+        <v>1046076</v>
       </c>
       <c r="L18" s="22" t="n">
-        <v>1046076</v>
+        <v>981330</v>
       </c>
       <c r="M18" s="22" t="n">
-        <v>981330</v>
+        <v>945028</v>
       </c>
       <c r="N18" s="22" t="n">
-        <v>945028</v>
+        <v>1067399</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1067399</v>
+        <v>1039269</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1039269</v>
+        <v>958317</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>958317</v>
+        <v>684603</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>684603</v>
+        <v>185713</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>185713</v>
+        <v>1007066</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1007066</v>
+        <v>1078150</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1078150</v>
+        <v>1001268</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1001268</v>
+        <v>952035</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>952035</v>
+        <v>967791</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>967791</v>
+        <v>942457</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>942457</v>
+        <v>996467</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>996467</v>
+        <v>948862</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>948862</v>
+        <v>974913</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>974913</v>
+        <v>937320</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>937320</v>
+        <v>772091</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>772091</v>
+        <v>472542</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>472542</v>
+        <v>1117891</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>1117891</v>
+        <v>1024385</v>
       </c>
       <c r="AG18" s="22" t="n">
-        <v>1024385</v>
+        <v>1113829</v>
       </c>
       <c r="AH18" s="22" t="n">
-        <v>1113829</v>
+        <v>1074882</v>
       </c>
       <c r="AI18" s="22" t="n">
-        <v>1074882</v>
+        <v>1065101</v>
       </c>
       <c r="AJ18" s="22" t="n">
-        <v>1065101</v>
+        <v>1080066</v>
       </c>
       <c r="AK18" s="22" t="n">
-        <v>1080066</v>
+        <v>1049503</v>
       </c>
       <c r="AL18" s="22" t="n">
-        <v>1049503</v>
+        <v>1097230</v>
       </c>
       <c r="AM18" s="22" t="n">
-        <v>1097230</v>
+        <v>1107997</v>
       </c>
       <c r="AN18" s="22" t="n">
-        <v>1107997</v>
+        <v>1081125</v>
       </c>
       <c r="AO18" s="22" t="n">
-        <v>1081125</v>
+        <v>599337</v>
       </c>
       <c r="AP18" s="22" t="n">
-        <v>599337</v>
+        <v>410440</v>
       </c>
       <c r="AQ18" s="22" t="n">
-        <v>410440</v>
+        <v>1165545</v>
       </c>
       <c r="AR18" s="22" t="n">
-        <v>1165545</v>
+        <v>1245186</v>
       </c>
       <c r="AS18" s="22" t="n">
-        <v>1245186</v>
+        <v>1089293</v>
       </c>
       <c r="AT18" s="22" t="n">
-        <v>1089293</v>
+        <v>1080503</v>
       </c>
       <c r="AU18" s="22" t="n">
-        <v>1080503</v>
+        <v>1089918</v>
       </c>
       <c r="AV18" s="22" t="n">
-        <v>1089918</v>
+        <v>1098980</v>
       </c>
       <c r="AW18" s="22" t="n">
-        <v>1098980</v>
+        <v>1079222</v>
       </c>
       <c r="AX18" s="22" t="n">
-        <v>1079222</v>
+        <v>1114645</v>
       </c>
       <c r="AY18" s="22" t="n">
-        <v>1114645</v>
+        <v>992732</v>
       </c>
       <c r="AZ18" s="22" t="n">
-        <v>992732</v>
+        <v>966101</v>
       </c>
       <c r="BA18" s="22" t="n">
-        <v>966101</v>
+        <v>4278946</v>
       </c>
       <c r="BB18" s="22" t="n">
-        <v>4278946</v>
+        <v>4143217</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,11 +5009,11 @@
       <c r="AZ25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BA25" s="12" t="s">
-        <v>56</v>
+      <c r="BA25" s="12" t="n">
+        <v>3361660</v>
       </c>
       <c r="BB25" s="12" t="n">
-        <v>3361660</v>
+        <v>3310490</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5025,83 +5025,83 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="n">
-        <v>105068</v>
+        <v>145028</v>
       </c>
       <c r="F26" s="15" t="n">
-        <v>145028</v>
+        <v>10704</v>
       </c>
       <c r="G26" s="15" t="n">
-        <v>10704</v>
+        <v>147657</v>
       </c>
       <c r="H26" s="15" t="n">
-        <v>147657</v>
+        <v>227926</v>
       </c>
       <c r="I26" s="15" t="n">
-        <v>227926</v>
+        <v>183593</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>183593</v>
+        <v>159692</v>
       </c>
       <c r="K26" s="15" t="n">
-        <v>159692</v>
+        <v>190617</v>
       </c>
       <c r="L26" s="15" t="n">
-        <v>190617</v>
+        <v>182758</v>
       </c>
       <c r="M26" s="15" t="n">
-        <v>182758</v>
+        <v>119982</v>
       </c>
       <c r="N26" s="15" t="n">
-        <v>119982</v>
+        <v>200384</v>
       </c>
       <c r="O26" s="15" t="n">
-        <v>200384</v>
+        <v>180361</v>
       </c>
       <c r="P26" s="15" t="n">
-        <v>180361</v>
+        <v>179697</v>
       </c>
       <c r="Q26" s="15" t="n">
-        <v>179697</v>
+        <v>204576</v>
       </c>
       <c r="R26" s="15" t="n">
-        <v>204576</v>
+        <v>12991</v>
       </c>
       <c r="S26" s="15" t="n">
-        <v>12991</v>
+        <v>133312</v>
       </c>
       <c r="T26" s="15" t="n">
-        <v>133312</v>
+        <v>187831</v>
       </c>
       <c r="U26" s="15" t="n">
-        <v>187831</v>
+        <v>197684</v>
       </c>
       <c r="V26" s="15" t="n">
-        <v>197684</v>
+        <v>234261</v>
       </c>
       <c r="W26" s="15" t="n">
-        <v>234261</v>
+        <v>139266</v>
       </c>
       <c r="X26" s="15" t="n">
-        <v>139266</v>
+        <v>210948</v>
       </c>
       <c r="Y26" s="15" t="n">
-        <v>210948</v>
+        <v>146675</v>
       </c>
       <c r="Z26" s="15" t="n">
-        <v>146675</v>
+        <v>151812</v>
       </c>
       <c r="AA26" s="15" t="n">
-        <v>151812</v>
+        <v>206619</v>
       </c>
       <c r="AB26" s="15" t="n">
-        <v>206619</v>
+        <v>180335</v>
       </c>
       <c r="AC26" s="15" t="n">
-        <v>180335</v>
-      </c>
-      <c r="AD26" s="15" t="n">
         <v>277119</v>
       </c>
+      <c r="AD26" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="AE26" s="15" t="s">
         <v>56</v>
       </c>
@@ -5135,44 +5135,44 @@
       <c r="AO26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AP26" s="15" t="s">
-        <v>56</v>
+      <c r="AP26" s="15" t="n">
+        <v>72189</v>
       </c>
       <c r="AQ26" s="15" t="n">
-        <v>72189</v>
+        <v>364851</v>
       </c>
       <c r="AR26" s="15" t="n">
-        <v>364851</v>
+        <v>294801</v>
       </c>
       <c r="AS26" s="15" t="n">
-        <v>294801</v>
+        <v>243931</v>
       </c>
       <c r="AT26" s="15" t="n">
-        <v>243931</v>
+        <v>295720</v>
       </c>
       <c r="AU26" s="15" t="n">
-        <v>295720</v>
+        <v>253095</v>
       </c>
       <c r="AV26" s="15" t="n">
-        <v>253095</v>
+        <v>252726</v>
       </c>
       <c r="AW26" s="15" t="n">
-        <v>252726</v>
+        <v>299495</v>
       </c>
       <c r="AX26" s="15" t="n">
-        <v>299495</v>
+        <v>350405</v>
       </c>
       <c r="AY26" s="15" t="n">
-        <v>350405</v>
+        <v>296542</v>
       </c>
       <c r="AZ26" s="15" t="n">
-        <v>296542</v>
+        <v>253170</v>
       </c>
       <c r="BA26" s="15" t="n">
-        <v>253170</v>
+        <v>329188</v>
       </c>
       <c r="BB26" s="15" t="n">
-        <v>329188</v>
+        <v>57509</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,154 +5184,154 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="n">
-        <v>647727</v>
+        <v>718146</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>718146</v>
+        <v>82650</v>
       </c>
       <c r="G27" s="12" t="n">
-        <v>82650</v>
+        <v>395645</v>
       </c>
       <c r="H27" s="12" t="n">
-        <v>395645</v>
+        <v>547340</v>
       </c>
       <c r="I27" s="12" t="n">
-        <v>547340</v>
+        <v>568301</v>
       </c>
       <c r="J27" s="12" t="n">
-        <v>568301</v>
+        <v>460890</v>
       </c>
       <c r="K27" s="12" t="n">
-        <v>460890</v>
+        <v>643892</v>
       </c>
       <c r="L27" s="12" t="n">
-        <v>643892</v>
+        <v>524904</v>
       </c>
       <c r="M27" s="12" t="n">
-        <v>524904</v>
+        <v>514848</v>
       </c>
       <c r="N27" s="12" t="n">
-        <v>514848</v>
+        <v>545612</v>
       </c>
       <c r="O27" s="12" t="n">
-        <v>545612</v>
+        <v>566590</v>
       </c>
       <c r="P27" s="12" t="n">
-        <v>566590</v>
+        <v>494070</v>
       </c>
       <c r="Q27" s="12" t="n">
-        <v>494070</v>
+        <v>540940</v>
       </c>
       <c r="R27" s="12" t="n">
-        <v>540940</v>
+        <v>52580</v>
       </c>
       <c r="S27" s="12" t="n">
-        <v>52580</v>
+        <v>560365</v>
       </c>
       <c r="T27" s="12" t="n">
-        <v>560365</v>
+        <v>583865</v>
       </c>
       <c r="U27" s="12" t="n">
-        <v>583865</v>
+        <v>553874</v>
       </c>
       <c r="V27" s="12" t="n">
-        <v>553874</v>
+        <v>643916</v>
       </c>
       <c r="W27" s="12" t="n">
-        <v>643916</v>
+        <v>554758</v>
       </c>
       <c r="X27" s="12" t="n">
-        <v>554758</v>
+        <v>544108</v>
       </c>
       <c r="Y27" s="12" t="n">
-        <v>544108</v>
+        <v>560407</v>
       </c>
       <c r="Z27" s="12" t="n">
-        <v>560407</v>
+        <v>558900</v>
       </c>
       <c r="AA27" s="12" t="n">
-        <v>558900</v>
+        <v>572097</v>
       </c>
       <c r="AB27" s="12" t="n">
-        <v>572097</v>
+        <v>532594</v>
       </c>
       <c r="AC27" s="12" t="n">
-        <v>532594</v>
+        <v>639969</v>
       </c>
       <c r="AD27" s="12" t="n">
-        <v>639969</v>
+        <v>156538</v>
       </c>
       <c r="AE27" s="12" t="n">
-        <v>156538</v>
+        <v>537799</v>
       </c>
       <c r="AF27" s="12" t="n">
-        <v>537799</v>
+        <v>519187</v>
       </c>
       <c r="AG27" s="12" t="n">
-        <v>519187</v>
+        <v>548244</v>
       </c>
       <c r="AH27" s="12" t="n">
-        <v>548244</v>
+        <v>457889</v>
       </c>
       <c r="AI27" s="12" t="n">
-        <v>457889</v>
+        <v>644498</v>
       </c>
       <c r="AJ27" s="12" t="n">
-        <v>644498</v>
+        <v>481535</v>
       </c>
       <c r="AK27" s="12" t="n">
-        <v>481535</v>
+        <v>532356</v>
       </c>
       <c r="AL27" s="12" t="n">
-        <v>532356</v>
+        <v>581876</v>
       </c>
       <c r="AM27" s="12" t="n">
-        <v>581876</v>
+        <v>449890</v>
       </c>
       <c r="AN27" s="12" t="n">
-        <v>449890</v>
+        <v>548978</v>
       </c>
       <c r="AO27" s="12" t="n">
-        <v>548978</v>
+        <v>559238</v>
       </c>
       <c r="AP27" s="12" t="n">
-        <v>559238</v>
+        <v>136774</v>
       </c>
       <c r="AQ27" s="12" t="n">
-        <v>136774</v>
+        <v>625826</v>
       </c>
       <c r="AR27" s="12" t="n">
-        <v>625826</v>
+        <v>528780</v>
       </c>
       <c r="AS27" s="12" t="n">
-        <v>528780</v>
+        <v>457232</v>
       </c>
       <c r="AT27" s="12" t="n">
-        <v>457232</v>
+        <v>524028</v>
       </c>
       <c r="AU27" s="12" t="n">
-        <v>524028</v>
+        <v>527299</v>
       </c>
       <c r="AV27" s="12" t="n">
-        <v>527299</v>
+        <v>497493</v>
       </c>
       <c r="AW27" s="12" t="n">
-        <v>497493</v>
+        <v>477321</v>
       </c>
       <c r="AX27" s="12" t="n">
-        <v>477321</v>
+        <v>578340</v>
       </c>
       <c r="AY27" s="12" t="n">
-        <v>578340</v>
+        <v>439020</v>
       </c>
       <c r="AZ27" s="12" t="n">
-        <v>439020</v>
+        <v>443003</v>
       </c>
       <c r="BA27" s="12" t="n">
-        <v>443003</v>
+        <v>526575</v>
       </c>
       <c r="BB27" s="12" t="n">
-        <v>526575</v>
+        <v>141076</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,154 +5343,154 @@
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="n">
-        <v>279605</v>
+        <v>443601</v>
       </c>
       <c r="F28" s="15" t="n">
-        <v>443601</v>
+        <v>29653</v>
       </c>
       <c r="G28" s="15" t="n">
-        <v>29653</v>
+        <v>274425</v>
       </c>
       <c r="H28" s="15" t="n">
-        <v>274425</v>
+        <v>374578</v>
       </c>
       <c r="I28" s="15" t="n">
-        <v>374578</v>
+        <v>176642</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>176642</v>
+        <v>249851</v>
       </c>
       <c r="K28" s="15" t="n">
-        <v>249851</v>
+        <v>234223</v>
       </c>
       <c r="L28" s="15" t="n">
-        <v>234223</v>
+        <v>289813</v>
       </c>
       <c r="M28" s="15" t="n">
-        <v>289813</v>
+        <v>219590</v>
       </c>
       <c r="N28" s="15" t="n">
-        <v>219590</v>
+        <v>268623</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>268623</v>
+        <v>379806</v>
       </c>
       <c r="P28" s="15" t="n">
-        <v>379806</v>
+        <v>375435</v>
       </c>
       <c r="Q28" s="15" t="n">
-        <v>375435</v>
+        <v>205464</v>
       </c>
       <c r="R28" s="15" t="n">
-        <v>205464</v>
+        <v>34</v>
       </c>
       <c r="S28" s="15" t="n">
-        <v>34</v>
+        <v>300764</v>
       </c>
       <c r="T28" s="15" t="n">
-        <v>300764</v>
+        <v>223557</v>
       </c>
       <c r="U28" s="15" t="n">
-        <v>223557</v>
+        <v>299112</v>
       </c>
       <c r="V28" s="15" t="n">
-        <v>299112</v>
+        <v>351503</v>
       </c>
       <c r="W28" s="15" t="n">
-        <v>351503</v>
+        <v>284868</v>
       </c>
       <c r="X28" s="15" t="n">
-        <v>284868</v>
+        <v>224296</v>
       </c>
       <c r="Y28" s="15" t="n">
-        <v>224296</v>
+        <v>346640</v>
       </c>
       <c r="Z28" s="15" t="n">
-        <v>346640</v>
+        <v>204246</v>
       </c>
       <c r="AA28" s="15" t="n">
-        <v>204246</v>
+        <v>238399</v>
       </c>
       <c r="AB28" s="15" t="n">
-        <v>238399</v>
+        <v>180124</v>
       </c>
       <c r="AC28" s="15" t="n">
-        <v>180124</v>
+        <v>312208</v>
       </c>
       <c r="AD28" s="15" t="n">
-        <v>312208</v>
+        <v>80924</v>
       </c>
       <c r="AE28" s="15" t="n">
-        <v>80924</v>
+        <v>222349</v>
       </c>
       <c r="AF28" s="15" t="n">
-        <v>222349</v>
+        <v>299354</v>
       </c>
       <c r="AG28" s="15" t="n">
-        <v>299354</v>
+        <v>199634</v>
       </c>
       <c r="AH28" s="15" t="n">
-        <v>199634</v>
+        <v>193220</v>
       </c>
       <c r="AI28" s="15" t="n">
-        <v>193220</v>
+        <v>189337</v>
       </c>
       <c r="AJ28" s="15" t="n">
-        <v>189337</v>
+        <v>163159</v>
       </c>
       <c r="AK28" s="15" t="n">
-        <v>163159</v>
+        <v>183460</v>
       </c>
       <c r="AL28" s="15" t="n">
-        <v>183460</v>
+        <v>246706</v>
       </c>
       <c r="AM28" s="15" t="n">
-        <v>246706</v>
+        <v>174908</v>
       </c>
       <c r="AN28" s="15" t="n">
-        <v>174908</v>
+        <v>185178</v>
       </c>
       <c r="AO28" s="15" t="n">
-        <v>185178</v>
+        <v>234247</v>
       </c>
       <c r="AP28" s="15" t="n">
-        <v>234247</v>
+        <v>49197</v>
       </c>
       <c r="AQ28" s="15" t="n">
-        <v>49197</v>
+        <v>274693</v>
       </c>
       <c r="AR28" s="15" t="n">
-        <v>274693</v>
+        <v>276321</v>
       </c>
       <c r="AS28" s="15" t="n">
-        <v>276321</v>
+        <v>235060</v>
       </c>
       <c r="AT28" s="15" t="n">
-        <v>235060</v>
+        <v>238030</v>
       </c>
       <c r="AU28" s="15" t="n">
-        <v>238030</v>
+        <v>227624</v>
       </c>
       <c r="AV28" s="15" t="n">
-        <v>227624</v>
+        <v>176734</v>
       </c>
       <c r="AW28" s="15" t="n">
-        <v>176734</v>
+        <v>241721</v>
       </c>
       <c r="AX28" s="15" t="n">
-        <v>241721</v>
+        <v>187285</v>
       </c>
       <c r="AY28" s="15" t="n">
-        <v>187285</v>
+        <v>219992</v>
       </c>
       <c r="AZ28" s="15" t="n">
-        <v>219992</v>
+        <v>273520</v>
       </c>
       <c r="BA28" s="15" t="n">
-        <v>273520</v>
+        <v>380938</v>
       </c>
       <c r="BB28" s="15" t="n">
-        <v>380938</v>
+        <v>95719</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,44 +5576,44 @@
       <c r="AC29" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD29" s="12" t="s">
-        <v>56</v>
+      <c r="AD29" s="12" t="n">
+        <v>102631</v>
       </c>
       <c r="AE29" s="12" t="n">
-        <v>102631</v>
+        <v>258582</v>
       </c>
       <c r="AF29" s="12" t="n">
-        <v>258582</v>
+        <v>305056</v>
       </c>
       <c r="AG29" s="12" t="n">
-        <v>305056</v>
+        <v>251268</v>
       </c>
       <c r="AH29" s="12" t="n">
-        <v>251268</v>
+        <v>282734</v>
       </c>
       <c r="AI29" s="12" t="n">
-        <v>282734</v>
+        <v>306336</v>
       </c>
       <c r="AJ29" s="12" t="n">
-        <v>306336</v>
+        <v>269737</v>
       </c>
       <c r="AK29" s="12" t="n">
-        <v>269737</v>
+        <v>216819</v>
       </c>
       <c r="AL29" s="12" t="n">
-        <v>216819</v>
+        <v>307609</v>
       </c>
       <c r="AM29" s="12" t="n">
-        <v>307609</v>
+        <v>312949</v>
       </c>
       <c r="AN29" s="12" t="n">
-        <v>312949</v>
+        <v>254425</v>
       </c>
       <c r="AO29" s="12" t="n">
-        <v>254425</v>
-      </c>
-      <c r="AP29" s="12" t="n">
         <v>271749</v>
+      </c>
+      <c r="AP29" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AQ29" s="12" t="s">
         <v>56</v>
@@ -5763,8 +5763,8 @@
       <c r="T31" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="U31" s="20" t="s">
-        <v>56</v>
+      <c r="U31" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="20" t="n">
         <v>0</v>
@@ -5977,8 +5977,8 @@
       <c r="T33" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="U33" s="20" t="s">
-        <v>56</v>
+      <c r="U33" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="20" t="n">
         <v>0</v>
@@ -6087,154 +6087,154 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="n">
-        <v>1032400</v>
+        <v>1306775</v>
       </c>
       <c r="F34" s="22" t="n">
-        <v>1306775</v>
+        <v>123007</v>
       </c>
       <c r="G34" s="22" t="n">
-        <v>123007</v>
+        <v>817727</v>
       </c>
       <c r="H34" s="22" t="n">
-        <v>817727</v>
+        <v>1149844</v>
       </c>
       <c r="I34" s="22" t="n">
-        <v>1149844</v>
+        <v>928536</v>
       </c>
       <c r="J34" s="22" t="n">
-        <v>928536</v>
+        <v>870433</v>
       </c>
       <c r="K34" s="22" t="n">
-        <v>870433</v>
+        <v>1068732</v>
       </c>
       <c r="L34" s="22" t="n">
-        <v>1068732</v>
+        <v>997475</v>
       </c>
       <c r="M34" s="22" t="n">
-        <v>997475</v>
+        <v>854420</v>
       </c>
       <c r="N34" s="22" t="n">
-        <v>854420</v>
+        <v>1014619</v>
       </c>
       <c r="O34" s="22" t="n">
-        <v>1014619</v>
+        <v>1126757</v>
       </c>
       <c r="P34" s="22" t="n">
-        <v>1126757</v>
+        <v>1049202</v>
       </c>
       <c r="Q34" s="22" t="n">
-        <v>1049202</v>
+        <v>950980</v>
       </c>
       <c r="R34" s="22" t="n">
-        <v>950980</v>
+        <v>65605</v>
       </c>
       <c r="S34" s="22" t="n">
-        <v>65605</v>
+        <v>994441</v>
       </c>
       <c r="T34" s="22" t="n">
-        <v>994441</v>
+        <v>995253</v>
       </c>
       <c r="U34" s="22" t="n">
-        <v>995253</v>
+        <v>1050670</v>
       </c>
       <c r="V34" s="22" t="n">
-        <v>1050670</v>
+        <v>1229680</v>
       </c>
       <c r="W34" s="22" t="n">
-        <v>1229680</v>
+        <v>978892</v>
       </c>
       <c r="X34" s="22" t="n">
-        <v>978892</v>
+        <v>979352</v>
       </c>
       <c r="Y34" s="22" t="n">
-        <v>979352</v>
+        <v>1053722</v>
       </c>
       <c r="Z34" s="22" t="n">
-        <v>1053722</v>
+        <v>914958</v>
       </c>
       <c r="AA34" s="22" t="n">
-        <v>914958</v>
+        <v>1017115</v>
       </c>
       <c r="AB34" s="22" t="n">
-        <v>1017115</v>
+        <v>893053</v>
       </c>
       <c r="AC34" s="22" t="n">
-        <v>893053</v>
+        <v>1229296</v>
       </c>
       <c r="AD34" s="22" t="n">
-        <v>1229296</v>
+        <v>340093</v>
       </c>
       <c r="AE34" s="22" t="n">
-        <v>340093</v>
+        <v>1018730</v>
       </c>
       <c r="AF34" s="22" t="n">
-        <v>1018730</v>
+        <v>1123597</v>
       </c>
       <c r="AG34" s="22" t="n">
-        <v>1123597</v>
+        <v>999146</v>
       </c>
       <c r="AH34" s="22" t="n">
-        <v>999146</v>
+        <v>933843</v>
       </c>
       <c r="AI34" s="22" t="n">
-        <v>933843</v>
+        <v>1140171</v>
       </c>
       <c r="AJ34" s="22" t="n">
-        <v>1140171</v>
+        <v>914431</v>
       </c>
       <c r="AK34" s="22" t="n">
-        <v>914431</v>
+        <v>932635</v>
       </c>
       <c r="AL34" s="22" t="n">
-        <v>932635</v>
+        <v>1136191</v>
       </c>
       <c r="AM34" s="22" t="n">
-        <v>1136191</v>
+        <v>937747</v>
       </c>
       <c r="AN34" s="22" t="n">
-        <v>937747</v>
+        <v>988581</v>
       </c>
       <c r="AO34" s="22" t="n">
-        <v>988581</v>
+        <v>1065234</v>
       </c>
       <c r="AP34" s="22" t="n">
-        <v>1065234</v>
+        <v>258160</v>
       </c>
       <c r="AQ34" s="22" t="n">
-        <v>258160</v>
+        <v>1265370</v>
       </c>
       <c r="AR34" s="22" t="n">
-        <v>1265370</v>
+        <v>1099902</v>
       </c>
       <c r="AS34" s="22" t="n">
-        <v>1099902</v>
+        <v>936223</v>
       </c>
       <c r="AT34" s="22" t="n">
-        <v>936223</v>
+        <v>1057778</v>
       </c>
       <c r="AU34" s="22" t="n">
-        <v>1057778</v>
+        <v>1008018</v>
       </c>
       <c r="AV34" s="22" t="n">
-        <v>1008018</v>
+        <v>926953</v>
       </c>
       <c r="AW34" s="22" t="n">
-        <v>926953</v>
+        <v>1018537</v>
       </c>
       <c r="AX34" s="22" t="n">
-        <v>1018537</v>
+        <v>1116030</v>
       </c>
       <c r="AY34" s="22" t="n">
-        <v>1116030</v>
+        <v>955554</v>
       </c>
       <c r="AZ34" s="22" t="n">
-        <v>955554</v>
+        <v>969693</v>
       </c>
       <c r="BA34" s="22" t="n">
-        <v>969693</v>
+        <v>4598361</v>
       </c>
       <c r="BB34" s="22" t="n">
-        <v>4598361</v>
+        <v>3604794</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6823,11 +6823,11 @@
       <c r="AZ41" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BA41" s="12" t="s">
-        <v>56</v>
+      <c r="BA41" s="12" t="n">
+        <v>45396</v>
       </c>
       <c r="BB41" s="12" t="n">
-        <v>45396</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,83 +6839,83 @@
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="n">
-        <v>29464</v>
+        <v>41611</v>
       </c>
       <c r="F42" s="15" t="n">
-        <v>41611</v>
+        <v>3679</v>
       </c>
       <c r="G42" s="15" t="n">
-        <v>3679</v>
+        <v>43977</v>
       </c>
       <c r="H42" s="15" t="n">
-        <v>43977</v>
+        <v>75585</v>
       </c>
       <c r="I42" s="15" t="n">
-        <v>75585</v>
+        <v>56599</v>
       </c>
       <c r="J42" s="15" t="n">
-        <v>56599</v>
+        <v>52161</v>
       </c>
       <c r="K42" s="15" t="n">
-        <v>52161</v>
+        <v>55342</v>
       </c>
       <c r="L42" s="15" t="n">
-        <v>55342</v>
+        <v>50455</v>
       </c>
       <c r="M42" s="15" t="n">
-        <v>50455</v>
+        <v>35150</v>
       </c>
       <c r="N42" s="15" t="n">
-        <v>35150</v>
+        <v>68462</v>
       </c>
       <c r="O42" s="15" t="n">
-        <v>68462</v>
+        <v>57855</v>
       </c>
       <c r="P42" s="15" t="n">
-        <v>57855</v>
+        <v>61432</v>
       </c>
       <c r="Q42" s="15" t="n">
-        <v>61432</v>
+        <v>73036</v>
       </c>
       <c r="R42" s="15" t="n">
-        <v>73036</v>
+        <v>6290</v>
       </c>
       <c r="S42" s="15" t="n">
-        <v>6290</v>
+        <v>65740</v>
       </c>
       <c r="T42" s="15" t="n">
-        <v>65740</v>
+        <v>98895</v>
       </c>
       <c r="U42" s="15" t="n">
-        <v>98895</v>
+        <v>111718</v>
       </c>
       <c r="V42" s="15" t="n">
-        <v>111718</v>
+        <v>145838</v>
       </c>
       <c r="W42" s="15" t="n">
-        <v>145838</v>
+        <v>84654</v>
       </c>
       <c r="X42" s="15" t="n">
-        <v>84654</v>
+        <v>161477</v>
       </c>
       <c r="Y42" s="15" t="n">
-        <v>161477</v>
+        <v>102407</v>
       </c>
       <c r="Z42" s="15" t="n">
-        <v>102407</v>
+        <v>123394</v>
       </c>
       <c r="AA42" s="15" t="n">
-        <v>123394</v>
+        <v>167326</v>
       </c>
       <c r="AB42" s="15" t="n">
-        <v>167326</v>
+        <v>136182</v>
       </c>
       <c r="AC42" s="15" t="n">
-        <v>136182</v>
-      </c>
-      <c r="AD42" s="15" t="n">
         <v>198282</v>
       </c>
+      <c r="AD42" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="AE42" s="15" t="s">
         <v>56</v>
       </c>
@@ -6949,44 +6949,44 @@
       <c r="AO42" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AP42" s="15" t="s">
-        <v>56</v>
+      <c r="AP42" s="15" t="n">
+        <v>75889</v>
       </c>
       <c r="AQ42" s="15" t="n">
-        <v>75889</v>
+        <v>463724</v>
       </c>
       <c r="AR42" s="15" t="n">
-        <v>463724</v>
+        <v>428409</v>
       </c>
       <c r="AS42" s="15" t="n">
-        <v>428409</v>
+        <v>410649</v>
       </c>
       <c r="AT42" s="15" t="n">
-        <v>410649</v>
+        <v>497158</v>
       </c>
       <c r="AU42" s="15" t="n">
-        <v>497158</v>
+        <v>403468</v>
       </c>
       <c r="AV42" s="15" t="n">
-        <v>403468</v>
+        <v>475211</v>
       </c>
       <c r="AW42" s="15" t="n">
-        <v>475211</v>
+        <v>523396</v>
       </c>
       <c r="AX42" s="15" t="n">
-        <v>523396</v>
+        <v>611621</v>
       </c>
       <c r="AY42" s="15" t="n">
-        <v>611621</v>
+        <v>543559</v>
       </c>
       <c r="AZ42" s="15" t="n">
-        <v>543559</v>
+        <v>456753</v>
       </c>
       <c r="BA42" s="15" t="n">
-        <v>456753</v>
+        <v>680173</v>
       </c>
       <c r="BB42" s="15" t="n">
-        <v>680173</v>
+        <v>121305</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,154 +6998,154 @@
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12" t="n">
-        <v>169539</v>
+        <v>165455</v>
       </c>
       <c r="F43" s="12" t="n">
-        <v>165455</v>
+        <v>17250</v>
       </c>
       <c r="G43" s="12" t="n">
-        <v>17250</v>
+        <v>124312</v>
       </c>
       <c r="H43" s="12" t="n">
-        <v>124312</v>
+        <v>184074</v>
       </c>
       <c r="I43" s="12" t="n">
-        <v>184074</v>
+        <v>181611</v>
       </c>
       <c r="J43" s="12" t="n">
-        <v>181611</v>
+        <v>145359</v>
       </c>
       <c r="K43" s="12" t="n">
-        <v>145359</v>
+        <v>196836</v>
       </c>
       <c r="L43" s="12" t="n">
-        <v>196836</v>
+        <v>162113</v>
       </c>
       <c r="M43" s="12" t="n">
-        <v>162113</v>
+        <v>163216</v>
       </c>
       <c r="N43" s="12" t="n">
-        <v>163216</v>
+        <v>187431</v>
       </c>
       <c r="O43" s="12" t="n">
-        <v>187431</v>
+        <v>208809</v>
       </c>
       <c r="P43" s="12" t="n">
-        <v>208809</v>
+        <v>197667</v>
       </c>
       <c r="Q43" s="12" t="n">
-        <v>197667</v>
+        <v>219888</v>
       </c>
       <c r="R43" s="12" t="n">
-        <v>219888</v>
+        <v>26326</v>
       </c>
       <c r="S43" s="12" t="n">
-        <v>26326</v>
+        <v>258649</v>
       </c>
       <c r="T43" s="12" t="n">
-        <v>258649</v>
+        <v>302463</v>
       </c>
       <c r="U43" s="12" t="n">
-        <v>302463</v>
+        <v>322246</v>
       </c>
       <c r="V43" s="12" t="n">
-        <v>322246</v>
+        <v>404240</v>
       </c>
       <c r="W43" s="12" t="n">
-        <v>404240</v>
+        <v>391481</v>
       </c>
       <c r="X43" s="12" t="n">
-        <v>391481</v>
+        <v>421364</v>
       </c>
       <c r="Y43" s="12" t="n">
-        <v>421364</v>
+        <v>443552</v>
       </c>
       <c r="Z43" s="12" t="n">
-        <v>443552</v>
+        <v>424563</v>
       </c>
       <c r="AA43" s="12" t="n">
-        <v>424563</v>
+        <v>431177</v>
       </c>
       <c r="AB43" s="12" t="n">
-        <v>431177</v>
+        <v>374454</v>
       </c>
       <c r="AC43" s="12" t="n">
-        <v>374454</v>
+        <v>461538</v>
       </c>
       <c r="AD43" s="12" t="n">
-        <v>461538</v>
+        <v>114621</v>
       </c>
       <c r="AE43" s="12" t="n">
-        <v>114621</v>
+        <v>379360</v>
       </c>
       <c r="AF43" s="12" t="n">
-        <v>379360</v>
+        <v>365103</v>
       </c>
       <c r="AG43" s="12" t="n">
-        <v>365103</v>
+        <v>415604</v>
       </c>
       <c r="AH43" s="12" t="n">
-        <v>415604</v>
+        <v>385064</v>
       </c>
       <c r="AI43" s="12" t="n">
-        <v>385064</v>
+        <v>578109</v>
       </c>
       <c r="AJ43" s="12" t="n">
-        <v>578109</v>
+        <v>432242</v>
       </c>
       <c r="AK43" s="12" t="n">
-        <v>432242</v>
+        <v>478614</v>
       </c>
       <c r="AL43" s="12" t="n">
-        <v>478614</v>
+        <v>543247</v>
       </c>
       <c r="AM43" s="12" t="n">
-        <v>543247</v>
+        <v>429711</v>
       </c>
       <c r="AN43" s="12" t="n">
-        <v>429711</v>
+        <v>471330</v>
       </c>
       <c r="AO43" s="12" t="n">
-        <v>471330</v>
+        <v>492285</v>
       </c>
       <c r="AP43" s="12" t="n">
-        <v>492285</v>
+        <v>120357</v>
       </c>
       <c r="AQ43" s="12" t="n">
-        <v>120357</v>
+        <v>571533</v>
       </c>
       <c r="AR43" s="12" t="n">
-        <v>571533</v>
+        <v>520513</v>
       </c>
       <c r="AS43" s="12" t="n">
-        <v>520513</v>
+        <v>465757</v>
       </c>
       <c r="AT43" s="12" t="n">
-        <v>465757</v>
+        <v>564127</v>
       </c>
       <c r="AU43" s="12" t="n">
-        <v>564127</v>
+        <v>519191</v>
       </c>
       <c r="AV43" s="12" t="n">
-        <v>519191</v>
+        <v>537161</v>
       </c>
       <c r="AW43" s="12" t="n">
-        <v>537161</v>
+        <v>544131</v>
       </c>
       <c r="AX43" s="12" t="n">
-        <v>544131</v>
+        <v>708713</v>
       </c>
       <c r="AY43" s="12" t="n">
-        <v>708713</v>
+        <v>557570</v>
       </c>
       <c r="AZ43" s="12" t="n">
-        <v>557570</v>
+        <v>632009</v>
       </c>
       <c r="BA43" s="12" t="n">
-        <v>632009</v>
+        <v>791172</v>
       </c>
       <c r="BB43" s="12" t="n">
-        <v>791172</v>
+        <v>210939</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7157,154 +7157,154 @@
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="n">
-        <v>13166</v>
+        <v>20538</v>
       </c>
       <c r="F44" s="15" t="n">
-        <v>20538</v>
+        <v>2012</v>
       </c>
       <c r="G44" s="15" t="n">
-        <v>2012</v>
+        <v>17486</v>
       </c>
       <c r="H44" s="15" t="n">
-        <v>17486</v>
+        <v>21600</v>
       </c>
       <c r="I44" s="15" t="n">
-        <v>21600</v>
+        <v>12138</v>
       </c>
       <c r="J44" s="15" t="n">
-        <v>12138</v>
+        <v>17856</v>
       </c>
       <c r="K44" s="15" t="n">
-        <v>17856</v>
+        <v>17060</v>
       </c>
       <c r="L44" s="15" t="n">
-        <v>17060</v>
+        <v>16648</v>
       </c>
       <c r="M44" s="15" t="n">
-        <v>16648</v>
+        <v>15479</v>
       </c>
       <c r="N44" s="15" t="n">
-        <v>15479</v>
+        <v>19196</v>
       </c>
       <c r="O44" s="15" t="n">
-        <v>19196</v>
+        <v>27801</v>
       </c>
       <c r="P44" s="15" t="n">
-        <v>27801</v>
+        <v>26677</v>
       </c>
       <c r="Q44" s="15" t="n">
-        <v>26677</v>
+        <v>14513</v>
       </c>
       <c r="R44" s="15" t="n">
-        <v>14513</v>
+        <v>6</v>
       </c>
       <c r="S44" s="15" t="n">
-        <v>6</v>
+        <v>26856</v>
       </c>
       <c r="T44" s="15" t="n">
-        <v>26856</v>
+        <v>21463</v>
       </c>
       <c r="U44" s="15" t="n">
-        <v>21463</v>
+        <v>30300</v>
       </c>
       <c r="V44" s="15" t="n">
-        <v>30300</v>
+        <v>37438</v>
       </c>
       <c r="W44" s="15" t="n">
-        <v>37438</v>
+        <v>38327</v>
       </c>
       <c r="X44" s="15" t="n">
-        <v>38327</v>
+        <v>33949</v>
       </c>
       <c r="Y44" s="15" t="n">
-        <v>33949</v>
+        <v>53404</v>
       </c>
       <c r="Z44" s="15" t="n">
-        <v>53404</v>
+        <v>33284</v>
       </c>
       <c r="AA44" s="15" t="n">
-        <v>33284</v>
+        <v>37082</v>
       </c>
       <c r="AB44" s="15" t="n">
-        <v>37082</v>
+        <v>27575</v>
       </c>
       <c r="AC44" s="15" t="n">
-        <v>27575</v>
+        <v>46378</v>
       </c>
       <c r="AD44" s="15" t="n">
-        <v>46378</v>
+        <v>12220</v>
       </c>
       <c r="AE44" s="15" t="n">
-        <v>12220</v>
+        <v>35631</v>
       </c>
       <c r="AF44" s="15" t="n">
-        <v>35631</v>
+        <v>44765</v>
       </c>
       <c r="AG44" s="15" t="n">
-        <v>44765</v>
+        <v>34908</v>
       </c>
       <c r="AH44" s="15" t="n">
-        <v>34908</v>
+        <v>33712</v>
       </c>
       <c r="AI44" s="15" t="n">
-        <v>33712</v>
+        <v>36816</v>
       </c>
       <c r="AJ44" s="15" t="n">
-        <v>36816</v>
+        <v>31066</v>
       </c>
       <c r="AK44" s="15" t="n">
-        <v>31066</v>
+        <v>35147</v>
       </c>
       <c r="AL44" s="15" t="n">
-        <v>35147</v>
+        <v>45724</v>
       </c>
       <c r="AM44" s="15" t="n">
-        <v>45724</v>
+        <v>35034</v>
       </c>
       <c r="AN44" s="15" t="n">
-        <v>35034</v>
+        <v>36357</v>
       </c>
       <c r="AO44" s="15" t="n">
-        <v>36357</v>
+        <v>45843</v>
       </c>
       <c r="AP44" s="15" t="n">
-        <v>45843</v>
+        <v>10794</v>
       </c>
       <c r="AQ44" s="15" t="n">
-        <v>10794</v>
+        <v>57182</v>
       </c>
       <c r="AR44" s="15" t="n">
-        <v>57182</v>
+        <v>60338</v>
       </c>
       <c r="AS44" s="15" t="n">
-        <v>60338</v>
+        <v>57189</v>
       </c>
       <c r="AT44" s="15" t="n">
-        <v>57189</v>
+        <v>55486</v>
       </c>
       <c r="AU44" s="15" t="n">
-        <v>55486</v>
+        <v>53497</v>
       </c>
       <c r="AV44" s="15" t="n">
-        <v>53497</v>
+        <v>47529</v>
       </c>
       <c r="AW44" s="15" t="n">
-        <v>47529</v>
+        <v>65968</v>
       </c>
       <c r="AX44" s="15" t="n">
-        <v>65968</v>
+        <v>53491</v>
       </c>
       <c r="AY44" s="15" t="n">
-        <v>53491</v>
+        <v>64819</v>
       </c>
       <c r="AZ44" s="15" t="n">
-        <v>64819</v>
+        <v>83347</v>
       </c>
       <c r="BA44" s="15" t="n">
-        <v>83347</v>
+        <v>114603</v>
       </c>
       <c r="BB44" s="15" t="n">
-        <v>114603</v>
+        <v>27283</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,44 +7390,44 @@
       <c r="AC45" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD45" s="12" t="s">
-        <v>56</v>
+      <c r="AD45" s="12" t="n">
+        <v>102647</v>
       </c>
       <c r="AE45" s="12" t="n">
-        <v>102647</v>
+        <v>218433</v>
       </c>
       <c r="AF45" s="12" t="n">
-        <v>218433</v>
+        <v>258862</v>
       </c>
       <c r="AG45" s="12" t="n">
-        <v>258862</v>
+        <v>232749</v>
       </c>
       <c r="AH45" s="12" t="n">
-        <v>232749</v>
+        <v>291144</v>
       </c>
       <c r="AI45" s="12" t="n">
-        <v>291144</v>
+        <v>358200</v>
       </c>
       <c r="AJ45" s="12" t="n">
-        <v>358200</v>
+        <v>301343</v>
       </c>
       <c r="AK45" s="12" t="n">
-        <v>301343</v>
+        <v>278478</v>
       </c>
       <c r="AL45" s="12" t="n">
-        <v>278478</v>
+        <v>382831</v>
       </c>
       <c r="AM45" s="12" t="n">
-        <v>382831</v>
+        <v>388417</v>
       </c>
       <c r="AN45" s="12" t="n">
-        <v>388417</v>
+        <v>312854</v>
       </c>
       <c r="AO45" s="12" t="n">
-        <v>312854</v>
-      </c>
-      <c r="AP45" s="12" t="n">
         <v>339949</v>
+      </c>
+      <c r="AP45" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AQ45" s="12" t="s">
         <v>56</v>
@@ -7579,8 +7579,8 @@
       <c r="T47" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="U47" s="20" t="s">
-        <v>56</v>
+      <c r="U47" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="23" t="n">
         <v>0</v>
@@ -7795,8 +7795,8 @@
       <c r="T49" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="U49" s="20" t="s">
-        <v>56</v>
+      <c r="U49" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="23" t="n">
         <v>0</v>
@@ -8011,107 +8011,107 @@
       <c r="T51" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U51" s="12" t="s">
-        <v>56</v>
+      <c r="U51" s="12" t="n">
+        <v>-31997</v>
       </c>
       <c r="V51" s="12" t="n">
-        <v>-31997</v>
+        <v>-22090</v>
       </c>
       <c r="W51" s="12" t="n">
-        <v>-22090</v>
+        <v>-43336</v>
       </c>
       <c r="X51" s="12" t="n">
-        <v>-43336</v>
+        <v>-33072</v>
       </c>
       <c r="Y51" s="12" t="n">
-        <v>-33072</v>
+        <v>-28567</v>
       </c>
       <c r="Z51" s="12" t="n">
-        <v>-28567</v>
+        <v>-30966</v>
       </c>
       <c r="AA51" s="12" t="n">
-        <v>-30966</v>
+        <v>-17983</v>
       </c>
       <c r="AB51" s="12" t="n">
-        <v>-17983</v>
+        <v>-19430</v>
       </c>
       <c r="AC51" s="12" t="n">
-        <v>-19430</v>
+        <v>-48332</v>
       </c>
       <c r="AD51" s="12" t="n">
-        <v>-48332</v>
+        <v>-31972</v>
       </c>
       <c r="AE51" s="12" t="n">
-        <v>-31972</v>
+        <v>-27449</v>
       </c>
       <c r="AF51" s="12" t="n">
-        <v>-27449</v>
+        <v>-39135</v>
       </c>
       <c r="AG51" s="12" t="n">
-        <v>-39135</v>
+        <v>-39898</v>
       </c>
       <c r="AH51" s="12" t="n">
-        <v>-39898</v>
+        <v>-25582</v>
       </c>
       <c r="AI51" s="12" t="n">
-        <v>-25582</v>
+        <v>-52700</v>
       </c>
       <c r="AJ51" s="12" t="n">
-        <v>-52700</v>
+        <v>-53894</v>
       </c>
       <c r="AK51" s="12" t="n">
-        <v>-53894</v>
+        <v>-90981</v>
       </c>
       <c r="AL51" s="12" t="n">
-        <v>-90981</v>
+        <v>-134175</v>
       </c>
       <c r="AM51" s="12" t="n">
-        <v>-134175</v>
+        <v>-110041</v>
       </c>
       <c r="AN51" s="12" t="n">
-        <v>-110041</v>
+        <v>-42426</v>
       </c>
       <c r="AO51" s="12" t="n">
-        <v>-42426</v>
+        <v>-61328</v>
       </c>
       <c r="AP51" s="12" t="n">
-        <v>-61328</v>
+        <v>-8244</v>
       </c>
       <c r="AQ51" s="12" t="n">
-        <v>-8244</v>
+        <v>-59767</v>
       </c>
       <c r="AR51" s="12" t="n">
-        <v>-59767</v>
+        <v>-65838</v>
       </c>
       <c r="AS51" s="12" t="n">
-        <v>-65838</v>
+        <v>-56427</v>
       </c>
       <c r="AT51" s="12" t="n">
-        <v>-56427</v>
+        <v>-68288</v>
       </c>
       <c r="AU51" s="12" t="n">
-        <v>-68288</v>
+        <v>-34959</v>
       </c>
       <c r="AV51" s="12" t="n">
-        <v>-34959</v>
+        <v>-49476</v>
       </c>
       <c r="AW51" s="12" t="n">
-        <v>-49476</v>
+        <v>-40530</v>
       </c>
       <c r="AX51" s="12" t="n">
-        <v>-40530</v>
+        <v>-25280</v>
       </c>
       <c r="AY51" s="12" t="n">
-        <v>-25280</v>
+        <v>-80344</v>
       </c>
       <c r="AZ51" s="12" t="n">
-        <v>-80344</v>
+        <v>-70191</v>
       </c>
       <c r="BA51" s="12" t="n">
-        <v>-70191</v>
+        <v>-155728</v>
       </c>
       <c r="BB51" s="12" t="n">
-        <v>-155728</v>
+        <v>-14307</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8121,154 +8121,154 @@
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22" t="n">
-        <v>212169</v>
+        <v>227604</v>
       </c>
       <c r="F52" s="22" t="n">
-        <v>227604</v>
+        <v>22941</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>22941</v>
+        <v>185775</v>
       </c>
       <c r="H52" s="22" t="n">
-        <v>185775</v>
+        <v>281259</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>281259</v>
+        <v>250348</v>
       </c>
       <c r="J52" s="22" t="n">
-        <v>250348</v>
+        <v>215376</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>215376</v>
+        <v>269238</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>269238</v>
+        <v>229216</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>229216</v>
+        <v>213845</v>
       </c>
       <c r="N52" s="22" t="n">
-        <v>213845</v>
+        <v>275089</v>
       </c>
       <c r="O52" s="22" t="n">
-        <v>275089</v>
+        <v>294465</v>
       </c>
       <c r="P52" s="22" t="n">
-        <v>294465</v>
+        <v>285776</v>
       </c>
       <c r="Q52" s="22" t="n">
-        <v>285776</v>
+        <v>307437</v>
       </c>
       <c r="R52" s="22" t="n">
-        <v>307437</v>
+        <v>32622</v>
       </c>
       <c r="S52" s="22" t="n">
-        <v>32622</v>
+        <v>351245</v>
       </c>
       <c r="T52" s="22" t="n">
-        <v>351245</v>
+        <v>422821</v>
       </c>
       <c r="U52" s="22" t="n">
-        <v>422821</v>
+        <v>432267</v>
       </c>
       <c r="V52" s="22" t="n">
-        <v>432267</v>
+        <v>565426</v>
       </c>
       <c r="W52" s="22" t="n">
-        <v>565426</v>
+        <v>471126</v>
       </c>
       <c r="X52" s="22" t="n">
-        <v>471126</v>
+        <v>583718</v>
       </c>
       <c r="Y52" s="22" t="n">
-        <v>583718</v>
+        <v>570796</v>
       </c>
       <c r="Z52" s="22" t="n">
-        <v>570796</v>
+        <v>550275</v>
       </c>
       <c r="AA52" s="22" t="n">
-        <v>550275</v>
+        <v>617602</v>
       </c>
       <c r="AB52" s="22" t="n">
-        <v>617602</v>
+        <v>518781</v>
       </c>
       <c r="AC52" s="22" t="n">
-        <v>518781</v>
+        <v>657866</v>
       </c>
       <c r="AD52" s="22" t="n">
-        <v>657866</v>
+        <v>197516</v>
       </c>
       <c r="AE52" s="22" t="n">
-        <v>197516</v>
+        <v>605975</v>
       </c>
       <c r="AF52" s="22" t="n">
-        <v>605975</v>
+        <v>629595</v>
       </c>
       <c r="AG52" s="22" t="n">
-        <v>629595</v>
+        <v>643363</v>
       </c>
       <c r="AH52" s="22" t="n">
-        <v>643363</v>
+        <v>684338</v>
       </c>
       <c r="AI52" s="22" t="n">
-        <v>684338</v>
+        <v>920425</v>
       </c>
       <c r="AJ52" s="22" t="n">
-        <v>920425</v>
+        <v>710757</v>
       </c>
       <c r="AK52" s="22" t="n">
-        <v>710757</v>
+        <v>701258</v>
       </c>
       <c r="AL52" s="22" t="n">
-        <v>701258</v>
+        <v>837627</v>
       </c>
       <c r="AM52" s="22" t="n">
-        <v>837627</v>
+        <v>743121</v>
       </c>
       <c r="AN52" s="22" t="n">
-        <v>743121</v>
+        <v>778115</v>
       </c>
       <c r="AO52" s="22" t="n">
-        <v>778115</v>
+        <v>816749</v>
       </c>
       <c r="AP52" s="22" t="n">
-        <v>816749</v>
+        <v>198796</v>
       </c>
       <c r="AQ52" s="22" t="n">
-        <v>198796</v>
+        <v>1032672</v>
       </c>
       <c r="AR52" s="22" t="n">
-        <v>1032672</v>
+        <v>943422</v>
       </c>
       <c r="AS52" s="22" t="n">
-        <v>943422</v>
+        <v>877168</v>
       </c>
       <c r="AT52" s="22" t="n">
-        <v>877168</v>
+        <v>1048483</v>
       </c>
       <c r="AU52" s="22" t="n">
-        <v>1048483</v>
+        <v>941197</v>
       </c>
       <c r="AV52" s="22" t="n">
-        <v>941197</v>
+        <v>1010425</v>
       </c>
       <c r="AW52" s="22" t="n">
-        <v>1010425</v>
+        <v>1092965</v>
       </c>
       <c r="AX52" s="22" t="n">
-        <v>1092965</v>
+        <v>1348545</v>
       </c>
       <c r="AY52" s="22" t="n">
-        <v>1348545</v>
+        <v>1085604</v>
       </c>
       <c r="AZ52" s="22" t="n">
-        <v>1085604</v>
+        <v>1101918</v>
       </c>
       <c r="BA52" s="22" t="n">
-        <v>1101918</v>
+        <v>1475616</v>
       </c>
       <c r="BB52" s="22" t="n">
-        <v>1475616</v>
+        <v>389912</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8857,11 +8857,11 @@
       <c r="AZ59" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BA59" s="12" t="s">
-        <v>56</v>
+      <c r="BA59" s="12" t="n">
+        <v>13504</v>
       </c>
       <c r="BB59" s="12" t="n">
-        <v>13504</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8873,83 +8873,83 @@
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15" t="n">
-        <v>280428</v>
+        <v>286917</v>
       </c>
       <c r="F60" s="15" t="n">
-        <v>286917</v>
+        <v>343703</v>
       </c>
       <c r="G60" s="15" t="n">
-        <v>343703</v>
+        <v>297832</v>
       </c>
       <c r="H60" s="15" t="n">
-        <v>297832</v>
+        <v>331621</v>
       </c>
       <c r="I60" s="15" t="n">
-        <v>331621</v>
+        <v>308285</v>
       </c>
       <c r="J60" s="15" t="n">
-        <v>308285</v>
+        <v>326635</v>
       </c>
       <c r="K60" s="15" t="n">
-        <v>326635</v>
+        <v>290331</v>
       </c>
       <c r="L60" s="15" t="n">
-        <v>290331</v>
+        <v>276075</v>
       </c>
       <c r="M60" s="15" t="n">
-        <v>276075</v>
+        <v>292961</v>
       </c>
       <c r="N60" s="15" t="n">
-        <v>292961</v>
+        <v>341654</v>
       </c>
       <c r="O60" s="15" t="n">
-        <v>341654</v>
+        <v>320773</v>
       </c>
       <c r="P60" s="15" t="n">
-        <v>320773</v>
+        <v>341864</v>
       </c>
       <c r="Q60" s="15" t="n">
-        <v>341864</v>
+        <v>357012</v>
       </c>
       <c r="R60" s="15" t="n">
-        <v>357012</v>
+        <v>484181</v>
       </c>
       <c r="S60" s="15" t="n">
-        <v>484181</v>
+        <v>493129</v>
       </c>
       <c r="T60" s="15" t="n">
-        <v>493129</v>
+        <v>526511</v>
       </c>
       <c r="U60" s="15" t="n">
-        <v>526511</v>
+        <v>565134</v>
       </c>
       <c r="V60" s="15" t="n">
-        <v>565134</v>
+        <v>622545</v>
       </c>
       <c r="W60" s="15" t="n">
-        <v>622545</v>
+        <v>607858</v>
       </c>
       <c r="X60" s="15" t="n">
-        <v>607858</v>
+        <v>765482</v>
       </c>
       <c r="Y60" s="15" t="n">
-        <v>765482</v>
+        <v>698190</v>
       </c>
       <c r="Z60" s="15" t="n">
-        <v>698190</v>
+        <v>812808</v>
       </c>
       <c r="AA60" s="15" t="n">
-        <v>812808</v>
+        <v>809829</v>
       </c>
       <c r="AB60" s="15" t="n">
-        <v>809829</v>
+        <v>755161</v>
       </c>
       <c r="AC60" s="15" t="n">
-        <v>755161</v>
-      </c>
-      <c r="AD60" s="15" t="n">
         <v>715512</v>
       </c>
+      <c r="AD60" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="AE60" s="15" t="s">
         <v>56</v>
       </c>
@@ -8983,44 +8983,44 @@
       <c r="AO60" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AP60" s="15" t="s">
-        <v>56</v>
+      <c r="AP60" s="15" t="n">
+        <v>1051254</v>
       </c>
       <c r="AQ60" s="15" t="n">
-        <v>1051254</v>
+        <v>1270996</v>
       </c>
       <c r="AR60" s="15" t="n">
-        <v>1270996</v>
+        <v>1453214</v>
       </c>
       <c r="AS60" s="15" t="n">
-        <v>1453214</v>
+        <v>1683464</v>
       </c>
       <c r="AT60" s="15" t="n">
-        <v>1683464</v>
+        <v>1681178</v>
       </c>
       <c r="AU60" s="15" t="n">
-        <v>1681178</v>
+        <v>1594137</v>
       </c>
       <c r="AV60" s="15" t="n">
-        <v>1594137</v>
+        <v>1880341</v>
       </c>
       <c r="AW60" s="15" t="n">
-        <v>1880341</v>
+        <v>1747595</v>
       </c>
       <c r="AX60" s="15" t="n">
-        <v>1747595</v>
+        <v>1745469</v>
       </c>
       <c r="AY60" s="15" t="n">
-        <v>1745469</v>
+        <v>1832992</v>
       </c>
       <c r="AZ60" s="15" t="n">
-        <v>1832992</v>
+        <v>1804136</v>
       </c>
       <c r="BA60" s="15" t="n">
-        <v>1804136</v>
+        <v>2066214</v>
       </c>
       <c r="BB60" s="15" t="n">
-        <v>2066214</v>
+        <v>2109322</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9032,154 +9032,154 @@
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12" t="n">
-        <v>261745</v>
+        <v>230392</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>230392</v>
+        <v>208711</v>
       </c>
       <c r="G61" s="12" t="n">
-        <v>208711</v>
+        <v>314201</v>
       </c>
       <c r="H61" s="12" t="n">
-        <v>314201</v>
+        <v>336307</v>
       </c>
       <c r="I61" s="12" t="n">
-        <v>336307</v>
+        <v>319568</v>
       </c>
       <c r="J61" s="12" t="n">
-        <v>319568</v>
+        <v>315388</v>
       </c>
       <c r="K61" s="12" t="n">
-        <v>315388</v>
+        <v>305697</v>
       </c>
       <c r="L61" s="12" t="n">
-        <v>305697</v>
+        <v>308843</v>
       </c>
       <c r="M61" s="12" t="n">
-        <v>308843</v>
+        <v>317018</v>
       </c>
       <c r="N61" s="12" t="n">
-        <v>317018</v>
+        <v>343524</v>
       </c>
       <c r="O61" s="12" t="n">
-        <v>343524</v>
+        <v>368536</v>
       </c>
       <c r="P61" s="12" t="n">
-        <v>368536</v>
+        <v>400079</v>
       </c>
       <c r="Q61" s="12" t="n">
-        <v>400079</v>
+        <v>406492</v>
       </c>
       <c r="R61" s="12" t="n">
-        <v>406492</v>
+        <v>500685</v>
       </c>
       <c r="S61" s="12" t="n">
-        <v>500685</v>
+        <v>461572</v>
       </c>
       <c r="T61" s="12" t="n">
-        <v>461572</v>
+        <v>518036</v>
       </c>
       <c r="U61" s="12" t="n">
-        <v>518036</v>
+        <v>581804</v>
       </c>
       <c r="V61" s="12" t="n">
-        <v>581804</v>
+        <v>627784</v>
       </c>
       <c r="W61" s="12" t="n">
-        <v>627784</v>
+        <v>705679</v>
       </c>
       <c r="X61" s="12" t="n">
-        <v>705679</v>
+        <v>774412</v>
       </c>
       <c r="Y61" s="12" t="n">
-        <v>774412</v>
+        <v>791482</v>
       </c>
       <c r="Z61" s="12" t="n">
-        <v>791482</v>
+        <v>759640</v>
       </c>
       <c r="AA61" s="12" t="n">
-        <v>759640</v>
+        <v>753678</v>
       </c>
       <c r="AB61" s="12" t="n">
-        <v>753678</v>
+        <v>703076</v>
       </c>
       <c r="AC61" s="12" t="n">
-        <v>703076</v>
+        <v>721188</v>
       </c>
       <c r="AD61" s="12" t="n">
-        <v>721188</v>
+        <v>732225</v>
       </c>
       <c r="AE61" s="12" t="n">
-        <v>732225</v>
+        <v>705394</v>
       </c>
       <c r="AF61" s="12" t="n">
-        <v>705394</v>
+        <v>703221</v>
       </c>
       <c r="AG61" s="12" t="n">
-        <v>703221</v>
+        <v>758064</v>
       </c>
       <c r="AH61" s="12" t="n">
-        <v>758064</v>
+        <v>840955</v>
       </c>
       <c r="AI61" s="12" t="n">
-        <v>840955</v>
+        <v>896991</v>
       </c>
       <c r="AJ61" s="12" t="n">
-        <v>896991</v>
+        <v>897634</v>
       </c>
       <c r="AK61" s="12" t="n">
-        <v>897634</v>
+        <v>899049</v>
       </c>
       <c r="AL61" s="12" t="n">
-        <v>899049</v>
+        <v>933613</v>
       </c>
       <c r="AM61" s="12" t="n">
-        <v>933613</v>
+        <v>955147</v>
       </c>
       <c r="AN61" s="12" t="n">
-        <v>955147</v>
+        <v>858559</v>
       </c>
       <c r="AO61" s="12" t="n">
-        <v>858559</v>
+        <v>880278</v>
       </c>
       <c r="AP61" s="12" t="n">
-        <v>880278</v>
+        <v>879970</v>
       </c>
       <c r="AQ61" s="12" t="n">
-        <v>879970</v>
+        <v>913246</v>
       </c>
       <c r="AR61" s="12" t="n">
-        <v>913246</v>
+        <v>984366</v>
       </c>
       <c r="AS61" s="12" t="n">
-        <v>984366</v>
+        <v>1018645</v>
       </c>
       <c r="AT61" s="12" t="n">
-        <v>1018645</v>
+        <v>1076521</v>
       </c>
       <c r="AU61" s="12" t="n">
-        <v>1076521</v>
+        <v>984624</v>
       </c>
       <c r="AV61" s="12" t="n">
-        <v>984624</v>
+        <v>1079736</v>
       </c>
       <c r="AW61" s="12" t="n">
-        <v>1079736</v>
+        <v>1139969</v>
       </c>
       <c r="AX61" s="12" t="n">
-        <v>1139969</v>
+        <v>1225426</v>
       </c>
       <c r="AY61" s="12" t="n">
-        <v>1225426</v>
+        <v>1270033</v>
       </c>
       <c r="AZ61" s="12" t="n">
-        <v>1270033</v>
+        <v>1426647</v>
       </c>
       <c r="BA61" s="12" t="n">
-        <v>1426647</v>
+        <v>1502487</v>
       </c>
       <c r="BB61" s="12" t="n">
-        <v>1502487</v>
+        <v>1495215</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9191,154 +9191,154 @@
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15" t="n">
-        <v>47088</v>
+        <v>46298</v>
       </c>
       <c r="F62" s="15" t="n">
-        <v>46298</v>
+        <v>67851</v>
       </c>
       <c r="G62" s="15" t="n">
-        <v>67851</v>
+        <v>63719</v>
       </c>
       <c r="H62" s="15" t="n">
-        <v>63719</v>
+        <v>57665</v>
       </c>
       <c r="I62" s="15" t="n">
-        <v>57665</v>
+        <v>68715</v>
       </c>
       <c r="J62" s="15" t="n">
-        <v>68715</v>
+        <v>71467</v>
       </c>
       <c r="K62" s="15" t="n">
-        <v>71467</v>
+        <v>72837</v>
       </c>
       <c r="L62" s="15" t="n">
-        <v>72837</v>
+        <v>57444</v>
       </c>
       <c r="M62" s="15" t="n">
-        <v>57444</v>
+        <v>70490</v>
       </c>
       <c r="N62" s="15" t="n">
-        <v>70490</v>
+        <v>71461</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>71461</v>
+        <v>73198</v>
       </c>
       <c r="P62" s="15" t="n">
-        <v>73198</v>
+        <v>71056</v>
       </c>
       <c r="Q62" s="15" t="n">
-        <v>71056</v>
+        <v>70635</v>
       </c>
       <c r="R62" s="15" t="n">
-        <v>70635</v>
+        <v>176471</v>
       </c>
       <c r="S62" s="15" t="n">
-        <v>176471</v>
+        <v>89293</v>
       </c>
       <c r="T62" s="15" t="n">
-        <v>89293</v>
+        <v>96007</v>
       </c>
       <c r="U62" s="15" t="n">
-        <v>96007</v>
+        <v>101300</v>
       </c>
       <c r="V62" s="15" t="n">
-        <v>101300</v>
+        <v>106508</v>
       </c>
       <c r="W62" s="15" t="n">
-        <v>106508</v>
+        <v>134543</v>
       </c>
       <c r="X62" s="15" t="n">
-        <v>134543</v>
+        <v>151358</v>
       </c>
       <c r="Y62" s="15" t="n">
-        <v>151358</v>
+        <v>154062</v>
       </c>
       <c r="Z62" s="15" t="n">
-        <v>154062</v>
+        <v>162960</v>
       </c>
       <c r="AA62" s="15" t="n">
-        <v>162960</v>
+        <v>155546</v>
       </c>
       <c r="AB62" s="15" t="n">
-        <v>155546</v>
+        <v>153089</v>
       </c>
       <c r="AC62" s="15" t="n">
-        <v>153089</v>
+        <v>148548</v>
       </c>
       <c r="AD62" s="15" t="n">
-        <v>148548</v>
+        <v>151006</v>
       </c>
       <c r="AE62" s="15" t="n">
-        <v>151006</v>
+        <v>160248</v>
       </c>
       <c r="AF62" s="15" t="n">
-        <v>160248</v>
+        <v>149539</v>
       </c>
       <c r="AG62" s="15" t="n">
-        <v>149539</v>
+        <v>174860</v>
       </c>
       <c r="AH62" s="15" t="n">
-        <v>174860</v>
+        <v>174475</v>
       </c>
       <c r="AI62" s="15" t="n">
-        <v>174475</v>
+        <v>194447</v>
       </c>
       <c r="AJ62" s="15" t="n">
-        <v>194447</v>
+        <v>190403</v>
       </c>
       <c r="AK62" s="15" t="n">
-        <v>190403</v>
+        <v>191579</v>
       </c>
       <c r="AL62" s="15" t="n">
-        <v>191579</v>
+        <v>185338</v>
       </c>
       <c r="AM62" s="15" t="n">
-        <v>185338</v>
+        <v>200300</v>
       </c>
       <c r="AN62" s="15" t="n">
-        <v>200300</v>
+        <v>196335</v>
       </c>
       <c r="AO62" s="15" t="n">
-        <v>196335</v>
+        <v>195704</v>
       </c>
       <c r="AP62" s="15" t="n">
-        <v>195704</v>
+        <v>219404</v>
       </c>
       <c r="AQ62" s="15" t="n">
-        <v>219404</v>
+        <v>208167</v>
       </c>
       <c r="AR62" s="15" t="n">
-        <v>208167</v>
+        <v>218362</v>
       </c>
       <c r="AS62" s="15" t="n">
-        <v>218362</v>
+        <v>243295</v>
       </c>
       <c r="AT62" s="15" t="n">
-        <v>243295</v>
+        <v>233105</v>
       </c>
       <c r="AU62" s="15" t="n">
-        <v>233105</v>
+        <v>235024</v>
       </c>
       <c r="AV62" s="15" t="n">
-        <v>235024</v>
+        <v>268930</v>
       </c>
       <c r="AW62" s="15" t="n">
-        <v>268930</v>
+        <v>272910</v>
       </c>
       <c r="AX62" s="15" t="n">
-        <v>272910</v>
+        <v>285613</v>
       </c>
       <c r="AY62" s="15" t="n">
-        <v>285613</v>
+        <v>294643</v>
       </c>
       <c r="AZ62" s="15" t="n">
-        <v>294643</v>
+        <v>304720</v>
       </c>
       <c r="BA62" s="15" t="n">
-        <v>304720</v>
+        <v>300844</v>
       </c>
       <c r="BB62" s="15" t="n">
-        <v>300844</v>
+        <v>285032</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9424,44 +9424,44 @@
       <c r="AC63" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD63" s="12" t="s">
-        <v>56</v>
+      <c r="AD63" s="12" t="n">
+        <v>1000156</v>
       </c>
       <c r="AE63" s="12" t="n">
-        <v>1000156</v>
+        <v>844734</v>
       </c>
       <c r="AF63" s="12" t="n">
-        <v>844734</v>
+        <v>848572</v>
       </c>
       <c r="AG63" s="12" t="n">
-        <v>848572</v>
+        <v>926298</v>
       </c>
       <c r="AH63" s="12" t="n">
-        <v>926298</v>
+        <v>1029745</v>
       </c>
       <c r="AI63" s="12" t="n">
-        <v>1029745</v>
+        <v>1169304</v>
       </c>
       <c r="AJ63" s="12" t="n">
-        <v>1169304</v>
+        <v>1117173</v>
       </c>
       <c r="AK63" s="12" t="n">
-        <v>1117173</v>
+        <v>1284380</v>
       </c>
       <c r="AL63" s="12" t="n">
-        <v>1284380</v>
+        <v>1244538</v>
       </c>
       <c r="AM63" s="12" t="n">
-        <v>1244538</v>
+        <v>1241151</v>
       </c>
       <c r="AN63" s="12" t="n">
-        <v>1241151</v>
+        <v>1229651</v>
       </c>
       <c r="AO63" s="12" t="n">
-        <v>1229651</v>
-      </c>
-      <c r="AP63" s="12" t="n">
         <v>1250967</v>
+      </c>
+      <c r="AP63" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AQ63" s="12" t="s">
         <v>56</v>
